--- a/Sonia_IndiaLab_English_20200710.xlsx
+++ b/Sonia_IndiaLab_English_20200710.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\Sonia Quality Assurance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92F552D-A626-4AF7-B9BD-6ED37BA79021}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42E4DA4-97FD-48FE-8586-8212228A2739}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アプリ配置 (必須)" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Application_Used_More_thenoneDB!$A$1:$E$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Ini File Details'!$A$1:$K$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Ini File Details'!$A$1:$K$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'App placement (necessary)'!$A$1:$E$86</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'アプリ配置 (必須)'!$A$1:$D$86</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'App placement (necessary)'!$1:$1</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3116" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3156" uniqueCount="560">
   <si>
     <t>ビックカメラ</t>
     <phoneticPr fontId="1"/>
@@ -1513,12 +1513,6 @@
     <t>gss8888-PC</t>
   </si>
   <si>
-    <t>sqa-sql2k5,sqa-sql2k5</t>
-  </si>
-  <si>
-    <t>best_wrn_new,best_wrn_new_temp</t>
-  </si>
-  <si>
     <r>
       <t>Working fine.</t>
     </r>
@@ -1532,21 +1526,6 @@
       </rPr>
       <t>Import Document Need tocheck functionality</t>
     </r>
-  </si>
-  <si>
-    <t>best_wrn.ini,best_wrn_data2.ini</t>
-  </si>
-  <si>
-    <t>best_wrn.ini,best_wrn_data.ini</t>
-  </si>
-  <si>
-    <t>gss8888-PC,gss8888-PC</t>
-  </si>
-  <si>
-    <t>best_wrn_new,best_wrn_data2</t>
-  </si>
-  <si>
-    <t>best_wrn_new,best_wrn_data2_temp</t>
   </si>
   <si>
     <r>
@@ -2471,6 +2450,9 @@
   </si>
   <si>
     <t>best_wrn_new.sql</t>
+  </si>
+  <si>
+    <t>best_wrn_data.ini</t>
   </si>
 </sst>
 </file>
@@ -2939,25 +2921,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -3352,11 +3334,11 @@
   <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection activeCell="I12" sqref="I12"/>
       <selection pane="topRight" activeCell="I12" sqref="I12"/>
       <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
-      <selection pane="bottomRight" activeCell="C88" sqref="C88"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4177,10 +4159,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="52"/>
-      <c r="B68" s="53" t="s">
+      <c r="B68" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="53" t="s">
+      <c r="C68" s="55" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="3" t="s">
@@ -4189,8 +4171,8 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="52"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="53"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="55"/>
       <c r="D69" s="3" t="s">
         <v>130</v>
       </c>
@@ -4209,10 +4191,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="52"/>
-      <c r="B71" s="53" t="s">
+      <c r="B71" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="53" t="s">
+      <c r="C71" s="55" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -4221,8 +4203,8 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="52"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="53"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="55"/>
       <c r="D72" s="3" t="s">
         <v>130</v>
       </c>
@@ -4267,10 +4249,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="52"/>
-      <c r="B76" s="53" t="s">
+      <c r="B76" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C76" s="53" t="s">
+      <c r="C76" s="55" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -4279,18 +4261,18 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="52"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="53"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="55"/>
       <c r="D77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="52"/>
-      <c r="B78" s="53" t="s">
+      <c r="B78" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="53" t="s">
+      <c r="C78" s="55" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="3" t="s">
@@ -4299,8 +4281,8 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="52"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="53"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="55"/>
       <c r="D79" s="3" t="s">
         <v>130</v>
       </c>
@@ -4345,10 +4327,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="52"/>
-      <c r="B83" s="54" t="s">
+      <c r="B83" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="54" t="s">
+      <c r="C83" s="53" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="3" t="s">
@@ -4357,8 +4339,8 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="52"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
+      <c r="B84" s="54"/>
+      <c r="C84" s="54"/>
       <c r="D84" s="3" t="s">
         <v>130</v>
       </c>
@@ -4394,6 +4376,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="A49:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A74"/>
+    <mergeCell ref="B68:B69"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
@@ -4402,20 +4398,6 @@
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="A75:A81"/>
     <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="A49:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A74"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
@@ -4431,8 +4413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842EE351-6A8B-438A-8E5A-6437F50A8F1F}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4454,10 +4436,10 @@
         <v>163</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -4474,7 +4456,7 @@
         <v>304</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -4489,7 +4471,7 @@
         <v>100</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -4504,7 +4486,7 @@
         <v>304</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -4519,7 +4501,7 @@
         <v>101</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -4534,7 +4516,7 @@
         <v>101</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -4549,7 +4531,7 @@
         <v>100</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -4564,7 +4546,7 @@
         <v>304</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -4579,7 +4561,7 @@
         <v>100</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -4594,7 +4576,7 @@
         <v>304</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -4609,7 +4591,7 @@
         <v>100</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -4624,7 +4606,7 @@
         <v>100</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -4639,7 +4621,7 @@
         <v>304</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -4654,7 +4636,7 @@
         <v>304</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -4669,7 +4651,7 @@
         <v>101</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -4684,7 +4666,7 @@
         <v>101</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -4699,7 +4681,7 @@
         <v>304</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -4714,7 +4696,7 @@
         <v>304</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -4729,7 +4711,7 @@
         <v>100</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -4854,11 +4836,11 @@
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
       <selection activeCell="I12" sqref="I12"/>
       <selection pane="topRight" activeCell="I12" sqref="I12"/>
       <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
-      <selection pane="bottomRight" activeCell="C70" sqref="C70"/>
+      <selection pane="bottomRight" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4900,7 +4882,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="52"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="58" t="s">
         <v>171</v>
       </c>
       <c r="C3" s="52" t="s">
@@ -4913,7 +4895,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="52"/>
-      <c r="B4" s="57"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="52"/>
       <c r="D4" s="10"/>
       <c r="E4" s="3" t="s">
@@ -4922,7 +4904,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="52"/>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="58" t="s">
         <v>172</v>
       </c>
       <c r="C5" s="52" t="s">
@@ -4935,7 +4917,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="52"/>
-      <c r="B6" s="57"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="52"/>
       <c r="D6" s="10"/>
       <c r="E6" s="3" t="s">
@@ -5761,10 +5743,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="52"/>
-      <c r="B68" s="58" t="s">
+      <c r="B68" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="C68" s="53" t="s">
+      <c r="C68" s="55" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="13"/>
@@ -5774,8 +5756,8 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="52"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="53"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="55"/>
       <c r="D69" s="13"/>
       <c r="E69" s="3" t="s">
         <v>130</v>
@@ -5796,10 +5778,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="52"/>
-      <c r="B71" s="53" t="s">
+      <c r="B71" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="53" t="s">
+      <c r="C71" s="55" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="13"/>
@@ -5809,8 +5791,8 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="52"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="53"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="55"/>
       <c r="D72" s="13"/>
       <c r="E72" s="3" t="s">
         <v>130</v>
@@ -5859,10 +5841,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="52"/>
-      <c r="B76" s="58" t="s">
+      <c r="B76" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="C76" s="53" t="s">
+      <c r="C76" s="55" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="13"/>
@@ -5872,8 +5854,8 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="52"/>
-      <c r="B77" s="59"/>
-      <c r="C77" s="53"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="55"/>
       <c r="D77" s="13"/>
       <c r="E77" s="3" t="s">
         <v>130</v>
@@ -5881,10 +5863,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="52"/>
-      <c r="B78" s="53" t="s">
+      <c r="B78" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="C78" s="53" t="s">
+      <c r="C78" s="55" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="13"/>
@@ -5894,8 +5876,8 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="52"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="53"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="55"/>
       <c r="D79" s="13"/>
       <c r="E79" s="3" t="s">
         <v>130</v>
@@ -5944,10 +5926,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="52"/>
-      <c r="B83" s="54" t="s">
+      <c r="B83" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="C83" s="54" t="s">
+      <c r="C83" s="53" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="11"/>
@@ -5957,8 +5939,8 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="52"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
+      <c r="B84" s="54"/>
+      <c r="C84" s="54"/>
       <c r="D84" s="12"/>
       <c r="E84" s="3" t="s">
         <v>130</v>
@@ -6013,6 +5995,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
@@ -6029,12 +6017,6 @@
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="C78:C79"/>
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
@@ -6169,8 +6151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:VMV142"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23675,10 +23657,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23714,10 +23696,10 @@
         <v>300</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>320</v>
@@ -23740,7 +23722,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>316</v>
@@ -23759,7 +23741,7 @@
         <v>327</v>
       </c>
       <c r="K2" s="47" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -23771,7 +23753,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>316</v>
@@ -23790,7 +23772,7 @@
         <v>327</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -23802,7 +23784,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>316</v>
@@ -23985,7 +23967,7 @@
         <v>327</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
@@ -24043,7 +24025,7 @@
         <v>327</v>
       </c>
       <c r="K12" s="33" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
@@ -24185,10 +24167,10 @@
         <v>326</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
@@ -24221,13 +24203,13 @@
         <v>79</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>332</v>
+        <v>100</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -24238,25 +24220,25 @@
         <v>327</v>
       </c>
       <c r="K19" s="33" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="52"/>
       <c r="B20" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>334</v>
+        <v>559</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>337</v>
+        <v>295</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -24267,25 +24249,25 @@
         <v>327</v>
       </c>
       <c r="K20" s="33" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="52"/>
       <c r="B21" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>295</v>
+        <v>100</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -24302,19 +24284,19 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="52"/>
       <c r="B22" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>295</v>
+        <v>101</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -24331,10 +24313,10 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="52"/>
       <c r="B23" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>302</v>
@@ -24345,36 +24327,34 @@
       <c r="F23" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>295</v>
-      </c>
+      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="K23" s="21" t="s">
-        <v>466</v>
+        <v>327</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="52"/>
       <c r="B24" s="21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>337</v>
+        <v>295</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -24382,54 +24362,56 @@
         <v>326</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="K24" s="34" t="s">
-        <v>543</v>
+        <v>327</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="52"/>
       <c r="B25" s="21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="G25" s="1"/>
+        <v>295</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K25" s="33" t="s">
-        <v>328</v>
+        <v>325</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="52"/>
       <c r="B26" s="21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>100</v>
@@ -24440,28 +24422,28 @@
         <v>326</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K26" s="33" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>556</v>
+      </c>
+      <c r="K26" s="34" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="52"/>
       <c r="B27" s="21" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>337</v>
+        <v>101</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -24469,40 +24451,36 @@
         <v>326</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="K27" s="34" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="52"/>
       <c r="B28" s="21" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G28" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="H28" s="36" t="s">
-        <v>565</v>
-      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K28" s="33" t="s">
         <v>328</v>
@@ -24511,31 +24489,27 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="52"/>
       <c r="B29" s="21" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>303</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G29" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="H29" s="36" t="s">
-        <v>473</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K29" s="33" t="s">
         <v>328</v>
@@ -24544,100 +24518,88 @@
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="52"/>
       <c r="B30" s="21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="G30" s="36" t="s">
-        <v>342</v>
-      </c>
-      <c r="H30" s="36" t="s">
-        <v>504</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K30" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="52"/>
       <c r="B31" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G31" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="H31" s="36" t="s">
-        <v>565</v>
-      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="K31" s="33" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+        <v>556</v>
+      </c>
+      <c r="K31" s="34" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="52"/>
       <c r="B32" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="G32" s="36" t="s">
-        <v>342</v>
-      </c>
-      <c r="H32" s="36" t="s">
-        <v>504</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="K32" s="33" t="s">
-        <v>328</v>
+        <v>556</v>
+      </c>
+      <c r="K32" s="34" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
@@ -24646,22 +24608,22 @@
         <v>205</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>295</v>
+        <v>100</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>323</v>
@@ -24679,22 +24641,22 @@
         <v>205</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>304</v>
+        <v>101</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>342</v>
+        <v>101</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>504</v>
+        <v>466</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>323</v>
@@ -24712,22 +24674,22 @@
         <v>205</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>565</v>
+        <v>497</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>323</v>
@@ -24745,22 +24707,22 @@
         <v>205</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>311</v>
+        <v>100</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>101</v>
+        <v>336</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>473</v>
+        <v>558</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>323</v>
@@ -24778,22 +24740,22 @@
         <v>205</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>305</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>323</v>
@@ -24811,7 +24773,7 @@
         <v>205</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>302</v>
@@ -24823,10 +24785,10 @@
         <v>295</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>323</v>
@@ -24844,7 +24806,7 @@
         <v>205</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>305</v>
@@ -24856,10 +24818,10 @@
         <v>304</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>323</v>
@@ -24874,90 +24836,127 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="52"/>
       <c r="B40" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>443</v>
+        <v>41</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="G40" t="s">
-        <v>304</v>
+        <v>295</v>
+      </c>
+      <c r="G40" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="H40" s="36" t="s">
+        <v>558</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="K40" s="48" t="s">
-        <v>465</v>
+      <c r="K40" s="33" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A41" s="52" t="s">
-        <v>175</v>
-      </c>
+      <c r="A41" s="52"/>
       <c r="B41" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="33"/>
+        <v>205</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G41" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="H41" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="K41" s="33" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="52"/>
       <c r="B42" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+        <v>205</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G42" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="H42" s="36" t="s">
+        <v>497</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="K42" s="33" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="52"/>
       <c r="B43" s="21" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>542</v>
+        <v>302</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+        <v>295</v>
+      </c>
+      <c r="G43" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="H43" s="36" t="s">
+        <v>558</v>
+      </c>
       <c r="I43" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>325</v>
@@ -24969,44 +24968,75 @@
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="52"/>
       <c r="B44" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+        <v>205</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G44" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="H44" s="36" t="s">
+        <v>497</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="K44" s="33" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="52"/>
       <c r="B45" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
+        <v>206</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G45" t="s">
+        <v>304</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="K45" s="48" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="52"/>
+      <c r="A46" s="52" t="s">
+        <v>175</v>
+      </c>
       <c r="B46" s="21" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="35"/>
@@ -25015,15 +25045,15 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+      <c r="K46" s="33"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="52"/>
       <c r="B47" s="21" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="35"/>
@@ -25037,280 +25067,218 @@
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="52"/>
       <c r="B48" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="1"/>
+        <v>189</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E48" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>535</v>
+      </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
+      <c r="I48" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="K48" s="33" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="52" t="s">
-        <v>176</v>
-      </c>
+      <c r="A49" s="52"/>
       <c r="B49" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E49" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="G49" s="36" t="s">
-        <v>295</v>
-      </c>
-      <c r="H49" s="36" t="s">
-        <v>565</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="K49" s="33" t="s">
-        <v>339</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="52"/>
       <c r="B50" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E50" s="35" t="s">
-        <v>312</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G50" s="36" t="s">
-        <v>295</v>
-      </c>
-      <c r="H50" s="36" t="s">
-        <v>565</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="K50" s="33" t="s">
-        <v>328</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51" s="52" t="s">
-        <v>168</v>
-      </c>
+      <c r="A51" s="52"/>
       <c r="B51" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E51" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G51" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="H51" s="36" t="s">
-        <v>564</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="K51" s="33" t="s">
-        <v>340</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" s="52"/>
       <c r="B52" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A53" s="52"/>
+      <c r="B53" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A54" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="C52" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E52" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G52" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="H52" s="36" t="s">
-        <v>564</v>
-      </c>
-      <c r="I52" s="1" t="s">
+      <c r="C54" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E54" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G54" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="H54" s="36" t="s">
+        <v>558</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="J52" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K52" s="33" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K53" s="42" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="52"/>
-      <c r="B54" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E54" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="J54" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K54" s="33" t="s">
-        <v>394</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="52"/>
       <c r="B55" s="21" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>371</v>
+        <v>302</v>
       </c>
       <c r="E55" s="35" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="H55" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="G55" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="H55" s="36" t="s">
+        <v>558</v>
+      </c>
       <c r="I55" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K55" s="33" t="s">
-        <v>561</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="52"/>
+      <c r="A56" s="52" t="s">
+        <v>168</v>
+      </c>
       <c r="B56" s="21" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="E56" s="35" t="s">
         <v>313</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="H56" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="G56" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="H56" s="36" t="s">
+        <v>557</v>
+      </c>
       <c r="I56" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K56" s="33" t="s">
-        <v>561</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
@@ -25319,23 +25287,25 @@
         <v>215</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="E57" s="35" t="s">
         <v>313</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="H57" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="G57" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="H57" s="36" t="s">
+        <v>557</v>
+      </c>
       <c r="I57" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>327</v>
@@ -25344,37 +25314,37 @@
         <v>328</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A58" s="52" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="E58" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F58" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="G58" s="21" t="s">
-        <v>400</v>
-      </c>
-      <c r="H58" s="21"/>
+      <c r="F58" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="K58" s="48" t="s">
-        <v>467</v>
+        <v>327</v>
+      </c>
+      <c r="K58" s="42" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
@@ -25383,199 +25353,356 @@
         <v>217</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="F59" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="G59" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="H59" s="21"/>
+        <v>30</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E59" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H59" s="1"/>
       <c r="I59" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K59" s="33" t="s">
-        <v>465</v>
+        <v>387</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="52"/>
       <c r="B60" s="21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="F60" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="G60" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="H60" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E60" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H60" s="1"/>
       <c r="I60" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K60" s="33" t="s">
-        <v>465</v>
+        <v>554</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="52"/>
       <c r="B61" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E61" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K61" s="33" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A62" s="52"/>
+      <c r="B62" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="C61" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D61" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="F61" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="G61" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="H61" s="21"/>
-      <c r="I61" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="K61" s="33" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A62" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>187</v>
-      </c>
       <c r="C62" s="21" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="E62" s="35" t="s">
         <v>313</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>104</v>
+        <v>365</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>104</v>
+        <v>365</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="K62" s="49" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A63" s="52"/>
+        <v>327</v>
+      </c>
+      <c r="K62" s="33" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A63" s="52" t="s">
+        <v>106</v>
+      </c>
       <c r="B63" s="21" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E63" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="E63" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="H63" s="1"/>
+      <c r="F63" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G63" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="H63" s="21"/>
       <c r="I63" s="1" t="s">
         <v>322</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="K63" s="21" t="s">
-        <v>466</v>
+      <c r="K63" s="48" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" s="52"/>
       <c r="B64" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E64" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="H64" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="G64" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="H64" s="21"/>
       <c r="I64" s="1" t="s">
         <v>322</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="K64" s="49" t="s">
-        <v>469</v>
+      <c r="K64" s="33" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A65" s="52"/>
+      <c r="B65" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="H65" s="21"/>
+      <c r="I65" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="K65" s="33" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A66" s="52"/>
+      <c r="B66" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="H66" s="21"/>
+      <c r="I66" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="K66" s="33" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A67" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E67" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="K67" s="49" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A68" s="52"/>
+      <c r="B68" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E68" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="K68" s="21" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A69" s="52"/>
+      <c r="B69" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E69" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="K69" s="49" t="s">
+        <v>462</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K64" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:K69" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="8">
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A67:A69"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A40"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A5:A45"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25706,7 +25833,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="58" t="s">
         <v>166</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -25717,7 +25844,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="57"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="21" t="s">
         <v>202</v>
       </c>
@@ -25777,7 +25904,7 @@
         <v>205</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -25953,7 +26080,7 @@
   <dimension ref="A1:T144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E1" sqref="E1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -25982,19 +26109,19 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" s="65" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
       <c r="D1" s="67"/>
       <c r="E1" s="68" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F1" s="69"/>
       <c r="G1" s="69"/>
       <c r="H1" s="70"/>
       <c r="I1" s="64" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="J1" s="64"/>
       <c r="K1" s="64"/>
@@ -26014,61 +26141,61 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="37" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>280</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>280</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="J2" s="39" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="L2" s="39" t="s">
         <v>280</v>
       </c>
       <c r="M2" s="40" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="N2" s="40" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="O2" s="40" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="P2" s="40" t="s">
         <v>280</v>
       </c>
       <c r="Q2" s="41" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="R2" s="41" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="S2" s="41" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="T2" s="41" t="s">
         <v>280</v>
@@ -26076,1063 +26203,1063 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>100</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>295</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="S3" s="36" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="T3" s="36"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>100</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>295</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R4" s="36" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="S4" s="36" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="T4" s="36"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>100</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>295</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R5" s="36" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="S5" s="36" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="T5" s="36"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>100</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>295</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R6" s="36" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="S6" s="36" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="T6" s="36"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>100</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R7" s="36" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="S7" s="36" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="T7" s="36"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>100</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R8" s="36" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="S8" s="36" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="T8" s="36"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>100</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R9" s="36" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="S9" s="36" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="T9" s="36"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>100</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R10" s="36" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="S10" s="36" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="T10" s="36"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>100</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R11" s="36" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="S11" s="36" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="T11" s="36"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>100</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R12" s="36" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="S12" s="36" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="T12" s="36"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>100</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R13" s="36" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="S13" s="36" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="T13" s="36"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>100</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R14" s="36" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="S14" s="36" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="T14" s="36"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>100</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R15" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S15" s="36" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="T15" s="36"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>100</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R16" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S16" s="36" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="T16" s="36"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>100</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R17" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S17" s="36" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="T17" s="36"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>100</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R18" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S18" s="36" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="T18" s="36"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>100</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R19" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S19" s="36" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="T19" s="36"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>100</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R20" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S20" s="36" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="T20" s="36"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>100</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R21" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S21" s="36" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="T21" s="36"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>100</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R22" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S22" s="36" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="T22" s="36"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>100</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R23" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S23" s="36" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="T23" s="36"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -27140,45 +27267,45 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>100</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R24" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S24" s="36" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="T24" s="36"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -27186,45 +27313,45 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>100</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R25" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S25" s="36" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="T25" s="36"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -27232,33 +27359,33 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>100</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R26" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S26" s="36" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="T26" s="36"/>
     </row>
@@ -27269,33 +27396,33 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>295</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R27" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S27" s="36" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="T27" s="36"/>
     </row>
@@ -27309,33 +27436,33 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>295</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R28" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S28" s="36" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="T28" s="36"/>
     </row>
@@ -27349,17 +27476,17 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>295</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>99</v>
@@ -27367,13 +27494,13 @@
       <c r="O29" s="34"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R29" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S29" s="36" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="T29" s="36"/>
     </row>
@@ -27387,33 +27514,33 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>295</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R30" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S30" s="36" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="T30" s="36"/>
     </row>
@@ -27427,33 +27554,33 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>295</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R31" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S31" s="36" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="T31" s="36"/>
     </row>
@@ -27467,33 +27594,33 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>295</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R32" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S32" s="36" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="T32" s="36"/>
     </row>
@@ -27507,33 +27634,33 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>295</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R33" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S33" s="36" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="T33" s="36"/>
     </row>
@@ -27547,33 +27674,33 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>101</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R34" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S34" s="36" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="T34" s="36"/>
     </row>
@@ -27587,33 +27714,33 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>101</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R35" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S35" s="36" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="T35" s="36"/>
     </row>
@@ -27627,33 +27754,33 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>101</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R36" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S36" s="36" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="T36" s="36"/>
     </row>
@@ -27667,33 +27794,33 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>311</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R37" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S37" s="36" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="T37" s="36"/>
     </row>
@@ -27707,33 +27834,33 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>311</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R38" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S38" s="36" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="T38" s="36"/>
     </row>
@@ -27747,33 +27874,33 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="P39" s="1"/>
       <c r="Q39" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R39" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S39" s="36" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="T39" s="36"/>
     </row>
@@ -27787,33 +27914,33 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R40" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S40" s="36" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="T40" s="36"/>
     </row>
@@ -27827,33 +27954,33 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R41" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S41" s="36" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="T41" s="36"/>
     </row>
@@ -27867,33 +27994,33 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="P42" s="1"/>
       <c r="Q42" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R42" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S42" s="36" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="T42" s="36"/>
     </row>
@@ -27907,33 +28034,33 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R43" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S43" s="36" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="T43" s="36"/>
     </row>
@@ -27947,33 +28074,33 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R44" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S44" s="36" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="T44" s="36"/>
     </row>
@@ -27991,23 +28118,23 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R45" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S45" s="36" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="T45" s="36"/>
     </row>
@@ -28025,23 +28152,23 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="P46" s="1"/>
       <c r="Q46" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R46" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S46" s="36" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="T46" s="36"/>
     </row>
@@ -28059,23 +28186,23 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R47" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S47" s="36" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="T47" s="36"/>
     </row>
@@ -28093,23 +28220,23 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R48" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S48" s="36" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="T48" s="36"/>
     </row>
@@ -28127,23 +28254,23 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R49" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S49" s="36" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="T49" s="36"/>
     </row>
@@ -28161,23 +28288,23 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="P50" s="1"/>
       <c r="Q50" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R50" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S50" s="36" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="T50" s="36"/>
     </row>
@@ -28195,13 +28322,13 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
@@ -28223,13 +28350,13 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
@@ -28251,13 +28378,13 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
@@ -28279,13 +28406,13 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
@@ -28307,13 +28434,13 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
@@ -28335,13 +28462,13 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
@@ -28363,13 +28490,13 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
@@ -28391,13 +28518,13 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
@@ -28419,13 +28546,13 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
@@ -28447,13 +28574,13 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
@@ -28475,13 +28602,13 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N61" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
@@ -28503,13 +28630,13 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
@@ -28531,13 +28658,13 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
@@ -28559,13 +28686,13 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
@@ -28587,13 +28714,13 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
@@ -28615,13 +28742,13 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N66" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
@@ -28643,13 +28770,13 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
@@ -28671,13 +28798,13 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N68" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
@@ -28699,13 +28826,13 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
@@ -28727,13 +28854,13 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
@@ -28755,13 +28882,13 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N71" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
@@ -28783,13 +28910,13 @@
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N72" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
@@ -28811,13 +28938,13 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N73" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
@@ -28839,13 +28966,13 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
@@ -28867,13 +28994,13 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
@@ -28895,13 +29022,13 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
@@ -28923,13 +29050,13 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
@@ -28951,13 +29078,13 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
@@ -28979,13 +29106,13 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
@@ -29007,13 +29134,13 @@
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
@@ -29035,13 +29162,13 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
@@ -29063,13 +29190,13 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O82" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="N82" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="O82" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
@@ -29091,13 +29218,13 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
@@ -29119,13 +29246,13 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
@@ -29147,13 +29274,13 @@
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
@@ -29175,13 +29302,13 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
@@ -29203,13 +29330,13 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N87" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
@@ -29231,13 +29358,13 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N88" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
@@ -29259,13 +29386,13 @@
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N89" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
@@ -29287,13 +29414,13 @@
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N90" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
@@ -29315,13 +29442,13 @@
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N91" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
@@ -29343,13 +29470,13 @@
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N92" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
@@ -29371,13 +29498,13 @@
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
@@ -29399,13 +29526,13 @@
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
@@ -29427,13 +29554,13 @@
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N95" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
@@ -29455,13 +29582,13 @@
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N96" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
@@ -29483,13 +29610,13 @@
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N97" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
@@ -29511,13 +29638,13 @@
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N98" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
@@ -29539,13 +29666,13 @@
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N99" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
@@ -29567,13 +29694,13 @@
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N100" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
@@ -29595,13 +29722,13 @@
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N101" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
@@ -29623,13 +29750,13 @@
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N102" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
@@ -29651,13 +29778,13 @@
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N103" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
@@ -29679,13 +29806,13 @@
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N104" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
@@ -29707,13 +29834,13 @@
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N105" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
@@ -29735,13 +29862,13 @@
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N106" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
@@ -29763,13 +29890,13 @@
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N107" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
@@ -29791,13 +29918,13 @@
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N108" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
@@ -29819,13 +29946,13 @@
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N109" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
@@ -29847,13 +29974,13 @@
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N110" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
@@ -29875,13 +30002,13 @@
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N111" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
@@ -29903,13 +30030,13 @@
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N112" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
@@ -29931,13 +30058,13 @@
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="N113" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
@@ -30667,10 +30794,10 @@
         <v>163</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F1" s="51" t="s">
         <v>280</v>
@@ -30681,13 +30808,13 @@
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
       <c r="D2" s="1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -30695,13 +30822,13 @@
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -30718,10 +30845,10 @@
         <v>106</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -30736,10 +30863,10 @@
         <v>106</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -30754,10 +30881,10 @@
         <v>106</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -30772,10 +30899,10 @@
         <v>106</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -30786,16 +30913,16 @@
         <v>171</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -30804,16 +30931,16 @@
         <v>171</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -30822,16 +30949,16 @@
         <v>171</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -30840,16 +30967,16 @@
         <v>181</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -30858,16 +30985,16 @@
         <v>172</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -30886,16 +31013,16 @@
         <v>206</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -30904,16 +31031,16 @@
         <v>206</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
@@ -30922,21 +31049,21 @@
         <v>206</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="52" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>215</v>
@@ -30945,13 +31072,13 @@
         <v>33</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -31010,13 +31137,13 @@
         <v>163</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F1" s="51" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G1" s="51" t="s">
         <v>280</v>
@@ -31027,13 +31154,13 @@
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
       <c r="D2" s="1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="G2" s="21"/>
     </row>
@@ -31042,13 +31169,13 @@
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G3" s="21"/>
     </row>
@@ -31057,13 +31184,13 @@
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="G4" s="21"/>
     </row>
@@ -31072,13 +31199,13 @@
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="G5" s="21"/>
     </row>
@@ -31087,13 +31214,13 @@
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G6" s="21"/>
     </row>
@@ -31102,13 +31229,13 @@
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="G7" s="21"/>
     </row>
@@ -31121,13 +31248,13 @@
         <v>163</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>280</v>
@@ -31141,19 +31268,19 @@
         <v>171</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31162,19 +31289,19 @@
         <v>171</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31183,19 +31310,19 @@
         <v>171</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31204,19 +31331,19 @@
         <v>171</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31225,19 +31352,19 @@
         <v>171</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31246,19 +31373,19 @@
         <v>171</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31267,19 +31394,19 @@
         <v>171</v>
       </c>
       <c r="C19" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>488</v>
-      </c>
       <c r="G19" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31288,19 +31415,19 @@
         <v>171</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31309,19 +31436,19 @@
         <v>171</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="G21" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31330,19 +31457,19 @@
         <v>171</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31351,19 +31478,19 @@
         <v>171</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31372,19 +31499,19 @@
         <v>171</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31393,19 +31520,19 @@
         <v>171</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31414,19 +31541,19 @@
         <v>171</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31435,19 +31562,19 @@
         <v>171</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31456,19 +31583,19 @@
         <v>171</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31477,19 +31604,19 @@
         <v>171</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31498,19 +31625,19 @@
         <v>171</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31519,19 +31646,19 @@
         <v>171</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31540,19 +31667,19 @@
         <v>171</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31561,19 +31688,19 @@
         <v>171</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31582,19 +31709,19 @@
         <v>171</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31603,19 +31730,19 @@
         <v>171</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31624,19 +31751,19 @@
         <v>171</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31645,19 +31772,19 @@
         <v>171</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31666,19 +31793,19 @@
         <v>171</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -31708,13 +31835,13 @@
         <v>163</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>280</v>
@@ -31728,19 +31855,19 @@
         <v>181</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31749,19 +31876,19 @@
         <v>181</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31770,19 +31897,19 @@
         <v>181</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31791,19 +31918,19 @@
         <v>181</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31812,19 +31939,19 @@
         <v>181</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31833,19 +31960,19 @@
         <v>181</v>
       </c>
       <c r="C51" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>487</v>
-      </c>
       <c r="G51" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31854,19 +31981,19 @@
         <v>181</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31875,19 +32002,19 @@
         <v>181</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31896,19 +32023,19 @@
         <v>181</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="G54" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31917,19 +32044,19 @@
         <v>181</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31938,19 +32065,19 @@
         <v>181</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G56" s="21" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31959,19 +32086,19 @@
         <v>181</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G57" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -31980,19 +32107,19 @@
         <v>181</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32001,19 +32128,19 @@
         <v>181</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="G59" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32022,19 +32149,19 @@
         <v>181</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G60" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32043,19 +32170,19 @@
         <v>181</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="G61" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32064,19 +32191,19 @@
         <v>181</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G62" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32085,19 +32212,19 @@
         <v>181</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="G63" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32106,19 +32233,19 @@
         <v>181</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32127,19 +32254,19 @@
         <v>181</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G65" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32148,19 +32275,19 @@
         <v>181</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G66" s="21" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32169,19 +32296,19 @@
         <v>181</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G67" s="21" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32190,19 +32317,19 @@
         <v>181</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G68" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32211,19 +32338,19 @@
         <v>181</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G69" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32232,19 +32359,19 @@
         <v>181</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G70" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32253,19 +32380,19 @@
         <v>181</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G71" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
@@ -32295,13 +32422,13 @@
         <v>163</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>280</v>
@@ -32315,19 +32442,19 @@
         <v>172</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32336,19 +32463,19 @@
         <v>172</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32357,19 +32484,19 @@
         <v>172</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32378,19 +32505,19 @@
         <v>172</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32399,19 +32526,19 @@
         <v>172</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32420,19 +32547,19 @@
         <v>172</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="G83" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32441,19 +32568,19 @@
         <v>172</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G84" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32462,19 +32589,19 @@
         <v>172</v>
       </c>
       <c r="C85" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="G85" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32483,19 +32610,19 @@
         <v>172</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D86" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="G86" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32504,19 +32631,19 @@
         <v>172</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G87" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32525,19 +32652,19 @@
         <v>172</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G88" s="21" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32546,19 +32673,19 @@
         <v>172</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G89" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32567,19 +32694,19 @@
         <v>172</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G90" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32588,19 +32715,19 @@
         <v>172</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="G91" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32609,19 +32736,19 @@
         <v>172</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G92" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32630,19 +32757,19 @@
         <v>172</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="G93" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32651,19 +32778,19 @@
         <v>172</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G94" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32672,19 +32799,19 @@
         <v>172</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="G95" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32693,19 +32820,19 @@
         <v>172</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="G96" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32714,19 +32841,19 @@
         <v>172</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G97" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32735,19 +32862,19 @@
         <v>172</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G98" s="21" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32756,19 +32883,19 @@
         <v>172</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G99" s="21" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32777,19 +32904,19 @@
         <v>172</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G100" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32798,19 +32925,19 @@
         <v>172</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G101" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32819,19 +32946,19 @@
         <v>172</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G102" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32840,19 +32967,19 @@
         <v>172</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G103" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
@@ -32882,13 +33009,13 @@
         <v>163</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>280</v>
@@ -32905,16 +33032,16 @@
         <v>19</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="G110" s="21" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32926,16 +33053,16 @@
         <v>17</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="G111" s="21" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -32947,16 +33074,16 @@
         <v>15</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="G112" s="21" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.15">
@@ -32968,13 +33095,13 @@
         <v>163</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>280</v>
@@ -32988,19 +33115,19 @@
         <v>206</v>
       </c>
       <c r="C116" s="21" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G116" s="21" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -33009,19 +33136,19 @@
         <v>206</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="G117" s="21" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -33030,19 +33157,19 @@
         <v>206</v>
       </c>
       <c r="C118" s="21" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="G118" s="21" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -33051,19 +33178,19 @@
         <v>206</v>
       </c>
       <c r="C119" s="21" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="G119" s="21" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -33072,19 +33199,19 @@
         <v>206</v>
       </c>
       <c r="C120" s="21" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G120" s="21" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -33093,19 +33220,19 @@
         <v>206</v>
       </c>
       <c r="C121" s="21" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="G121" s="21" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -33114,19 +33241,19 @@
         <v>206</v>
       </c>
       <c r="C122" s="21" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G122" s="21" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -33135,19 +33262,19 @@
         <v>206</v>
       </c>
       <c r="C123" s="21" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D123" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>511</v>
-      </c>
       <c r="G123" s="21" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -33156,19 +33283,19 @@
         <v>206</v>
       </c>
       <c r="C124" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>512</v>
-      </c>
       <c r="G124" s="21" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -33177,19 +33304,19 @@
         <v>206</v>
       </c>
       <c r="C125" s="21" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="G125" s="21" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -33198,19 +33325,19 @@
         <v>206</v>
       </c>
       <c r="C126" s="21" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G126" s="21" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -33219,19 +33346,19 @@
         <v>206</v>
       </c>
       <c r="C127" s="21" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="G127" s="21" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -33240,19 +33367,19 @@
         <v>206</v>
       </c>
       <c r="C128" s="21" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G128" s="21" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -33261,19 +33388,19 @@
         <v>206</v>
       </c>
       <c r="C129" s="21" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="G129" s="21" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -33282,19 +33409,19 @@
         <v>206</v>
       </c>
       <c r="C130" s="21" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G130" s="21" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -33303,19 +33430,19 @@
         <v>206</v>
       </c>
       <c r="C131" s="21" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="G131" s="21" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -33324,19 +33451,19 @@
         <v>206</v>
       </c>
       <c r="C132" s="21" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G132" s="21" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -33345,19 +33472,19 @@
         <v>206</v>
       </c>
       <c r="C133" s="21" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="G133" s="21" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -33366,19 +33493,19 @@
         <v>206</v>
       </c>
       <c r="C134" s="21" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G134" s="21" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -33387,19 +33514,19 @@
         <v>206</v>
       </c>
       <c r="C135" s="21" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="G135" s="21" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -33408,19 +33535,19 @@
         <v>206</v>
       </c>
       <c r="C136" s="21" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G136" s="21" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -33429,19 +33556,19 @@
         <v>206</v>
       </c>
       <c r="C137" s="21" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="G137" s="21" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -33450,19 +33577,19 @@
         <v>206</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="G138" s="21" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -33471,19 +33598,19 @@
         <v>206</v>
       </c>
       <c r="C139" s="21" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="G139" s="21" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -33492,19 +33619,19 @@
         <v>206</v>
       </c>
       <c r="C140" s="21" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F140" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="G140" s="21" t="s">
         <v>526</v>
-      </c>
-      <c r="G140" s="21" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -33513,19 +33640,19 @@
         <v>206</v>
       </c>
       <c r="C141" s="21" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="G141" s="21" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -33534,19 +33661,19 @@
         <v>206</v>
       </c>
       <c r="C142" s="21" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G142" s="21" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>

--- a/Sonia_IndiaLab_English_20200710.xlsx
+++ b/Sonia_IndiaLab_English_20200710.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42E4DA4-97FD-48FE-8586-8212228A2739}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECE334E-BAE2-4CF0-BB23-F1C7850A799E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3156" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3237" uniqueCount="561">
   <si>
     <t>ビックカメラ</t>
     <phoneticPr fontId="1"/>
@@ -2453,6 +2453,9 @@
   </si>
   <si>
     <t>best_wrn_data.ini</t>
+  </si>
+  <si>
+    <t>best_intl.sql</t>
   </si>
 </sst>
 </file>
@@ -2773,7 +2776,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2988,6 +2991,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4413,8 +4425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842EE351-6A8B-438A-8E5A-6437F50A8F1F}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4715,73 +4727,135 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="A20" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>559</v>
+      </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="A22" s="77"/>
+      <c r="B22" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>303</v>
+      </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>303</v>
+      </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="A27" s="77"/>
+      <c r="B27" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>303</v>
+      </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="A29" s="78"/>
+      <c r="B29" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>303</v>
+      </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -4821,8 +4895,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E19" xr:uid="{C27EA6C9-5A4A-4A36-9D88-5DE9E5A25EEA}"/>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A20:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23659,8 +23734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="C36" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23848,8 +23923,12 @@
       <c r="F6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>558</v>
+      </c>
       <c r="I6" s="1" t="s">
         <v>326</v>
       </c>
@@ -23877,8 +23956,12 @@
       <c r="F7" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>558</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>326</v>
       </c>
@@ -23906,8 +23989,12 @@
       <c r="F8" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>558</v>
+      </c>
       <c r="I8" s="1" t="s">
         <v>326</v>
       </c>
@@ -23958,8 +24045,12 @@
       <c r="F10" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>558</v>
+      </c>
       <c r="I10" s="1" t="s">
         <v>326</v>
       </c>
@@ -23987,8 +24078,12 @@
       <c r="F11" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>558</v>
+      </c>
       <c r="I11" s="1" t="s">
         <v>326</v>
       </c>
@@ -24016,8 +24111,12 @@
       <c r="F12" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>558</v>
+      </c>
       <c r="I12" s="1" t="s">
         <v>326</v>
       </c>
@@ -24045,8 +24144,12 @@
       <c r="F13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>558</v>
+      </c>
       <c r="I13" s="1" t="s">
         <v>326</v>
       </c>
@@ -24074,8 +24177,12 @@
       <c r="F14" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>558</v>
+      </c>
       <c r="I14" s="1" t="s">
         <v>326</v>
       </c>
@@ -24103,8 +24210,12 @@
       <c r="F15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>558</v>
+      </c>
       <c r="I15" s="1" t="s">
         <v>326</v>
       </c>
@@ -24132,8 +24243,12 @@
       <c r="F16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>558</v>
+      </c>
       <c r="I16" s="1" t="s">
         <v>326</v>
       </c>
@@ -24161,8 +24276,12 @@
       <c r="F17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>558</v>
+      </c>
       <c r="I17" s="1" t="s">
         <v>326</v>
       </c>
@@ -24211,8 +24330,12 @@
       <c r="F19" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>558</v>
+      </c>
       <c r="I19" s="1" t="s">
         <v>326</v>
       </c>
@@ -24240,8 +24363,12 @@
       <c r="F20" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>558</v>
+      </c>
       <c r="I20" s="1" t="s">
         <v>326</v>
       </c>
@@ -24269,8 +24396,12 @@
       <c r="F21" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>558</v>
+      </c>
       <c r="I21" s="1" t="s">
         <v>326</v>
       </c>
@@ -24298,8 +24429,12 @@
       <c r="F22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>466</v>
+      </c>
       <c r="I22" s="1" t="s">
         <v>326</v>
       </c>
@@ -24327,8 +24462,12 @@
       <c r="F23" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>558</v>
+      </c>
       <c r="I23" s="1" t="s">
         <v>326</v>
       </c>
@@ -24356,8 +24495,12 @@
       <c r="F24" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>558</v>
+      </c>
       <c r="I24" s="1" t="s">
         <v>326</v>
       </c>
@@ -24416,8 +24559,12 @@
       <c r="F26" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>558</v>
+      </c>
       <c r="I26" s="1" t="s">
         <v>326</v>
       </c>
@@ -24445,8 +24592,12 @@
       <c r="F27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>466</v>
+      </c>
       <c r="I27" s="1" t="s">
         <v>326</v>
       </c>
@@ -24474,8 +24625,12 @@
       <c r="F28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>558</v>
+      </c>
       <c r="I28" s="1" t="s">
         <v>326</v>
       </c>
@@ -24503,8 +24658,12 @@
       <c r="F29" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>466</v>
+      </c>
       <c r="I29" s="1" t="s">
         <v>326</v>
       </c>
@@ -24532,8 +24691,12 @@
       <c r="F30" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>558</v>
+      </c>
       <c r="I30" s="1" t="s">
         <v>326</v>
       </c>
@@ -24561,8 +24724,12 @@
       <c r="F31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>558</v>
+      </c>
       <c r="I31" s="1" t="s">
         <v>326</v>
       </c>
@@ -24590,8 +24757,12 @@
       <c r="F32" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>466</v>
+      </c>
       <c r="I32" s="1" t="s">
         <v>326</v>
       </c>
@@ -25081,8 +25252,12 @@
       <c r="F48" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>560</v>
+      </c>
       <c r="I48" s="1" t="s">
         <v>326</v>
       </c>
@@ -31114,8 +31289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Sonia_IndiaLab_English_20200710.xlsx
+++ b/Sonia_IndiaLab_English_20200710.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECE334E-BAE2-4CF0-BB23-F1C7850A799E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="アプリ配置 (必須)" sheetId="3" r:id="rId1"/>
@@ -37,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3237" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3251" uniqueCount="562">
   <si>
     <t>ビックカメラ</t>
     <phoneticPr fontId="1"/>
@@ -2457,12 +2451,15 @@
   <si>
     <t>best_intl.sql</t>
   </si>
+  <si>
+    <t>Kuroganeya.sql</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -3062,7 +3059,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3094,27 +3091,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3146,24 +3125,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3339,7 +3300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3353,7 +3314,7 @@
       <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
@@ -3361,7 +3322,7 @@
     <col min="4" max="4" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -3373,7 +3334,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
@@ -3387,7 +3348,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="52"/>
       <c r="B3" s="52" t="s">
         <v>14</v>
@@ -3399,7 +3360,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="52"/>
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
@@ -3407,7 +3368,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="52"/>
       <c r="B5" s="52" t="s">
         <v>9</v>
@@ -3419,7 +3380,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="52"/>
       <c r="B6" s="52"/>
       <c r="C6" s="52"/>
@@ -3427,7 +3388,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="52"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -3439,7 +3400,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="52"/>
       <c r="B8" s="3" t="s">
         <v>118</v>
@@ -3451,7 +3412,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="52"/>
       <c r="B9" s="3" t="s">
         <v>119</v>
@@ -3463,7 +3424,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" s="52"/>
       <c r="B10" s="3" t="s">
         <v>120</v>
@@ -3475,7 +3436,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="52"/>
       <c r="B11" s="3" t="s">
         <v>121</v>
@@ -3487,7 +3448,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="52"/>
       <c r="B12" s="1" t="s">
         <v>122</v>
@@ -3499,7 +3460,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="52" t="s">
         <v>1</v>
       </c>
@@ -3513,7 +3474,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="52"/>
       <c r="B14" s="1" t="s">
         <v>47</v>
@@ -3525,7 +3486,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="52"/>
       <c r="B15" s="1" t="s">
         <v>51</v>
@@ -3537,7 +3498,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="52"/>
       <c r="B16" s="1" t="s">
         <v>53</v>
@@ -3549,7 +3510,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" s="52"/>
       <c r="B17" s="1" t="s">
         <v>66</v>
@@ -3561,7 +3522,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" s="52"/>
       <c r="B18" s="1" t="s">
         <v>16</v>
@@ -3573,7 +3534,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" s="52"/>
       <c r="B19" s="1" t="s">
         <v>62</v>
@@ -3585,7 +3546,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" s="52"/>
       <c r="B20" s="1" t="s">
         <v>18</v>
@@ -3597,7 +3558,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21" s="52"/>
       <c r="B21" s="3" t="s">
         <v>55</v>
@@ -3609,7 +3570,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22" s="52"/>
       <c r="B22" s="1" t="s">
         <v>57</v>
@@ -3621,7 +3582,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23" s="52"/>
       <c r="B23" s="1" t="s">
         <v>59</v>
@@ -3633,7 +3594,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" s="52"/>
       <c r="B24" s="1" t="s">
         <v>70</v>
@@ -3645,7 +3606,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25" s="52"/>
       <c r="B25" s="1" t="s">
         <v>43</v>
@@ -3657,7 +3618,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" s="52"/>
       <c r="B26" s="1" t="s">
         <v>84</v>
@@ -3669,7 +3630,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" s="52"/>
       <c r="B27" s="1" t="s">
         <v>80</v>
@@ -3681,7 +3642,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28" s="52"/>
       <c r="B28" s="1" t="s">
         <v>82</v>
@@ -3693,7 +3654,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29" s="52"/>
       <c r="B29" s="1" t="s">
         <v>88</v>
@@ -3705,7 +3666,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30" s="52"/>
       <c r="B30" s="1" t="s">
         <v>72</v>
@@ -3717,7 +3678,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31" s="52"/>
       <c r="B31" s="1" t="s">
         <v>74</v>
@@ -3729,7 +3690,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" s="52"/>
       <c r="B32" s="1" t="s">
         <v>76</v>
@@ -3741,7 +3702,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33" s="52"/>
       <c r="B33" s="1" t="s">
         <v>78</v>
@@ -3753,7 +3714,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34" s="52"/>
       <c r="B34" s="1" t="s">
         <v>69</v>
@@ -3765,7 +3726,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35" s="52"/>
       <c r="B35" s="3" t="s">
         <v>86</v>
@@ -3777,7 +3738,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36" s="52"/>
       <c r="B36" s="3" t="s">
         <v>44</v>
@@ -3789,7 +3750,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37" s="52"/>
       <c r="B37" s="3" t="s">
         <v>44</v>
@@ -3801,7 +3762,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4">
       <c r="A38" s="52"/>
       <c r="B38" s="3" t="s">
         <v>44</v>
@@ -3813,7 +3774,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4">
       <c r="A39" s="52"/>
       <c r="B39" s="3" t="s">
         <v>44</v>
@@ -3825,7 +3786,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4">
       <c r="A40" s="52"/>
       <c r="B40" s="3" t="s">
         <v>44</v>
@@ -3837,7 +3798,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4">
       <c r="A41" s="52"/>
       <c r="B41" s="3" t="s">
         <v>140</v>
@@ -3849,7 +3810,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4">
       <c r="A42" s="52"/>
       <c r="B42" s="3" t="s">
         <v>108</v>
@@ -3861,7 +3822,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4">
       <c r="A43" s="52"/>
       <c r="B43" s="3" t="s">
         <v>112</v>
@@ -3873,7 +3834,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4">
       <c r="A44" s="52"/>
       <c r="B44" s="3" t="s">
         <v>114</v>
@@ -3885,7 +3846,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4">
       <c r="A45" s="52"/>
       <c r="B45" s="3" t="s">
         <v>122</v>
@@ -3897,7 +3858,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4">
       <c r="A46" s="52"/>
       <c r="B46" s="3" t="s">
         <v>123</v>
@@ -3909,7 +3870,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4">
       <c r="A47" s="52"/>
       <c r="B47" s="3" t="s">
         <v>138</v>
@@ -3921,7 +3882,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4">
       <c r="A48" s="52"/>
       <c r="B48" s="3" t="s">
         <v>138</v>
@@ -3933,7 +3894,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4">
       <c r="A49" s="52" t="s">
         <v>2</v>
       </c>
@@ -3947,7 +3908,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4">
       <c r="A50" s="52"/>
       <c r="B50" s="3" t="s">
         <v>8</v>
@@ -3959,7 +3920,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4">
       <c r="A51" s="52"/>
       <c r="B51" s="3" t="s">
         <v>18</v>
@@ -3971,7 +3932,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4">
       <c r="A52" s="52"/>
       <c r="B52" s="3" t="s">
         <v>72</v>
@@ -3983,7 +3944,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4">
       <c r="A53" s="52"/>
       <c r="B53" s="3" t="s">
         <v>74</v>
@@ -3995,7 +3956,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4">
       <c r="A54" s="52"/>
       <c r="B54" s="3" t="s">
         <v>78</v>
@@ -4007,7 +3968,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4">
       <c r="A55" s="52"/>
       <c r="B55" s="3" t="s">
         <v>82</v>
@@ -4019,7 +3980,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4">
       <c r="A56" s="52"/>
       <c r="B56" s="3" t="s">
         <v>86</v>
@@ -4031,7 +3992,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4">
       <c r="A57" s="52"/>
       <c r="B57" s="3" t="s">
         <v>111</v>
@@ -4043,7 +4004,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4">
       <c r="A58" s="52"/>
       <c r="B58" s="3" t="s">
         <v>55</v>
@@ -4055,7 +4016,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4">
       <c r="A59" s="52"/>
       <c r="B59" s="3" t="s">
         <v>129</v>
@@ -4067,7 +4028,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4">
       <c r="A60" s="52"/>
       <c r="B60" s="3" t="s">
         <v>122</v>
@@ -4079,7 +4040,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4">
       <c r="A61" s="52" t="s">
         <v>35</v>
       </c>
@@ -4093,7 +4054,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4">
       <c r="A62" s="52"/>
       <c r="B62" s="3" t="s">
         <v>107</v>
@@ -4105,7 +4066,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4">
       <c r="A63" s="52"/>
       <c r="B63" s="3" t="s">
         <v>122</v>
@@ -4117,7 +4078,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4">
       <c r="A64" s="52" t="s">
         <v>36</v>
       </c>
@@ -4131,7 +4092,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4">
       <c r="A65" s="52"/>
       <c r="B65" s="3" t="s">
         <v>26</v>
@@ -4143,7 +4104,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4">
       <c r="A66" s="52"/>
       <c r="B66" s="3" t="s">
         <v>122</v>
@@ -4155,7 +4116,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4">
       <c r="A67" s="52" t="s">
         <v>3</v>
       </c>
@@ -4169,7 +4130,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4">
       <c r="A68" s="52"/>
       <c r="B68" s="55" t="s">
         <v>28</v>
@@ -4181,7 +4142,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4">
       <c r="A69" s="52"/>
       <c r="B69" s="55"/>
       <c r="C69" s="55"/>
@@ -4189,7 +4150,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4">
       <c r="A70" s="52"/>
       <c r="B70" s="3" t="s">
         <v>31</v>
@@ -4201,7 +4162,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4">
       <c r="A71" s="52"/>
       <c r="B71" s="55" t="s">
         <v>27</v>
@@ -4213,7 +4174,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4">
       <c r="A72" s="52"/>
       <c r="B72" s="55"/>
       <c r="C72" s="55"/>
@@ -4221,7 +4182,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4">
       <c r="A73" s="52"/>
       <c r="B73" s="3" t="s">
         <v>26</v>
@@ -4233,7 +4194,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4">
       <c r="A74" s="52"/>
       <c r="B74" s="3" t="s">
         <v>122</v>
@@ -4245,7 +4206,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4">
       <c r="A75" s="52" t="s">
         <v>127</v>
       </c>
@@ -4259,7 +4220,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4">
       <c r="A76" s="52"/>
       <c r="B76" s="55" t="s">
         <v>28</v>
@@ -4271,7 +4232,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4">
       <c r="A77" s="52"/>
       <c r="B77" s="55"/>
       <c r="C77" s="55"/>
@@ -4279,7 +4240,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4">
       <c r="A78" s="52"/>
       <c r="B78" s="55" t="s">
         <v>27</v>
@@ -4291,7 +4252,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4">
       <c r="A79" s="52"/>
       <c r="B79" s="55"/>
       <c r="C79" s="55"/>
@@ -4299,7 +4260,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4">
       <c r="A80" s="52"/>
       <c r="B80" s="3" t="s">
         <v>26</v>
@@ -4311,7 +4272,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4">
       <c r="A81" s="52"/>
       <c r="B81" s="3" t="s">
         <v>122</v>
@@ -4323,7 +4284,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4">
       <c r="A82" s="52" t="s">
         <v>4</v>
       </c>
@@ -4337,7 +4298,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4">
       <c r="A83" s="52"/>
       <c r="B83" s="53" t="s">
         <v>18</v>
@@ -4349,7 +4310,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4">
       <c r="A84" s="52"/>
       <c r="B84" s="54"/>
       <c r="C84" s="54"/>
@@ -4357,7 +4318,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4">
       <c r="A85" s="52"/>
       <c r="B85" s="3" t="s">
         <v>20</v>
@@ -4369,7 +4330,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4">
       <c r="A86" s="52"/>
       <c r="B86" s="3" t="s">
         <v>122</v>
@@ -4381,7 +4342,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4">
       <c r="C88" s="14" t="s">
         <v>162</v>
       </c>
@@ -4422,14 +4383,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842EE351-6A8B-438A-8E5A-6437F50A8F1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="32.375" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
@@ -4437,7 +4398,7 @@
     <col min="4" max="5" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>297</v>
       </c>
@@ -4454,7 +4415,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="52" t="s">
         <v>166</v>
       </c>
@@ -4471,7 +4432,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="52"/>
       <c r="B3" s="21" t="s">
         <v>205</v>
@@ -4486,7 +4447,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="52"/>
       <c r="B4" s="21" t="s">
         <v>205</v>
@@ -4501,7 +4462,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="52"/>
       <c r="B5" s="21" t="s">
         <v>205</v>
@@ -4516,7 +4477,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="52"/>
       <c r="B6" s="21" t="s">
         <v>205</v>
@@ -4531,7 +4492,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="52"/>
       <c r="B7" s="21" t="s">
         <v>205</v>
@@ -4546,7 +4507,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="52"/>
       <c r="B8" s="21" t="s">
         <v>205</v>
@@ -4561,7 +4522,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="52"/>
       <c r="B9" s="21" t="s">
         <v>205</v>
@@ -4576,7 +4537,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="52"/>
       <c r="B10" s="21" t="s">
         <v>205</v>
@@ -4591,7 +4552,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="52"/>
       <c r="B11" s="21" t="s">
         <v>205</v>
@@ -4606,7 +4567,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="52"/>
       <c r="B12" s="21" t="s">
         <v>205</v>
@@ -4621,7 +4582,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="52"/>
       <c r="B13" s="21" t="s">
         <v>205</v>
@@ -4636,7 +4597,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="52"/>
       <c r="B14" s="21" t="s">
         <v>205</v>
@@ -4651,7 +4612,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="52"/>
       <c r="B15" s="21" t="s">
         <v>205</v>
@@ -4666,7 +4627,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="52"/>
       <c r="B16" s="21" t="s">
         <v>205</v>
@@ -4681,7 +4642,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" s="52"/>
       <c r="B17" s="21" t="s">
         <v>205</v>
@@ -4696,7 +4657,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" s="52"/>
       <c r="B18" s="21" t="s">
         <v>205</v>
@@ -4711,7 +4672,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19" s="52"/>
       <c r="B19" s="21" t="s">
         <v>205</v>
@@ -4726,7 +4687,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20" s="76" t="s">
         <v>166</v>
       </c>
@@ -4741,7 +4702,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21" s="77"/>
       <c r="B21" s="21" t="s">
         <v>196</v>
@@ -4754,7 +4715,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22" s="77"/>
       <c r="B22" s="21" t="s">
         <v>197</v>
@@ -4767,7 +4728,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23" s="77"/>
       <c r="B23" s="21" t="s">
         <v>197</v>
@@ -4780,7 +4741,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24" s="77"/>
       <c r="B24" s="21" t="s">
         <v>201</v>
@@ -4793,7 +4754,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="A25" s="77"/>
       <c r="B25" s="21" t="s">
         <v>201</v>
@@ -4806,7 +4767,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="A26" s="77"/>
       <c r="B26" s="21" t="s">
         <v>202</v>
@@ -4819,7 +4780,7 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="A27" s="77"/>
       <c r="B27" s="21" t="s">
         <v>202</v>
@@ -4832,7 +4793,7 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28" s="77"/>
       <c r="B28" s="21" t="s">
         <v>204</v>
@@ -4845,7 +4806,7 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="A29" s="78"/>
       <c r="B29" s="21" t="s">
         <v>204</v>
@@ -4858,35 +4819,35 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -4894,7 +4855,7 @@
       <c r="E34" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E19" xr:uid="{C27EA6C9-5A4A-4A36-9D88-5DE9E5A25EEA}"/>
+  <autoFilter ref="A1:E19"/>
   <mergeCells count="2">
     <mergeCell ref="A2:A19"/>
     <mergeCell ref="A20:A29"/>
@@ -4904,7 +4865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4918,7 +4879,7 @@
       <selection pane="bottomRight" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
@@ -4927,7 +4888,7 @@
     <col min="5" max="5" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -4940,7 +4901,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="52" t="s">
         <v>165</v>
       </c>
@@ -4955,7 +4916,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="52"/>
       <c r="B3" s="58" t="s">
         <v>171</v>
@@ -4968,7 +4929,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="52"/>
       <c r="B4" s="59"/>
       <c r="C4" s="52"/>
@@ -4977,7 +4938,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="52"/>
       <c r="B5" s="58" t="s">
         <v>172</v>
@@ -4990,7 +4951,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="52"/>
       <c r="B6" s="59"/>
       <c r="C6" s="52"/>
@@ -4999,7 +4960,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="52"/>
       <c r="B7" s="1" t="s">
         <v>177</v>
@@ -5012,7 +4973,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="52"/>
       <c r="B8" s="3" t="s">
         <v>173</v>
@@ -5027,7 +4988,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="52"/>
       <c r="B9" s="3" t="s">
         <v>178</v>
@@ -5042,7 +5003,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="52"/>
       <c r="B10" s="3" t="s">
         <v>179</v>
@@ -5055,7 +5016,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="52"/>
       <c r="B11" s="3" t="s">
         <v>180</v>
@@ -5068,7 +5029,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="52"/>
       <c r="B12" s="1" t="s">
         <v>174</v>
@@ -5081,7 +5042,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="52" t="s">
         <v>166</v>
       </c>
@@ -5096,7 +5057,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="52"/>
       <c r="B14" s="1" t="s">
         <v>183</v>
@@ -5109,7 +5070,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="52"/>
       <c r="B15" s="1" t="s">
         <v>184</v>
@@ -5122,7 +5083,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="52"/>
       <c r="B16" s="1" t="s">
         <v>185</v>
@@ -5135,7 +5096,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" s="52"/>
       <c r="B17" s="1" t="s">
         <v>186</v>
@@ -5148,7 +5109,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" s="52"/>
       <c r="B18" s="1" t="s">
         <v>187</v>
@@ -5161,7 +5122,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19" s="52"/>
       <c r="B19" s="1" t="s">
         <v>188</v>
@@ -5174,7 +5135,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20" s="52"/>
       <c r="B20" s="1" t="s">
         <v>189</v>
@@ -5187,7 +5148,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21" s="52"/>
       <c r="B21" s="3" t="s">
         <v>190</v>
@@ -5200,7 +5161,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22" s="52"/>
       <c r="B22" s="1" t="s">
         <v>191</v>
@@ -5213,7 +5174,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23" s="52"/>
       <c r="B23" s="1" t="s">
         <v>192</v>
@@ -5226,7 +5187,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24" s="52"/>
       <c r="B24" s="1" t="s">
         <v>193</v>
@@ -5239,7 +5200,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="A25" s="52"/>
       <c r="B25" s="1" t="s">
         <v>194</v>
@@ -5252,7 +5213,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="A26" s="52"/>
       <c r="B26" s="1" t="s">
         <v>195</v>
@@ -5265,7 +5226,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="A27" s="52"/>
       <c r="B27" s="1" t="s">
         <v>196</v>
@@ -5278,7 +5239,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28" s="52"/>
       <c r="B28" s="1" t="s">
         <v>197</v>
@@ -5291,7 +5252,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="A29" s="52"/>
       <c r="B29" s="1" t="s">
         <v>198</v>
@@ -5304,7 +5265,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="A30" s="52"/>
       <c r="B30" s="1" t="s">
         <v>199</v>
@@ -5317,7 +5278,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="A31" s="52"/>
       <c r="B31" s="1" t="s">
         <v>200</v>
@@ -5330,7 +5291,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="A32" s="52"/>
       <c r="B32" s="1" t="s">
         <v>201</v>
@@ -5343,7 +5304,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="A33" s="52"/>
       <c r="B33" s="1" t="s">
         <v>202</v>
@@ -5356,7 +5317,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5">
       <c r="A34" s="52"/>
       <c r="B34" s="1" t="s">
         <v>203</v>
@@ -5369,7 +5330,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5">
       <c r="A35" s="52"/>
       <c r="B35" s="3" t="s">
         <v>204</v>
@@ -5382,7 +5343,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5">
       <c r="A36" s="52"/>
       <c r="B36" s="3" t="s">
         <v>205</v>
@@ -5395,7 +5356,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5">
       <c r="A37" s="52"/>
       <c r="B37" s="3" t="s">
         <v>205</v>
@@ -5408,7 +5369,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5">
       <c r="A38" s="52"/>
       <c r="B38" s="3" t="s">
         <v>205</v>
@@ -5421,7 +5382,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5">
       <c r="A39" s="52"/>
       <c r="B39" s="3" t="s">
         <v>205</v>
@@ -5434,7 +5395,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5">
       <c r="A40" s="52"/>
       <c r="B40" s="3" t="s">
         <v>205</v>
@@ -5447,7 +5408,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5">
       <c r="A41" s="52"/>
       <c r="B41" s="3" t="s">
         <v>206</v>
@@ -5460,7 +5421,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5">
       <c r="A42" s="52"/>
       <c r="B42" s="3" t="s">
         <v>207</v>
@@ -5475,7 +5436,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5">
       <c r="A43" s="52"/>
       <c r="B43" s="3" t="s">
         <v>225</v>
@@ -5490,7 +5451,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5">
       <c r="A44" s="52"/>
       <c r="B44" s="3" t="s">
         <v>226</v>
@@ -5505,7 +5466,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5">
       <c r="A45" s="52"/>
       <c r="B45" s="3" t="s">
         <v>174</v>
@@ -5518,7 +5479,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5">
       <c r="A46" s="52"/>
       <c r="B46" s="3" t="s">
         <v>208</v>
@@ -5531,7 +5492,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5">
       <c r="A47" s="52"/>
       <c r="B47" s="3" t="s">
         <v>209</v>
@@ -5544,7 +5505,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5">
       <c r="A48" s="52"/>
       <c r="B48" s="3" t="s">
         <v>209</v>
@@ -5557,7 +5518,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5">
       <c r="A49" s="52" t="s">
         <v>175</v>
       </c>
@@ -5572,7 +5533,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5">
       <c r="A50" s="52"/>
       <c r="B50" s="3" t="s">
         <v>211</v>
@@ -5585,7 +5546,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5">
       <c r="A51" s="52"/>
       <c r="B51" s="3" t="s">
         <v>189</v>
@@ -5598,7 +5559,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5">
       <c r="A52" s="52"/>
       <c r="B52" s="3" t="s">
         <v>199</v>
@@ -5611,7 +5572,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5">
       <c r="A53" s="52"/>
       <c r="B53" s="3" t="s">
         <v>212</v>
@@ -5624,7 +5585,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5">
       <c r="A54" s="52"/>
       <c r="B54" s="3" t="s">
         <v>202</v>
@@ -5637,7 +5598,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5">
       <c r="A55" s="52"/>
       <c r="B55" s="3" t="s">
         <v>197</v>
@@ -5650,7 +5611,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5">
       <c r="A56" s="52"/>
       <c r="B56" s="3" t="s">
         <v>204</v>
@@ -5663,7 +5624,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5">
       <c r="A57" s="52"/>
       <c r="B57" s="3" t="s">
         <v>213</v>
@@ -5678,7 +5639,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5">
       <c r="A58" s="52"/>
       <c r="B58" s="3" t="s">
         <v>190</v>
@@ -5691,7 +5652,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5">
       <c r="A59" s="52"/>
       <c r="B59" s="3" t="s">
         <v>214</v>
@@ -5706,7 +5667,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5">
       <c r="A60" s="52"/>
       <c r="B60" s="3" t="s">
         <v>174</v>
@@ -5719,7 +5680,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5">
       <c r="A61" s="52" t="s">
         <v>176</v>
       </c>
@@ -5734,7 +5695,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5">
       <c r="A62" s="52"/>
       <c r="B62" s="3" t="s">
         <v>216</v>
@@ -5747,7 +5708,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5">
       <c r="A63" s="52"/>
       <c r="B63" s="3" t="s">
         <v>174</v>
@@ -5760,7 +5721,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5">
       <c r="A64" s="52" t="s">
         <v>168</v>
       </c>
@@ -5775,7 +5736,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5">
       <c r="A65" s="52"/>
       <c r="B65" s="3" t="s">
         <v>215</v>
@@ -5788,7 +5749,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5">
       <c r="A66" s="52"/>
       <c r="B66" s="3" t="s">
         <v>174</v>
@@ -5801,7 +5762,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5">
       <c r="A67" s="52" t="s">
         <v>169</v>
       </c>
@@ -5816,7 +5777,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5">
       <c r="A68" s="52"/>
       <c r="B68" s="56" t="s">
         <v>217</v>
@@ -5829,7 +5790,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5">
       <c r="A69" s="52"/>
       <c r="B69" s="57"/>
       <c r="C69" s="55"/>
@@ -5838,7 +5799,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5">
       <c r="A70" s="52"/>
       <c r="B70" s="3" t="s">
         <v>220</v>
@@ -5851,7 +5812,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5">
       <c r="A71" s="52"/>
       <c r="B71" s="55" t="s">
         <v>219</v>
@@ -5864,7 +5825,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5">
       <c r="A72" s="52"/>
       <c r="B72" s="55"/>
       <c r="C72" s="55"/>
@@ -5873,7 +5834,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5">
       <c r="A73" s="52"/>
       <c r="B73" s="3" t="s">
         <v>215</v>
@@ -5886,7 +5847,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5">
       <c r="A74" s="52"/>
       <c r="B74" s="3" t="s">
         <v>174</v>
@@ -5899,7 +5860,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5">
       <c r="A75" s="52" t="s">
         <v>106</v>
       </c>
@@ -5914,7 +5875,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5">
       <c r="A76" s="52"/>
       <c r="B76" s="56" t="s">
         <v>217</v>
@@ -5927,7 +5888,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5">
       <c r="A77" s="52"/>
       <c r="B77" s="57"/>
       <c r="C77" s="55"/>
@@ -5936,7 +5897,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5">
       <c r="A78" s="52"/>
       <c r="B78" s="55" t="s">
         <v>219</v>
@@ -5949,7 +5910,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5">
       <c r="A79" s="52"/>
       <c r="B79" s="55"/>
       <c r="C79" s="55"/>
@@ -5958,7 +5919,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5">
       <c r="A80" s="52"/>
       <c r="B80" s="3" t="s">
         <v>215</v>
@@ -5971,7 +5932,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5">
       <c r="A81" s="52"/>
       <c r="B81" s="3" t="s">
         <v>174</v>
@@ -5984,7 +5945,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5">
       <c r="A82" s="52" t="s">
         <v>104</v>
       </c>
@@ -5999,7 +5960,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5">
       <c r="A83" s="52"/>
       <c r="B83" s="53" t="s">
         <v>189</v>
@@ -6012,7 +5973,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:5">
       <c r="A84" s="52"/>
       <c r="B84" s="54"/>
       <c r="C84" s="54"/>
@@ -6021,7 +5982,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:5">
       <c r="A85" s="52"/>
       <c r="B85" s="3" t="s">
         <v>218</v>
@@ -6034,7 +5995,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:5">
       <c r="A86" s="52"/>
       <c r="B86" s="3" t="s">
         <v>174</v>
@@ -6047,23 +6008,23 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5">
       <c r="C88" s="14" t="s">
         <v>170</v>
       </c>
       <c r="D88" s="14"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5">
       <c r="A90" s="20" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>278</v>
       </c>
@@ -6103,14 +6064,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49" style="4" bestFit="1" customWidth="1"/>
@@ -6118,12 +6079,12 @@
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>145</v>
@@ -6132,7 +6093,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="60" t="s">
         <v>147</v>
       </c>
@@ -6143,7 +6104,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="60"/>
       <c r="B5" s="7" t="s">
         <v>149</v>
@@ -6152,7 +6113,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="60"/>
       <c r="B6" s="7" t="s">
         <v>150</v>
@@ -6161,7 +6122,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="78.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="78.75">
       <c r="A7" s="60"/>
       <c r="B7" s="7" t="s">
         <v>151</v>
@@ -6170,7 +6131,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
         <v>153</v>
       </c>
@@ -6179,7 +6140,7 @@
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
         <v>155</v>
       </c>
@@ -6190,7 +6151,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
         <v>157</v>
       </c>
@@ -6201,7 +6162,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="7" t="s">
         <v>159</v>
       </c>
@@ -6223,14 +6184,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:VMV142"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.25" bestFit="1" customWidth="1"/>
@@ -6243,7 +6204,7 @@
     <col min="9" max="9" width="50.625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15232" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15232">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -6268,7 +6229,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:15232" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15232" ht="27">
       <c r="A2" s="52" t="s">
         <v>165</v>
       </c>
@@ -6291,7 +6252,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:15232" ht="54" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15232" ht="54">
       <c r="A3" s="52"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
@@ -6312,7 +6273,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:15232" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15232">
       <c r="A4" s="52"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -6325,7 +6286,7 @@
       <c r="H4" s="21"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:15232" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15232">
       <c r="A5" s="52"/>
       <c r="B5" s="21" t="s">
         <v>172</v>
@@ -6346,7 +6307,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:15232" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15232">
       <c r="A6" s="52"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -6359,7 +6320,7 @@
       <c r="H6" s="21"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:15232" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15232">
       <c r="A7" s="52"/>
       <c r="B7" s="21" t="s">
         <v>177</v>
@@ -6378,7 +6339,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:15232" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15232" ht="27">
       <c r="A8" s="52"/>
       <c r="B8" s="21" t="s">
         <v>173</v>
@@ -6397,7 +6358,7 @@
       <c r="H8" s="21"/>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="1:15232" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15232">
       <c r="A9" s="52"/>
       <c r="B9" s="21" t="s">
         <v>178</v>
@@ -6416,7 +6377,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:15232" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15232">
       <c r="A10" s="52"/>
       <c r="B10" s="21" t="s">
         <v>179</v>
@@ -6433,7 +6394,7 @@
       <c r="H10" s="21"/>
       <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="1:15232" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15232">
       <c r="A11" s="52"/>
       <c r="B11" s="21" t="s">
         <v>180</v>
@@ -6450,7 +6411,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="1:15232" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15232">
       <c r="A12" s="52"/>
       <c r="B12" s="21" t="s">
         <v>174</v>
@@ -6467,7 +6428,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="27"/>
     </row>
-    <row r="13" spans="1:15232" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15232">
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -6477,7 +6438,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="1:15232" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15232">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -6487,7 +6448,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:15232" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15232" s="15" customFormat="1">
       <c r="A15" s="52" t="s">
         <v>166</v>
       </c>
@@ -21731,7 +21692,7 @@
       <c r="VMU15" s="18"/>
       <c r="VMV15" s="18"/>
     </row>
-    <row r="16" spans="1:15232" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15232">
       <c r="A16" s="52"/>
       <c r="B16" s="21" t="s">
         <v>183</v>
@@ -21752,7 +21713,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="27">
       <c r="A17" s="52"/>
       <c r="B17" s="21" t="s">
         <v>184</v>
@@ -21773,7 +21734,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="52"/>
       <c r="B18" s="21" t="s">
         <v>185</v>
@@ -21794,7 +21755,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" s="18" customFormat="1">
       <c r="A19" s="52"/>
       <c r="B19" s="21" t="s">
         <v>186</v>
@@ -21813,7 +21774,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="28"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" s="18" customFormat="1">
       <c r="A20" s="52"/>
       <c r="B20" s="21" t="s">
         <v>187</v>
@@ -21834,7 +21795,7 @@
       </c>
       <c r="I20" s="28"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A21" s="52"/>
       <c r="B21" s="21" t="s">
         <v>188</v>
@@ -21855,7 +21816,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A22" s="52"/>
       <c r="B22" s="21" t="s">
         <v>189</v>
@@ -21876,7 +21837,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" s="18" customFormat="1">
       <c r="A23" s="52"/>
       <c r="B23" s="21" t="s">
         <v>190</v>
@@ -21897,7 +21858,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A24" s="52"/>
       <c r="B24" s="21" t="s">
         <v>191</v>
@@ -21918,7 +21879,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A25" s="52"/>
       <c r="B25" s="21" t="s">
         <v>192</v>
@@ -21939,7 +21900,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A26" s="52"/>
       <c r="B26" s="21" t="s">
         <v>193</v>
@@ -21960,7 +21921,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" s="18" customFormat="1" ht="40.5">
       <c r="A27" s="52"/>
       <c r="B27" s="21" t="s">
         <v>194</v>
@@ -21981,7 +21942,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" s="18" customFormat="1">
       <c r="A28" s="52"/>
       <c r="B28" s="21" t="s">
         <v>195</v>
@@ -22000,7 +21961,7 @@
       <c r="H28" s="21"/>
       <c r="I28" s="28"/>
     </row>
-    <row r="29" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A29" s="52"/>
       <c r="B29" s="21" t="s">
         <v>196</v>
@@ -22021,7 +21982,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1">
       <c r="A30" s="52"/>
       <c r="B30" s="21" t="s">
         <v>197</v>
@@ -22042,7 +22003,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A31" s="52"/>
       <c r="B31" s="21" t="s">
         <v>198</v>
@@ -22063,7 +22024,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" s="18" customFormat="1" ht="40.5">
       <c r="A32" s="52"/>
       <c r="B32" s="21" t="s">
         <v>199</v>
@@ -22084,7 +22045,7 @@
       </c>
       <c r="I32" s="28"/>
     </row>
-    <row r="33" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" s="18" customFormat="1" ht="40.5">
       <c r="A33" s="52"/>
       <c r="B33" s="21" t="s">
         <v>200</v>
@@ -22105,7 +22066,7 @@
       </c>
       <c r="I33" s="28"/>
     </row>
-    <row r="34" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" s="18" customFormat="1" ht="40.5">
       <c r="A34" s="52"/>
       <c r="B34" s="21" t="s">
         <v>201</v>
@@ -22126,7 +22087,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" s="18" customFormat="1" ht="40.5">
       <c r="A35" s="52"/>
       <c r="B35" s="21" t="s">
         <v>202</v>
@@ -22147,7 +22108,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A36" s="52"/>
       <c r="B36" s="21" t="s">
         <v>203</v>
@@ -22168,7 +22129,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" s="18" customFormat="1" ht="40.5">
       <c r="A37" s="52"/>
       <c r="B37" s="21" t="s">
         <v>204</v>
@@ -22189,7 +22150,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A38" s="52"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
@@ -22212,7 +22173,7 @@
       </c>
       <c r="I38" s="28"/>
     </row>
-    <row r="39" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A39" s="52"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
@@ -22235,7 +22196,7 @@
       </c>
       <c r="I39" s="28"/>
     </row>
-    <row r="40" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A40" s="52"/>
       <c r="B40" s="21" t="s">
         <v>205</v>
@@ -22258,7 +22219,7 @@
       </c>
       <c r="I40" s="28"/>
     </row>
-    <row r="41" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A41" s="52"/>
       <c r="B41" s="21" t="s">
         <v>205</v>
@@ -22281,7 +22242,7 @@
       </c>
       <c r="I41" s="28"/>
     </row>
-    <row r="42" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A42" s="52"/>
       <c r="B42" s="21" t="s">
         <v>205</v>
@@ -22304,7 +22265,7 @@
       </c>
       <c r="I42" s="28"/>
     </row>
-    <row r="43" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A43" s="52"/>
       <c r="B43" s="21" t="s">
         <v>206</v>
@@ -22325,7 +22286,7 @@
       </c>
       <c r="I43" s="28"/>
     </row>
-    <row r="44" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" s="18" customFormat="1">
       <c r="A44" s="52"/>
       <c r="B44" s="21" t="s">
         <v>207</v>
@@ -22344,7 +22305,7 @@
       <c r="H44" s="21"/>
       <c r="I44" s="28"/>
     </row>
-    <row r="45" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" s="18" customFormat="1">
       <c r="A45" s="52"/>
       <c r="B45" s="21" t="s">
         <v>225</v>
@@ -22363,7 +22324,7 @@
       <c r="H45" s="21"/>
       <c r="I45" s="28"/>
     </row>
-    <row r="46" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A46" s="52"/>
       <c r="B46" s="21" t="s">
         <v>226</v>
@@ -22382,7 +22343,7 @@
       <c r="H46" s="21"/>
       <c r="I46" s="28"/>
     </row>
-    <row r="47" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" s="18" customFormat="1">
       <c r="A47" s="52"/>
       <c r="B47" s="21" t="s">
         <v>174</v>
@@ -22399,7 +22360,7 @@
       <c r="H47" s="21"/>
       <c r="I47" s="28"/>
     </row>
-    <row r="48" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" s="18" customFormat="1">
       <c r="A48" s="52"/>
       <c r="B48" s="21" t="s">
         <v>208</v>
@@ -22416,7 +22377,7 @@
       <c r="H48" s="21"/>
       <c r="I48" s="28"/>
     </row>
-    <row r="49" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" s="18" customFormat="1">
       <c r="A49" s="52"/>
       <c r="B49" s="21" t="s">
         <v>209</v>
@@ -22433,7 +22394,7 @@
       <c r="H49" s="21"/>
       <c r="I49" s="28"/>
     </row>
-    <row r="50" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9" s="18" customFormat="1">
       <c r="A50" s="52"/>
       <c r="B50" s="21" t="s">
         <v>209</v>
@@ -22450,7 +22411,7 @@
       <c r="H50" s="21"/>
       <c r="I50" s="28"/>
     </row>
-    <row r="51" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" s="18" customFormat="1">
       <c r="A51"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -22461,7 +22422,7 @@
       <c r="H51" s="21"/>
       <c r="I51" s="28"/>
     </row>
-    <row r="52" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" s="18" customFormat="1">
       <c r="A52"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -22472,7 +22433,7 @@
       <c r="H52" s="21"/>
       <c r="I52" s="28"/>
     </row>
-    <row r="53" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" s="18" customFormat="1">
       <c r="A53" s="52" t="s">
         <v>175</v>
       </c>
@@ -22491,7 +22452,7 @@
       <c r="H53" s="21"/>
       <c r="I53" s="28"/>
     </row>
-    <row r="54" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" s="18" customFormat="1">
       <c r="A54" s="52"/>
       <c r="B54" s="21" t="s">
         <v>211</v>
@@ -22508,7 +22469,7 @@
       <c r="H54" s="21"/>
       <c r="I54" s="28"/>
     </row>
-    <row r="55" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A55" s="52"/>
       <c r="B55" s="21" t="s">
         <v>189</v>
@@ -22529,7 +22490,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" s="18" customFormat="1">
       <c r="A56" s="52"/>
       <c r="B56" s="21" t="s">
         <v>199</v>
@@ -22546,7 +22507,7 @@
       <c r="H56" s="21"/>
       <c r="I56" s="28"/>
     </row>
-    <row r="57" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" s="18" customFormat="1">
       <c r="A57" s="52"/>
       <c r="B57" s="21" t="s">
         <v>212</v>
@@ -22563,7 +22524,7 @@
       <c r="H57" s="21"/>
       <c r="I57" s="28"/>
     </row>
-    <row r="58" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9" s="18" customFormat="1">
       <c r="A58" s="52"/>
       <c r="B58" s="21" t="s">
         <v>202</v>
@@ -22580,7 +22541,7 @@
       <c r="H58" s="21"/>
       <c r="I58" s="28"/>
     </row>
-    <row r="59" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9" s="18" customFormat="1">
       <c r="A59" s="52"/>
       <c r="B59" s="21" t="s">
         <v>197</v>
@@ -22597,7 +22558,7 @@
       <c r="H59" s="21"/>
       <c r="I59" s="28"/>
     </row>
-    <row r="60" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9" s="18" customFormat="1">
       <c r="A60" s="52"/>
       <c r="B60" s="21" t="s">
         <v>204</v>
@@ -22614,7 +22575,7 @@
       <c r="H60" s="21"/>
       <c r="I60" s="28"/>
     </row>
-    <row r="61" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9" s="18" customFormat="1">
       <c r="A61" s="52"/>
       <c r="B61" s="21" t="s">
         <v>213</v>
@@ -22633,7 +22594,7 @@
       <c r="H61" s="21"/>
       <c r="I61" s="28"/>
     </row>
-    <row r="62" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9" s="18" customFormat="1">
       <c r="A62" s="52"/>
       <c r="B62" s="21" t="s">
         <v>190</v>
@@ -22650,7 +22611,7 @@
       <c r="H62" s="21"/>
       <c r="I62" s="28"/>
     </row>
-    <row r="63" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9" s="18" customFormat="1">
       <c r="A63" s="52"/>
       <c r="B63" s="21" t="s">
         <v>214</v>
@@ -22669,7 +22630,7 @@
       <c r="H63" s="21"/>
       <c r="I63" s="28"/>
     </row>
-    <row r="64" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9" s="18" customFormat="1">
       <c r="A64" s="52"/>
       <c r="B64" s="21" t="s">
         <v>174</v>
@@ -22686,7 +22647,7 @@
       <c r="H64" s="21"/>
       <c r="I64" s="28"/>
     </row>
-    <row r="65" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" s="18" customFormat="1">
       <c r="A65"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -22697,7 +22658,7 @@
       <c r="H65" s="21"/>
       <c r="I65" s="28"/>
     </row>
-    <row r="66" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" s="18" customFormat="1">
       <c r="A66"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -22708,7 +22669,7 @@
       <c r="H66" s="21"/>
       <c r="I66" s="28"/>
     </row>
-    <row r="67" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A67" s="61" t="s">
         <v>176</v>
       </c>
@@ -22731,7 +22692,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A68" s="61"/>
       <c r="B68" s="21" t="s">
         <v>216</v>
@@ -22752,7 +22713,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" s="18" customFormat="1">
       <c r="A69" s="61"/>
       <c r="B69" s="21" t="s">
         <v>174</v>
@@ -22769,7 +22730,7 @@
       <c r="H69" s="21"/>
       <c r="I69" s="28"/>
     </row>
-    <row r="70" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" s="18" customFormat="1">
       <c r="A70"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -22780,7 +22741,7 @@
       <c r="H70" s="21"/>
       <c r="I70" s="28"/>
     </row>
-    <row r="71" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" s="18" customFormat="1">
       <c r="A71"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -22791,7 +22752,7 @@
       <c r="H71" s="21"/>
       <c r="I71" s="28"/>
     </row>
-    <row r="72" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" s="18" customFormat="1" ht="40.5">
       <c r="A72" s="61" t="s">
         <v>168</v>
       </c>
@@ -22814,7 +22775,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A73" s="61"/>
       <c r="B73" s="21" t="s">
         <v>215</v>
@@ -22835,7 +22796,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" s="18" customFormat="1">
       <c r="A74" s="61"/>
       <c r="B74" s="21" t="s">
         <v>174</v>
@@ -22852,7 +22813,7 @@
       <c r="H74" s="21"/>
       <c r="I74" s="28"/>
     </row>
-    <row r="75" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" s="18" customFormat="1">
       <c r="A75"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -22863,7 +22824,7 @@
       <c r="H75" s="21"/>
       <c r="I75" s="28"/>
     </row>
-    <row r="76" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" s="18" customFormat="1">
       <c r="A76"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -22874,7 +22835,7 @@
       <c r="H76" s="21"/>
       <c r="I76" s="28"/>
     </row>
-    <row r="77" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" s="18" customFormat="1" ht="40.5">
       <c r="A77" s="52" t="s">
         <v>169</v>
       </c>
@@ -22897,7 +22858,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A78" s="52"/>
       <c r="B78" s="21" t="s">
         <v>217</v>
@@ -22918,7 +22879,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" s="18" customFormat="1">
       <c r="A79" s="52"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
@@ -22931,7 +22892,7 @@
       <c r="H79" s="21"/>
       <c r="I79" s="28"/>
     </row>
-    <row r="80" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" s="18" customFormat="1">
       <c r="A80" s="52"/>
       <c r="B80" s="21" t="s">
         <v>220</v>
@@ -22952,7 +22913,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9" s="18" customFormat="1">
       <c r="A81" s="52"/>
       <c r="B81" s="21" t="s">
         <v>219</v>
@@ -22973,7 +22934,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" s="18" customFormat="1">
       <c r="A82" s="52"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
@@ -22986,7 +22947,7 @@
       <c r="H82" s="21"/>
       <c r="I82" s="28"/>
     </row>
-    <row r="83" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A83" s="52"/>
       <c r="B83" s="21" t="s">
         <v>215</v>
@@ -23007,7 +22968,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9" s="18" customFormat="1">
       <c r="A84" s="52"/>
       <c r="B84" s="21" t="s">
         <v>174</v>
@@ -23024,7 +22985,7 @@
       <c r="H84" s="21"/>
       <c r="I84" s="28"/>
     </row>
-    <row r="85" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9" s="18" customFormat="1">
       <c r="A85"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -23035,7 +22996,7 @@
       <c r="H85" s="21"/>
       <c r="I85" s="28"/>
     </row>
-    <row r="86" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9" s="18" customFormat="1">
       <c r="A86"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -23046,7 +23007,7 @@
       <c r="H86" s="21"/>
       <c r="I86" s="28"/>
     </row>
-    <row r="87" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" s="18" customFormat="1" ht="40.5">
       <c r="A87" s="52" t="s">
         <v>106</v>
       </c>
@@ -23069,7 +23030,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A88" s="52"/>
       <c r="B88" s="21" t="s">
         <v>217</v>
@@ -23090,7 +23051,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9" s="18" customFormat="1">
       <c r="A89" s="52"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -23103,7 +23064,7 @@
       <c r="H89" s="21"/>
       <c r="I89" s="28"/>
     </row>
-    <row r="90" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A90" s="52"/>
       <c r="B90" s="21" t="s">
         <v>219</v>
@@ -23124,7 +23085,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9" s="18" customFormat="1">
       <c r="A91" s="52"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
@@ -23137,7 +23098,7 @@
       <c r="H91" s="21"/>
       <c r="I91" s="28"/>
     </row>
-    <row r="92" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A92" s="52"/>
       <c r="B92" s="21" t="s">
         <v>215</v>
@@ -23158,7 +23119,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9" s="18" customFormat="1">
       <c r="A93" s="52"/>
       <c r="B93" s="21" t="s">
         <v>174</v>
@@ -23175,7 +23136,7 @@
       <c r="H93" s="21"/>
       <c r="I93" s="28"/>
     </row>
-    <row r="94" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9" s="18" customFormat="1">
       <c r="A94"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -23186,7 +23147,7 @@
       <c r="H94" s="21"/>
       <c r="I94" s="28"/>
     </row>
-    <row r="95" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9" s="18" customFormat="1">
       <c r="A95"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -23197,7 +23158,7 @@
       <c r="H95" s="21"/>
       <c r="I95" s="28"/>
     </row>
-    <row r="96" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9" s="18" customFormat="1">
       <c r="A96" s="52" t="s">
         <v>104</v>
       </c>
@@ -23220,7 +23181,7 @@
       </c>
       <c r="I96" s="28"/>
     </row>
-    <row r="97" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A97" s="52"/>
       <c r="B97" s="21" t="s">
         <v>189</v>
@@ -23241,7 +23202,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:9" s="18" customFormat="1">
       <c r="A98" s="52"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
@@ -23254,7 +23215,7 @@
       <c r="H98" s="21"/>
       <c r="I98" s="28"/>
     </row>
-    <row r="99" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A99" s="52"/>
       <c r="B99" s="21" t="s">
         <v>218</v>
@@ -23275,7 +23236,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:9" s="18" customFormat="1">
       <c r="A100" s="52"/>
       <c r="B100" s="21" t="s">
         <v>174</v>
@@ -23292,7 +23253,7 @@
       <c r="H100" s="21"/>
       <c r="I100" s="28"/>
     </row>
-    <row r="101" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:9" s="18" customFormat="1">
       <c r="A101"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -23303,7 +23264,7 @@
       <c r="H101" s="21"/>
       <c r="I101" s="28"/>
     </row>
-    <row r="102" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:9" s="18" customFormat="1">
       <c r="A102"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
@@ -23314,7 +23275,7 @@
       <c r="H102" s="21"/>
       <c r="I102" s="28"/>
     </row>
-    <row r="103" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:9" s="18" customFormat="1">
       <c r="A103"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
@@ -23325,7 +23286,7 @@
       <c r="H103" s="21"/>
       <c r="I103" s="28"/>
     </row>
-    <row r="104" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9" s="18" customFormat="1">
       <c r="A104"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -23336,7 +23297,7 @@
       <c r="H104" s="21"/>
       <c r="I104" s="28"/>
     </row>
-    <row r="105" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:9" s="18" customFormat="1">
       <c r="A105"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -23347,7 +23308,7 @@
       <c r="H105" s="21"/>
       <c r="I105" s="28"/>
     </row>
-    <row r="106" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:9" s="18" customFormat="1">
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
       <c r="D106"/>
@@ -23356,7 +23317,7 @@
       <c r="G106"/>
       <c r="I106" s="24"/>
     </row>
-    <row r="107" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:9" s="18" customFormat="1">
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
@@ -23365,7 +23326,7 @@
       <c r="G107"/>
       <c r="I107" s="24"/>
     </row>
-    <row r="108" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:9" s="18" customFormat="1">
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
@@ -23374,7 +23335,7 @@
       <c r="G108"/>
       <c r="I108" s="24"/>
     </row>
-    <row r="109" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9" s="18" customFormat="1">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -23384,7 +23345,7 @@
       <c r="G109"/>
       <c r="I109" s="24"/>
     </row>
-    <row r="110" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:9" s="18" customFormat="1">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -23394,7 +23355,7 @@
       <c r="G110"/>
       <c r="I110" s="24"/>
     </row>
-    <row r="111" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:9" s="18" customFormat="1">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -23404,7 +23365,7 @@
       <c r="G111"/>
       <c r="I111" s="24"/>
     </row>
-    <row r="112" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:9" s="18" customFormat="1">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -23414,7 +23375,7 @@
       <c r="G112"/>
       <c r="I112" s="24"/>
     </row>
-    <row r="113" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:9" s="18" customFormat="1">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -23424,7 +23385,7 @@
       <c r="G113"/>
       <c r="I113" s="24"/>
     </row>
-    <row r="114" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:9" s="18" customFormat="1">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -23434,7 +23395,7 @@
       <c r="G114"/>
       <c r="I114" s="24"/>
     </row>
-    <row r="115" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:9" s="18" customFormat="1">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -23444,7 +23405,7 @@
       <c r="G115"/>
       <c r="I115" s="24"/>
     </row>
-    <row r="116" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:9" s="18" customFormat="1">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -23454,7 +23415,7 @@
       <c r="G116"/>
       <c r="I116" s="24"/>
     </row>
-    <row r="117" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:9" s="18" customFormat="1">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -23464,7 +23425,7 @@
       <c r="G117"/>
       <c r="I117" s="24"/>
     </row>
-    <row r="118" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:9" s="18" customFormat="1">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -23474,7 +23435,7 @@
       <c r="G118"/>
       <c r="I118" s="24"/>
     </row>
-    <row r="119" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:9" s="18" customFormat="1">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -23484,7 +23445,7 @@
       <c r="G119"/>
       <c r="I119" s="24"/>
     </row>
-    <row r="120" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:9" s="18" customFormat="1">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -23494,7 +23455,7 @@
       <c r="G120"/>
       <c r="I120" s="24"/>
     </row>
-    <row r="121" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:9" s="18" customFormat="1">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -23504,7 +23465,7 @@
       <c r="G121"/>
       <c r="I121" s="24"/>
     </row>
-    <row r="122" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:9" s="18" customFormat="1">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -23514,7 +23475,7 @@
       <c r="G122"/>
       <c r="I122" s="24"/>
     </row>
-    <row r="123" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:9" s="18" customFormat="1">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -23524,7 +23485,7 @@
       <c r="G123"/>
       <c r="I123" s="24"/>
     </row>
-    <row r="124" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:9" s="18" customFormat="1">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -23534,7 +23495,7 @@
       <c r="G124"/>
       <c r="I124" s="24"/>
     </row>
-    <row r="125" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:9" s="18" customFormat="1">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -23544,7 +23505,7 @@
       <c r="G125"/>
       <c r="I125" s="24"/>
     </row>
-    <row r="126" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:9" s="18" customFormat="1">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -23554,7 +23515,7 @@
       <c r="G126"/>
       <c r="I126" s="24"/>
     </row>
-    <row r="127" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:9" s="18" customFormat="1">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -23564,7 +23525,7 @@
       <c r="G127"/>
       <c r="I127" s="24"/>
     </row>
-    <row r="128" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:9" s="18" customFormat="1">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -23574,7 +23535,7 @@
       <c r="G128"/>
       <c r="I128" s="24"/>
     </row>
-    <row r="129" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:9" s="18" customFormat="1">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -23584,7 +23545,7 @@
       <c r="G129"/>
       <c r="I129" s="24"/>
     </row>
-    <row r="130" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:9" s="18" customFormat="1">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -23594,7 +23555,7 @@
       <c r="G130"/>
       <c r="I130" s="24"/>
     </row>
-    <row r="131" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:9" s="18" customFormat="1">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -23604,7 +23565,7 @@
       <c r="G131"/>
       <c r="I131" s="24"/>
     </row>
-    <row r="132" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:9" s="18" customFormat="1">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -23614,7 +23575,7 @@
       <c r="G132"/>
       <c r="I132" s="24"/>
     </row>
-    <row r="133" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:9" s="18" customFormat="1">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -23624,7 +23585,7 @@
       <c r="G133"/>
       <c r="I133" s="24"/>
     </row>
-    <row r="134" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:9" s="18" customFormat="1">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -23634,7 +23595,7 @@
       <c r="G134"/>
       <c r="I134" s="24"/>
     </row>
-    <row r="135" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:9" s="18" customFormat="1">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -23644,7 +23605,7 @@
       <c r="G135"/>
       <c r="I135" s="24"/>
     </row>
-    <row r="136" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:9" s="18" customFormat="1">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -23654,7 +23615,7 @@
       <c r="G136"/>
       <c r="I136" s="24"/>
     </row>
-    <row r="137" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:9" s="18" customFormat="1">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -23664,7 +23625,7 @@
       <c r="G137"/>
       <c r="I137" s="24"/>
     </row>
-    <row r="138" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:9" s="18" customFormat="1">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -23674,7 +23635,7 @@
       <c r="G138"/>
       <c r="I138" s="24"/>
     </row>
-    <row r="139" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:9" s="18" customFormat="1">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -23684,7 +23645,7 @@
       <c r="G139"/>
       <c r="I139" s="24"/>
     </row>
-    <row r="140" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:9" s="18" customFormat="1">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -23694,7 +23655,7 @@
       <c r="G140"/>
       <c r="I140" s="24"/>
     </row>
-    <row r="141" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:9" s="18" customFormat="1">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -23704,7 +23665,7 @@
       <c r="G141"/>
       <c r="I141" s="24"/>
     </row>
-    <row r="142" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:9" s="18" customFormat="1">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -23731,14 +23692,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C36" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.875" customWidth="1"/>
@@ -23753,7 +23714,7 @@
     <col min="11" max="11" width="89.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -23786,7 +23747,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="52" t="s">
         <v>165</v>
       </c>
@@ -23808,7 +23769,9 @@
       <c r="G2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>322</v>
       </c>
@@ -23819,7 +23782,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="52"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
@@ -23839,7 +23802,9 @@
       <c r="G3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>322</v>
       </c>
@@ -23850,7 +23815,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="52"/>
       <c r="B4" s="21" t="s">
         <v>172</v>
@@ -23870,7 +23835,9 @@
       <c r="G4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>322</v>
       </c>
@@ -23881,7 +23848,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="52" t="s">
         <v>166</v>
       </c>
@@ -23895,7 +23862,9 @@
       <c r="E5" s="35"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>558</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>326</v>
       </c>
@@ -23906,7 +23875,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="52"/>
       <c r="B6" s="21" t="s">
         <v>183</v>
@@ -23927,7 +23896,7 @@
         <v>100</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>558</v>
+        <v>497</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>326</v>
@@ -23939,7 +23908,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="52"/>
       <c r="B7" s="21" t="s">
         <v>184</v>
@@ -23960,7 +23929,7 @@
         <v>295</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>326</v>
@@ -23972,7 +23941,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="52"/>
       <c r="B8" s="21" t="s">
         <v>185</v>
@@ -23993,7 +23962,7 @@
         <v>295</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>326</v>
@@ -24005,7 +23974,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="52"/>
       <c r="B9" s="21" t="s">
         <v>186</v>
@@ -24017,7 +23986,9 @@
       <c r="E9" s="35"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>561</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>326</v>
       </c>
@@ -24028,7 +23999,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="52"/>
       <c r="B10" s="21" t="s">
         <v>187</v>
@@ -24049,7 +24020,7 @@
         <v>100</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>326</v>
@@ -24061,7 +24032,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="52"/>
       <c r="B11" s="21" t="s">
         <v>188</v>
@@ -24082,7 +24053,7 @@
         <v>100</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>558</v>
+        <v>495</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>326</v>
@@ -24094,7 +24065,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="52"/>
       <c r="B12" s="21" t="s">
         <v>189</v>
@@ -24115,7 +24086,7 @@
         <v>100</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>558</v>
+        <v>495</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>326</v>
@@ -24127,7 +24098,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" s="52"/>
       <c r="B13" s="21" t="s">
         <v>190</v>
@@ -24148,7 +24119,7 @@
         <v>100</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>558</v>
+        <v>495</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>326</v>
@@ -24160,7 +24131,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="52"/>
       <c r="B14" s="21" t="s">
         <v>191</v>
@@ -24193,7 +24164,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15" s="52"/>
       <c r="B15" s="21" t="s">
         <v>192</v>
@@ -24226,7 +24197,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="A16" s="52"/>
       <c r="B16" s="21" t="s">
         <v>193</v>
@@ -24259,7 +24230,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11">
       <c r="A17" s="52"/>
       <c r="B17" s="21" t="s">
         <v>194</v>
@@ -24292,7 +24263,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11">
       <c r="A18" s="52"/>
       <c r="B18" s="21" t="s">
         <v>195</v>
@@ -24313,7 +24284,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11">
       <c r="A19" s="52"/>
       <c r="B19" s="21" t="s">
         <v>196</v>
@@ -24346,7 +24317,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11">
       <c r="A20" s="52"/>
       <c r="B20" s="21" t="s">
         <v>196</v>
@@ -24379,7 +24350,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11">
       <c r="A21" s="52"/>
       <c r="B21" s="21" t="s">
         <v>197</v>
@@ -24412,7 +24383,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11">
       <c r="A22" s="52"/>
       <c r="B22" s="21" t="s">
         <v>197</v>
@@ -24445,7 +24416,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11">
       <c r="A23" s="52"/>
       <c r="B23" s="21" t="s">
         <v>198</v>
@@ -24478,7 +24449,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11">
       <c r="A24" s="52"/>
       <c r="B24" s="21" t="s">
         <v>199</v>
@@ -24511,7 +24482,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11">
       <c r="A25" s="52"/>
       <c r="B25" s="21" t="s">
         <v>200</v>
@@ -24531,7 +24502,9 @@
       <c r="G25" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>558</v>
+      </c>
       <c r="I25" s="1" t="s">
         <v>322</v>
       </c>
@@ -24542,7 +24515,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11">
       <c r="A26" s="52"/>
       <c r="B26" s="21" t="s">
         <v>201</v>
@@ -24575,7 +24548,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11">
       <c r="A27" s="52"/>
       <c r="B27" s="21" t="s">
         <v>201</v>
@@ -24608,7 +24581,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11">
       <c r="A28" s="52"/>
       <c r="B28" s="21" t="s">
         <v>202</v>
@@ -24641,7 +24614,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11">
       <c r="A29" s="52"/>
       <c r="B29" s="21" t="s">
         <v>202</v>
@@ -24674,7 +24647,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11">
       <c r="A30" s="52"/>
       <c r="B30" s="21" t="s">
         <v>203</v>
@@ -24707,7 +24680,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" ht="14.25" customHeight="1">
       <c r="A31" s="52"/>
       <c r="B31" s="21" t="s">
         <v>204</v>
@@ -24740,7 +24713,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" ht="14.25" customHeight="1">
       <c r="A32" s="52"/>
       <c r="B32" s="21" t="s">
         <v>204</v>
@@ -24773,7 +24746,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11">
       <c r="A33" s="52"/>
       <c r="B33" s="21" t="s">
         <v>205</v>
@@ -24806,7 +24779,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11">
       <c r="A34" s="52"/>
       <c r="B34" s="21" t="s">
         <v>205</v>
@@ -24839,7 +24812,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11">
       <c r="A35" s="52"/>
       <c r="B35" s="21" t="s">
         <v>205</v>
@@ -24872,7 +24845,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11">
       <c r="A36" s="52"/>
       <c r="B36" s="21" t="s">
         <v>205</v>
@@ -24905,7 +24878,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11">
       <c r="A37" s="52"/>
       <c r="B37" s="21" t="s">
         <v>205</v>
@@ -24938,7 +24911,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11">
       <c r="A38" s="52"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
@@ -24971,7 +24944,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11">
       <c r="A39" s="52"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
@@ -25004,7 +24977,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11">
       <c r="A40" s="52"/>
       <c r="B40" s="21" t="s">
         <v>205</v>
@@ -25037,7 +25010,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11">
       <c r="A41" s="52"/>
       <c r="B41" s="21" t="s">
         <v>205</v>
@@ -25070,7 +25043,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11">
       <c r="A42" s="52"/>
       <c r="B42" s="21" t="s">
         <v>205</v>
@@ -25103,7 +25076,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11">
       <c r="A43" s="52"/>
       <c r="B43" s="21" t="s">
         <v>205</v>
@@ -25136,7 +25109,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11">
       <c r="A44" s="52"/>
       <c r="B44" s="21" t="s">
         <v>205</v>
@@ -25169,7 +25142,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11">
       <c r="A45" s="52"/>
       <c r="B45" s="21" t="s">
         <v>206</v>
@@ -25189,6 +25162,9 @@
       <c r="G45" t="s">
         <v>304</v>
       </c>
+      <c r="H45" s="1" t="s">
+        <v>497</v>
+      </c>
       <c r="I45" s="1" t="s">
         <v>322</v>
       </c>
@@ -25199,7 +25175,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11">
       <c r="A46" s="52" t="s">
         <v>175</v>
       </c>
@@ -25218,7 +25194,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="33"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11">
       <c r="A47" s="52"/>
       <c r="B47" s="21" t="s">
         <v>211</v>
@@ -25235,7 +25211,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11">
       <c r="A48" s="52"/>
       <c r="B48" s="21" t="s">
         <v>189</v>
@@ -25268,7 +25244,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11">
       <c r="A49" s="52"/>
       <c r="B49" s="21" t="s">
         <v>199</v>
@@ -25285,7 +25261,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11">
       <c r="A50" s="52"/>
       <c r="B50" s="21" t="s">
         <v>212</v>
@@ -25302,7 +25278,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11">
       <c r="A51" s="52"/>
       <c r="B51" s="21" t="s">
         <v>202</v>
@@ -25319,7 +25295,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11">
       <c r="A52" s="52"/>
       <c r="B52" s="21" t="s">
         <v>197</v>
@@ -25336,7 +25312,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11">
       <c r="A53" s="52"/>
       <c r="B53" s="21" t="s">
         <v>204</v>
@@ -25353,7 +25329,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11">
       <c r="A54" s="52" t="s">
         <v>176</v>
       </c>
@@ -25388,7 +25364,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11">
       <c r="A55" s="52"/>
       <c r="B55" s="21" t="s">
         <v>216</v>
@@ -25421,7 +25397,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11">
       <c r="A56" s="52" t="s">
         <v>168</v>
       </c>
@@ -25456,7 +25432,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11">
       <c r="A57" s="52"/>
       <c r="B57" s="21" t="s">
         <v>215</v>
@@ -25489,7 +25465,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" ht="40.5">
       <c r="A58" s="52" t="s">
         <v>169</v>
       </c>
@@ -25522,7 +25498,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11">
       <c r="A59" s="52"/>
       <c r="B59" s="21" t="s">
         <v>217</v>
@@ -25553,7 +25529,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11">
       <c r="A60" s="52"/>
       <c r="B60" s="21" t="s">
         <v>220</v>
@@ -25584,7 +25560,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11">
       <c r="A61" s="52"/>
       <c r="B61" s="21" t="s">
         <v>219</v>
@@ -25615,7 +25591,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11">
       <c r="A62" s="52"/>
       <c r="B62" s="21" t="s">
         <v>215</v>
@@ -25646,7 +25622,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11" ht="27">
       <c r="A63" s="52" t="s">
         <v>106</v>
       </c>
@@ -25668,7 +25644,9 @@
       <c r="G63" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="H63" s="21"/>
+      <c r="H63" s="1" t="s">
+        <v>561</v>
+      </c>
       <c r="I63" s="1" t="s">
         <v>322</v>
       </c>
@@ -25679,7 +25657,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11">
       <c r="A64" s="52"/>
       <c r="B64" s="21" t="s">
         <v>217</v>
@@ -25699,7 +25677,9 @@
       <c r="G64" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="H64" s="21"/>
+      <c r="H64" s="1" t="s">
+        <v>561</v>
+      </c>
       <c r="I64" s="1" t="s">
         <v>322</v>
       </c>
@@ -25710,7 +25690,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11">
       <c r="A65" s="52"/>
       <c r="B65" s="21" t="s">
         <v>219</v>
@@ -25730,7 +25710,9 @@
       <c r="G65" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="H65" s="21"/>
+      <c r="H65" s="1" t="s">
+        <v>561</v>
+      </c>
       <c r="I65" s="1" t="s">
         <v>322</v>
       </c>
@@ -25741,7 +25723,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11">
       <c r="A66" s="52"/>
       <c r="B66" s="21" t="s">
         <v>215</v>
@@ -25761,7 +25743,9 @@
       <c r="G66" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="H66" s="21"/>
+      <c r="H66" s="1" t="s">
+        <v>561</v>
+      </c>
       <c r="I66" s="1" t="s">
         <v>322</v>
       </c>
@@ -25772,7 +25756,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11">
       <c r="A67" s="52" t="s">
         <v>104</v>
       </c>
@@ -25794,7 +25778,9 @@
       <c r="G67" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H67" s="1"/>
+      <c r="H67" s="1" t="s">
+        <v>495</v>
+      </c>
       <c r="I67" s="1" t="s">
         <v>322</v>
       </c>
@@ -25805,7 +25791,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11">
       <c r="A68" s="52"/>
       <c r="B68" s="21" t="s">
         <v>189</v>
@@ -25825,7 +25811,9 @@
       <c r="G68" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="H68" s="1"/>
+      <c r="H68" s="1" t="s">
+        <v>495</v>
+      </c>
       <c r="I68" s="1" t="s">
         <v>322</v>
       </c>
@@ -25836,7 +25824,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11">
       <c r="A69" s="52"/>
       <c r="B69" s="21" t="s">
         <v>218</v>
@@ -25856,7 +25844,9 @@
       <c r="G69" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="H69" s="1"/>
+      <c r="H69" s="1" t="s">
+        <v>495</v>
+      </c>
       <c r="I69" s="1" t="s">
         <v>322</v>
       </c>
@@ -25868,7 +25858,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K69" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:K69">
+    <filterColumn colId="8"/>
+  </autoFilter>
   <mergeCells count="8">
     <mergeCell ref="A63:A66"/>
     <mergeCell ref="A67:A69"/>
@@ -25885,21 +25877,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>297</v>
       </c>
@@ -25910,7 +25902,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="29" t="s">
         <v>165</v>
       </c>
@@ -25921,7 +25913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="62" t="s">
         <v>166</v>
       </c>
@@ -25932,7 +25924,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="62"/>
       <c r="B4" s="21" t="s">
         <v>189</v>
@@ -25941,7 +25933,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>175</v>
       </c>
@@ -25952,7 +25944,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>176</v>
       </c>
@@ -25963,7 +25955,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>297</v>
       </c>
@@ -25974,7 +25966,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="31" t="s">
         <v>166</v>
       </c>
@@ -25985,7 +25977,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="31" t="s">
         <v>104</v>
       </c>
@@ -25996,7 +25988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>297</v>
       </c>
@@ -26007,7 +25999,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="58" t="s">
         <v>166</v>
       </c>
@@ -26018,7 +26010,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="59"/>
       <c r="B20" s="21" t="s">
         <v>202</v>
@@ -26027,7 +26019,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="29" t="s">
         <v>168</v>
       </c>
@@ -26038,7 +26030,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" s="29" t="s">
         <v>169</v>
       </c>
@@ -26049,7 +26041,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="29" t="s">
         <v>106</v>
       </c>
@@ -26060,7 +26052,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="43" t="s">
         <v>297</v>
       </c>
@@ -26071,7 +26063,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" s="63" t="s">
         <v>166</v>
       </c>
@@ -26082,7 +26074,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" s="63"/>
       <c r="B28" s="45" t="s">
         <v>205</v>
@@ -26091,7 +26083,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" s="63"/>
       <c r="B29" s="45" t="s">
         <v>205</v>
@@ -26100,7 +26092,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" s="63"/>
       <c r="B30" s="45" t="s">
         <v>205</v>
@@ -26109,7 +26101,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" s="63"/>
       <c r="B31" s="45" t="s">
         <v>205</v>
@@ -26118,7 +26110,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" s="63"/>
       <c r="B32" s="21" t="s">
         <v>196</v>
@@ -26127,7 +26119,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="63"/>
       <c r="B33" s="21" t="s">
         <v>197</v>
@@ -26136,7 +26128,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34" s="63"/>
       <c r="B34" s="21" t="s">
         <v>201</v>
@@ -26145,7 +26137,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" s="63"/>
       <c r="B35" s="21" t="s">
         <v>202</v>
@@ -26154,7 +26146,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" s="63"/>
       <c r="B36" s="21" t="s">
         <v>204</v>
@@ -26163,7 +26155,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" s="43" t="s">
         <v>297</v>
       </c>
@@ -26174,7 +26166,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="27">
       <c r="A40" s="46" t="s">
         <v>165</v>
       </c>
@@ -26185,7 +26177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3">
       <c r="A41" s="63" t="s">
         <v>166</v>
       </c>
@@ -26196,7 +26188,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" s="63"/>
       <c r="B42" s="21" t="s">
         <v>196</v>
@@ -26205,7 +26197,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43" s="46" t="s">
         <v>168</v>
       </c>
@@ -26216,7 +26208,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" s="46" t="s">
         <v>169</v>
       </c>
@@ -26227,7 +26219,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" s="46" t="s">
         <v>104</v>
       </c>
@@ -26251,14 +26243,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
@@ -26282,7 +26274,7 @@
     <col min="20" max="20" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20">
       <c r="A1" s="65" t="s">
         <v>338</v>
       </c>
@@ -26314,7 +26306,7 @@
       <c r="S1" s="75"/>
       <c r="T1" s="75"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20">
       <c r="A2" s="37" t="s">
         <v>341</v>
       </c>
@@ -26376,7 +26368,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
         <v>388</v>
       </c>
@@ -26426,7 +26418,7 @@
       </c>
       <c r="T3" s="36"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
         <v>388</v>
       </c>
@@ -26476,7 +26468,7 @@
       </c>
       <c r="T4" s="36"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
         <v>388</v>
       </c>
@@ -26526,7 +26518,7 @@
       </c>
       <c r="T5" s="36"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
         <v>388</v>
       </c>
@@ -26576,7 +26568,7 @@
       </c>
       <c r="T6" s="36"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
         <v>388</v>
       </c>
@@ -26626,7 +26618,7 @@
       </c>
       <c r="T7" s="36"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
         <v>388</v>
       </c>
@@ -26676,7 +26668,7 @@
       </c>
       <c r="T8" s="36"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
         <v>388</v>
       </c>
@@ -26726,7 +26718,7 @@
       </c>
       <c r="T9" s="36"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
         <v>388</v>
       </c>
@@ -26776,7 +26768,7 @@
       </c>
       <c r="T10" s="36"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
         <v>388</v>
       </c>
@@ -26826,7 +26818,7 @@
       </c>
       <c r="T11" s="36"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
         <v>388</v>
       </c>
@@ -26876,7 +26868,7 @@
       </c>
       <c r="T12" s="36"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
         <v>388</v>
       </c>
@@ -26926,7 +26918,7 @@
       </c>
       <c r="T13" s="36"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
         <v>388</v>
       </c>
@@ -26976,7 +26968,7 @@
       </c>
       <c r="T14" s="36"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
         <v>388</v>
       </c>
@@ -27026,7 +27018,7 @@
       </c>
       <c r="T15" s="36"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
         <v>388</v>
       </c>
@@ -27076,7 +27068,7 @@
       </c>
       <c r="T16" s="36"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
         <v>388</v>
       </c>
@@ -27126,7 +27118,7 @@
       </c>
       <c r="T17" s="36"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
         <v>388</v>
       </c>
@@ -27176,7 +27168,7 @@
       </c>
       <c r="T18" s="36"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20">
       <c r="A19" s="1" t="s">
         <v>388</v>
       </c>
@@ -27226,7 +27218,7 @@
       </c>
       <c r="T19" s="36"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20">
       <c r="A20" s="1" t="s">
         <v>388</v>
       </c>
@@ -27276,7 +27268,7 @@
       </c>
       <c r="T20" s="36"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20">
       <c r="A21" s="1" t="s">
         <v>388</v>
       </c>
@@ -27326,7 +27318,7 @@
       </c>
       <c r="T21" s="36"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20">
       <c r="A22" s="1" t="s">
         <v>388</v>
       </c>
@@ -27376,7 +27368,7 @@
       </c>
       <c r="T22" s="36"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20">
       <c r="A23" s="1" t="s">
         <v>388</v>
       </c>
@@ -27426,7 +27418,7 @@
       </c>
       <c r="T23" s="36"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20">
       <c r="A24" s="1" t="s">
         <v>388</v>
       </c>
@@ -27472,7 +27464,7 @@
       </c>
       <c r="T24" s="36"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20">
       <c r="A25" s="1" t="s">
         <v>388</v>
       </c>
@@ -27518,7 +27510,7 @@
       </c>
       <c r="T25" s="36"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20">
       <c r="A26" s="1" t="s">
         <v>388</v>
       </c>
@@ -27564,7 +27556,7 @@
       </c>
       <c r="T26" s="36"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -27601,7 +27593,7 @@
       </c>
       <c r="T27" s="36"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -27641,7 +27633,7 @@
       </c>
       <c r="T28" s="36"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -27679,7 +27671,7 @@
       </c>
       <c r="T29" s="36"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -27719,7 +27711,7 @@
       </c>
       <c r="T30" s="36"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -27759,7 +27751,7 @@
       </c>
       <c r="T31" s="36"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -27799,7 +27791,7 @@
       </c>
       <c r="T32" s="36"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -27839,7 +27831,7 @@
       </c>
       <c r="T33" s="36"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -27879,7 +27871,7 @@
       </c>
       <c r="T34" s="36"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -27919,7 +27911,7 @@
       </c>
       <c r="T35" s="36"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -27959,7 +27951,7 @@
       </c>
       <c r="T36" s="36"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -27999,7 +27991,7 @@
       </c>
       <c r="T37" s="36"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -28039,7 +28031,7 @@
       </c>
       <c r="T38" s="36"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -28079,7 +28071,7 @@
       </c>
       <c r="T39" s="36"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -28119,7 +28111,7 @@
       </c>
       <c r="T40" s="36"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -28159,7 +28151,7 @@
       </c>
       <c r="T41" s="36"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -28199,7 +28191,7 @@
       </c>
       <c r="T42" s="36"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -28239,7 +28231,7 @@
       </c>
       <c r="T43" s="36"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -28279,7 +28271,7 @@
       </c>
       <c r="T44" s="36"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -28313,7 +28305,7 @@
       </c>
       <c r="T45" s="36"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -28347,7 +28339,7 @@
       </c>
       <c r="T46" s="36"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -28381,7 +28373,7 @@
       </c>
       <c r="T47" s="36"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -28415,7 +28407,7 @@
       </c>
       <c r="T48" s="36"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:20">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -28449,7 +28441,7 @@
       </c>
       <c r="T49" s="36"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:20">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -28483,7 +28475,7 @@
       </c>
       <c r="T50" s="36"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:20">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -28511,7 +28503,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:20">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -28539,7 +28531,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:20">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -28567,7 +28559,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:20">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -28595,7 +28587,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:20">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -28623,7 +28615,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:20">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -28651,7 +28643,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:20">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -28679,7 +28671,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:20">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -28707,7 +28699,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:20">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -28735,7 +28727,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:20">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -28763,7 +28755,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:20">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -28791,7 +28783,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:20">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -28819,7 +28811,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:20">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -28847,7 +28839,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:20">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -28875,7 +28867,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:20">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -28903,7 +28895,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:20">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -28931,7 +28923,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:20">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -28959,7 +28951,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:20">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -28987,7 +28979,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:20">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -29015,7 +29007,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:20">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -29043,7 +29035,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:20">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -29071,7 +29063,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:20">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -29099,7 +29091,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:20">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -29127,7 +29119,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:20">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -29155,7 +29147,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:20">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -29183,7 +29175,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:20">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -29211,7 +29203,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:20">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -29239,7 +29231,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:20">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -29267,7 +29259,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:20">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -29295,7 +29287,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:20">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -29323,7 +29315,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:20">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -29351,7 +29343,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:20">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -29379,7 +29371,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:20">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -29407,7 +29399,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:20">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -29435,7 +29427,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:20">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -29463,7 +29455,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:20">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -29491,7 +29483,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:20">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -29519,7 +29511,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:20">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -29547,7 +29539,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:20">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -29575,7 +29567,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:20">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -29603,7 +29595,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:20">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -29631,7 +29623,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:20">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -29659,7 +29651,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:20">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -29687,7 +29679,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:20">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -29715,7 +29707,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:20">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -29743,7 +29735,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:20">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -29771,7 +29763,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:20">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -29799,7 +29791,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:20">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -29827,7 +29819,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:20">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -29855,7 +29847,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:20">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -29883,7 +29875,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:20">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -29911,7 +29903,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:20">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -29939,7 +29931,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:20">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -29967,7 +29959,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:20">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -29995,7 +29987,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:20">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -30023,7 +30015,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:20">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -30051,7 +30043,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:20">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -30079,7 +30071,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:20">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -30107,7 +30099,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:20">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -30135,7 +30127,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:20">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -30163,7 +30155,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:20">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -30191,7 +30183,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:20">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -30219,7 +30211,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:20">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -30247,7 +30239,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:20">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -30269,7 +30261,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:20">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -30291,7 +30283,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:20">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -30313,7 +30305,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:20">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -30335,7 +30327,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:20">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -30357,7 +30349,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:20">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -30379,7 +30371,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:20">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -30401,7 +30393,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:20">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -30423,7 +30415,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:20">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -30445,7 +30437,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:20">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -30467,7 +30459,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:20">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -30489,7 +30481,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:20">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -30511,7 +30503,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:20">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -30533,7 +30525,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:20">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -30555,7 +30547,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:20">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -30577,7 +30569,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:20">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -30599,7 +30591,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:20">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -30621,7 +30613,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:20">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -30643,7 +30635,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:20">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -30665,7 +30657,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:20">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -30687,7 +30679,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:20">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -30709,7 +30701,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:20">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -30731,7 +30723,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:20">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -30753,7 +30745,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:20">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -30775,7 +30767,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:20">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -30797,7 +30789,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:20">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -30819,7 +30811,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:20">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -30841,7 +30833,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:20">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -30863,7 +30855,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:20">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -30885,7 +30877,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:20">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -30907,7 +30899,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:20">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -30943,14 +30935,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="26.875" bestFit="1" customWidth="1"/>
@@ -30960,7 +30952,7 @@
     <col min="6" max="6" width="53.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="17"/>
       <c r="B1" s="17" t="s">
         <v>167</v>
@@ -30978,7 +30970,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="54">
       <c r="A2" s="52"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -30992,7 +30984,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="54">
       <c r="A3" s="52"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -31006,7 +30998,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="27">
       <c r="A6" s="52" t="s">
         <v>106</v>
       </c>
@@ -31026,7 +31018,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="27">
       <c r="A7" s="52"/>
       <c r="B7" s="50" t="s">
         <v>217</v>
@@ -31044,7 +31036,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="27">
       <c r="A8" s="52"/>
       <c r="B8" s="50" t="s">
         <v>219</v>
@@ -31062,7 +31054,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="27">
       <c r="A9" s="52"/>
       <c r="B9" s="3" t="s">
         <v>215</v>
@@ -31080,7 +31072,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="27">
       <c r="A13" s="52" t="s">
         <v>165</v>
       </c>
@@ -31100,7 +31092,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="27">
       <c r="A14" s="52"/>
       <c r="B14" s="3" t="s">
         <v>171</v>
@@ -31118,7 +31110,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="27">
       <c r="A15" s="52"/>
       <c r="B15" s="3" t="s">
         <v>171</v>
@@ -31136,7 +31128,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="27">
       <c r="A16" s="52"/>
       <c r="B16" s="3" t="s">
         <v>181</v>
@@ -31154,7 +31146,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="27">
       <c r="A17" s="52"/>
       <c r="B17" s="3" t="s">
         <v>172</v>
@@ -31172,7 +31164,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" s="52"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -31180,7 +31172,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="21"/>
     </row>
-    <row r="23" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="40.5">
       <c r="A23" s="52" t="s">
         <v>166</v>
       </c>
@@ -31200,7 +31192,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="A24" s="52"/>
       <c r="B24" s="21" t="s">
         <v>206</v>
@@ -31218,7 +31210,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="40.5">
       <c r="A25" s="52"/>
       <c r="B25" s="21" t="s">
         <v>206</v>
@@ -31236,7 +31228,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="27">
       <c r="A29" s="52" t="s">
         <v>365</v>
       </c>
@@ -31256,7 +31248,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="A30" s="52"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -31264,7 +31256,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="21"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6">
       <c r="A31" s="52"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -31286,14 +31278,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G142"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
@@ -31303,7 +31295,7 @@
     <col min="7" max="7" width="55.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="17"/>
       <c r="B1" s="17" t="s">
         <v>167</v>
@@ -31324,7 +31316,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="52"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -31339,7 +31331,7 @@
       </c>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="52"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -31354,7 +31346,7 @@
       </c>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="52"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -31369,7 +31361,7 @@
       </c>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="52"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -31384,7 +31376,7 @@
       </c>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="52"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -31399,7 +31391,7 @@
       </c>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="52"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -31414,7 +31406,7 @@
       </c>
       <c r="G7" s="21"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>167</v>
@@ -31435,7 +31427,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="27">
       <c r="A13" s="52" t="s">
         <v>165</v>
       </c>
@@ -31458,7 +31450,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="27">
       <c r="A14" s="52"/>
       <c r="B14" s="21" t="s">
         <v>171</v>
@@ -31479,7 +31471,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="27">
       <c r="A15" s="52"/>
       <c r="B15" s="21" t="s">
         <v>171</v>
@@ -31500,7 +31492,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="27">
       <c r="A16" s="52"/>
       <c r="B16" s="21" t="s">
         <v>171</v>
@@ -31521,7 +31513,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="27">
       <c r="A17" s="52"/>
       <c r="B17" s="21" t="s">
         <v>171</v>
@@ -31542,7 +31534,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="27">
       <c r="A18" s="52"/>
       <c r="B18" s="21" t="s">
         <v>171</v>
@@ -31563,7 +31555,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="27">
       <c r="A19" s="52"/>
       <c r="B19" s="21" t="s">
         <v>171</v>
@@ -31584,7 +31576,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="27">
       <c r="A20" s="52"/>
       <c r="B20" s="21" t="s">
         <v>171</v>
@@ -31605,7 +31597,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="27">
       <c r="A21" s="52"/>
       <c r="B21" s="21" t="s">
         <v>171</v>
@@ -31626,7 +31618,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="27">
       <c r="A22" s="52"/>
       <c r="B22" s="21" t="s">
         <v>171</v>
@@ -31647,7 +31639,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="27">
       <c r="A23" s="52"/>
       <c r="B23" s="21" t="s">
         <v>171</v>
@@ -31668,7 +31660,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="27">
       <c r="A24" s="52"/>
       <c r="B24" s="21" t="s">
         <v>171</v>
@@ -31689,7 +31681,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="27">
       <c r="A25" s="52"/>
       <c r="B25" s="21" t="s">
         <v>171</v>
@@ -31710,7 +31702,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="27">
       <c r="A26" s="52"/>
       <c r="B26" s="21" t="s">
         <v>171</v>
@@ -31731,7 +31723,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="27">
       <c r="A27" s="52"/>
       <c r="B27" s="21" t="s">
         <v>171</v>
@@ -31752,7 +31744,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="27">
       <c r="A28" s="52"/>
       <c r="B28" s="21" t="s">
         <v>171</v>
@@ -31773,7 +31765,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="27">
       <c r="A29" s="52"/>
       <c r="B29" s="21" t="s">
         <v>171</v>
@@ -31794,7 +31786,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="27">
       <c r="A30" s="52"/>
       <c r="B30" s="21" t="s">
         <v>171</v>
@@ -31815,7 +31807,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="27">
       <c r="A31" s="52"/>
       <c r="B31" s="21" t="s">
         <v>171</v>
@@ -31836,7 +31828,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="27">
       <c r="A32" s="52"/>
       <c r="B32" s="21" t="s">
         <v>171</v>
@@ -31857,7 +31849,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="27">
       <c r="A33" s="52"/>
       <c r="B33" s="21" t="s">
         <v>171</v>
@@ -31878,7 +31870,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" ht="27">
       <c r="A34" s="52"/>
       <c r="B34" s="21" t="s">
         <v>171</v>
@@ -31899,7 +31891,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" ht="27">
       <c r="A35" s="52"/>
       <c r="B35" s="21" t="s">
         <v>171</v>
@@ -31920,7 +31912,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" ht="27">
       <c r="A36" s="52"/>
       <c r="B36" s="21" t="s">
         <v>171</v>
@@ -31941,7 +31933,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" ht="27">
       <c r="A37" s="52"/>
       <c r="B37" s="21" t="s">
         <v>171</v>
@@ -31962,7 +31954,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" ht="27">
       <c r="A38" s="52"/>
       <c r="B38" s="21" t="s">
         <v>171</v>
@@ -31983,7 +31975,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7">
       <c r="A39" s="52"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
@@ -31992,7 +31984,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="21"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7">
       <c r="A40" s="52"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -32001,7 +31993,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="21"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
         <v>167</v>
@@ -32022,7 +32014,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" ht="27">
       <c r="A46" s="52" t="s">
         <v>165</v>
       </c>
@@ -32045,7 +32037,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" ht="27">
       <c r="A47" s="52"/>
       <c r="B47" s="3" t="s">
         <v>181</v>
@@ -32066,7 +32058,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" ht="27">
       <c r="A48" s="52"/>
       <c r="B48" s="3" t="s">
         <v>181</v>
@@ -32087,7 +32079,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" ht="27">
       <c r="A49" s="52"/>
       <c r="B49" s="3" t="s">
         <v>181</v>
@@ -32108,7 +32100,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" ht="27">
       <c r="A50" s="52"/>
       <c r="B50" s="3" t="s">
         <v>181</v>
@@ -32129,7 +32121,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" ht="27">
       <c r="A51" s="52"/>
       <c r="B51" s="3" t="s">
         <v>181</v>
@@ -32150,7 +32142,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" ht="27">
       <c r="A52" s="52"/>
       <c r="B52" s="3" t="s">
         <v>181</v>
@@ -32171,7 +32163,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" ht="27">
       <c r="A53" s="52"/>
       <c r="B53" s="3" t="s">
         <v>181</v>
@@ -32192,7 +32184,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" ht="27">
       <c r="A54" s="52"/>
       <c r="B54" s="3" t="s">
         <v>181</v>
@@ -32213,7 +32205,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" ht="27">
       <c r="A55" s="52"/>
       <c r="B55" s="3" t="s">
         <v>181</v>
@@ -32234,7 +32226,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" ht="27">
       <c r="A56" s="52"/>
       <c r="B56" s="3" t="s">
         <v>181</v>
@@ -32255,7 +32247,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" ht="27">
       <c r="A57" s="52"/>
       <c r="B57" s="3" t="s">
         <v>181</v>
@@ -32276,7 +32268,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" ht="27">
       <c r="A58" s="52"/>
       <c r="B58" s="3" t="s">
         <v>181</v>
@@ -32297,7 +32289,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" ht="27">
       <c r="A59" s="52"/>
       <c r="B59" s="3" t="s">
         <v>181</v>
@@ -32318,7 +32310,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" ht="27">
       <c r="A60" s="52"/>
       <c r="B60" s="3" t="s">
         <v>181</v>
@@ -32339,7 +32331,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" ht="27">
       <c r="A61" s="52"/>
       <c r="B61" s="3" t="s">
         <v>181</v>
@@ -32360,7 +32352,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" ht="27">
       <c r="A62" s="52"/>
       <c r="B62" s="3" t="s">
         <v>181</v>
@@ -32381,7 +32373,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" ht="27">
       <c r="A63" s="52"/>
       <c r="B63" s="3" t="s">
         <v>181</v>
@@ -32402,7 +32394,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" ht="27">
       <c r="A64" s="52"/>
       <c r="B64" s="3" t="s">
         <v>181</v>
@@ -32423,7 +32415,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7" ht="27">
       <c r="A65" s="52"/>
       <c r="B65" s="3" t="s">
         <v>181</v>
@@ -32444,7 +32436,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7" ht="27">
       <c r="A66" s="52"/>
       <c r="B66" s="3" t="s">
         <v>181</v>
@@ -32465,7 +32457,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7" ht="27">
       <c r="A67" s="52"/>
       <c r="B67" s="3" t="s">
         <v>181</v>
@@ -32486,7 +32478,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7" ht="27">
       <c r="A68" s="52"/>
       <c r="B68" s="3" t="s">
         <v>181</v>
@@ -32507,7 +32499,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7" ht="27">
       <c r="A69" s="52"/>
       <c r="B69" s="3" t="s">
         <v>181</v>
@@ -32528,7 +32520,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7" ht="27">
       <c r="A70" s="52"/>
       <c r="B70" s="3" t="s">
         <v>181</v>
@@ -32549,7 +32541,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" ht="27">
       <c r="A71" s="52"/>
       <c r="B71" s="3" t="s">
         <v>181</v>
@@ -32570,7 +32562,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7">
       <c r="A72" s="52"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -32579,7 +32571,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="21"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7">
       <c r="A73" s="52"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -32588,7 +32580,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="21"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
         <v>167</v>
@@ -32609,7 +32601,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:7" ht="27">
       <c r="A78" s="52" t="s">
         <v>165</v>
       </c>
@@ -32632,7 +32624,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7" ht="27">
       <c r="A79" s="52"/>
       <c r="B79" s="3" t="s">
         <v>172</v>
@@ -32653,7 +32645,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:7" ht="27">
       <c r="A80" s="52"/>
       <c r="B80" s="3" t="s">
         <v>172</v>
@@ -32674,7 +32666,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:7" ht="27">
       <c r="A81" s="52"/>
       <c r="B81" s="3" t="s">
         <v>172</v>
@@ -32695,7 +32687,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:7" ht="27">
       <c r="A82" s="52"/>
       <c r="B82" s="3" t="s">
         <v>172</v>
@@ -32716,7 +32708,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:7" ht="27">
       <c r="A83" s="52"/>
       <c r="B83" s="3" t="s">
         <v>172</v>
@@ -32737,7 +32729,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:7" ht="27">
       <c r="A84" s="52"/>
       <c r="B84" s="3" t="s">
         <v>172</v>
@@ -32758,7 +32750,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:7" ht="27">
       <c r="A85" s="52"/>
       <c r="B85" s="3" t="s">
         <v>172</v>
@@ -32779,7 +32771,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:7" ht="27">
       <c r="A86" s="52"/>
       <c r="B86" s="3" t="s">
         <v>172</v>
@@ -32800,7 +32792,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:7" ht="27">
       <c r="A87" s="52"/>
       <c r="B87" s="3" t="s">
         <v>172</v>
@@ -32821,7 +32813,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:7" ht="27">
       <c r="A88" s="52"/>
       <c r="B88" s="3" t="s">
         <v>172</v>
@@ -32842,7 +32834,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:7" ht="27">
       <c r="A89" s="52"/>
       <c r="B89" s="3" t="s">
         <v>172</v>
@@ -32863,7 +32855,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:7" ht="27">
       <c r="A90" s="52"/>
       <c r="B90" s="3" t="s">
         <v>172</v>
@@ -32884,7 +32876,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:7" ht="27">
       <c r="A91" s="52"/>
       <c r="B91" s="3" t="s">
         <v>172</v>
@@ -32905,7 +32897,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:7" ht="27">
       <c r="A92" s="52"/>
       <c r="B92" s="3" t="s">
         <v>172</v>
@@ -32926,7 +32918,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:7" ht="27">
       <c r="A93" s="52"/>
       <c r="B93" s="3" t="s">
         <v>172</v>
@@ -32947,7 +32939,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:7" ht="27">
       <c r="A94" s="52"/>
       <c r="B94" s="3" t="s">
         <v>172</v>
@@ -32968,7 +32960,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:7" ht="27">
       <c r="A95" s="52"/>
       <c r="B95" s="3" t="s">
         <v>172</v>
@@ -32989,7 +32981,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:7" ht="27">
       <c r="A96" s="52"/>
       <c r="B96" s="3" t="s">
         <v>172</v>
@@ -33010,7 +33002,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:7" ht="27">
       <c r="A97" s="52"/>
       <c r="B97" s="3" t="s">
         <v>172</v>
@@ -33031,7 +33023,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:7" ht="27">
       <c r="A98" s="52"/>
       <c r="B98" s="3" t="s">
         <v>172</v>
@@ -33052,7 +33044,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:7" ht="27">
       <c r="A99" s="52"/>
       <c r="B99" s="3" t="s">
         <v>172</v>
@@ -33073,7 +33065,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:7" ht="27">
       <c r="A100" s="52"/>
       <c r="B100" s="3" t="s">
         <v>172</v>
@@ -33094,7 +33086,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:7" ht="27">
       <c r="A101" s="52"/>
       <c r="B101" s="3" t="s">
         <v>172</v>
@@ -33115,7 +33107,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:7" ht="27">
       <c r="A102" s="52"/>
       <c r="B102" s="3" t="s">
         <v>172</v>
@@ -33136,7 +33128,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:7" ht="27">
       <c r="A103" s="52"/>
       <c r="B103" s="3" t="s">
         <v>172</v>
@@ -33157,7 +33149,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:7">
       <c r="A104" s="52"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -33166,7 +33158,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="21"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:7">
       <c r="A105" s="52"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -33175,7 +33167,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="21"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:7">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
         <v>167</v>
@@ -33196,7 +33188,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:7" ht="27">
       <c r="A110" s="52" t="s">
         <v>104</v>
       </c>
@@ -33219,7 +33211,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:7" ht="27">
       <c r="A111" s="52"/>
       <c r="B111" s="21" t="s">
         <v>189</v>
@@ -33240,7 +33232,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:7" ht="27">
       <c r="A112" s="52"/>
       <c r="B112" s="21" t="s">
         <v>187</v>
@@ -33261,7 +33253,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:7">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
         <v>167</v>
@@ -33282,7 +33274,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:7" ht="27">
       <c r="A116" s="52" t="s">
         <v>166</v>
       </c>
@@ -33305,7 +33297,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:7" ht="27">
       <c r="A117" s="52"/>
       <c r="B117" s="21" t="s">
         <v>206</v>
@@ -33326,7 +33318,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:7" ht="27">
       <c r="A118" s="52"/>
       <c r="B118" s="21" t="s">
         <v>206</v>
@@ -33347,7 +33339,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:7" ht="27">
       <c r="A119" s="52"/>
       <c r="B119" s="21" t="s">
         <v>206</v>
@@ -33368,7 +33360,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:7" ht="27">
       <c r="A120" s="52"/>
       <c r="B120" s="21" t="s">
         <v>206</v>
@@ -33389,7 +33381,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:7" ht="27">
       <c r="A121" s="52"/>
       <c r="B121" s="21" t="s">
         <v>206</v>
@@ -33410,7 +33402,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:7" ht="27">
       <c r="A122" s="52"/>
       <c r="B122" s="21" t="s">
         <v>206</v>
@@ -33431,7 +33423,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:7" ht="27">
       <c r="A123" s="52"/>
       <c r="B123" s="21" t="s">
         <v>206</v>
@@ -33452,7 +33444,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:7" ht="27">
       <c r="A124" s="52"/>
       <c r="B124" s="21" t="s">
         <v>206</v>
@@ -33473,7 +33465,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:7" ht="27">
       <c r="A125" s="52"/>
       <c r="B125" s="21" t="s">
         <v>206</v>
@@ -33494,7 +33486,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:7" ht="27">
       <c r="A126" s="52"/>
       <c r="B126" s="21" t="s">
         <v>206</v>
@@ -33515,7 +33507,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:7" ht="27">
       <c r="A127" s="52"/>
       <c r="B127" s="21" t="s">
         <v>206</v>
@@ -33536,7 +33528,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:7" ht="27">
       <c r="A128" s="52"/>
       <c r="B128" s="21" t="s">
         <v>206</v>
@@ -33557,7 +33549,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:7" ht="12.75" customHeight="1">
       <c r="A129" s="52"/>
       <c r="B129" s="21" t="s">
         <v>206</v>
@@ -33578,7 +33570,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:7" ht="27">
       <c r="A130" s="52"/>
       <c r="B130" s="21" t="s">
         <v>206</v>
@@ -33599,7 +33591,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:7" ht="27">
       <c r="A131" s="52"/>
       <c r="B131" s="21" t="s">
         <v>206</v>
@@ -33620,7 +33612,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:7" ht="27">
       <c r="A132" s="52"/>
       <c r="B132" s="21" t="s">
         <v>206</v>
@@ -33641,7 +33633,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:7" ht="27">
       <c r="A133" s="52"/>
       <c r="B133" s="21" t="s">
         <v>206</v>
@@ -33662,7 +33654,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:7" ht="27">
       <c r="A134" s="52"/>
       <c r="B134" s="21" t="s">
         <v>206</v>
@@ -33683,7 +33675,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:7" ht="27">
       <c r="A135" s="52"/>
       <c r="B135" s="21" t="s">
         <v>206</v>
@@ -33704,7 +33696,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:7" ht="27">
       <c r="A136" s="52"/>
       <c r="B136" s="21" t="s">
         <v>206</v>
@@ -33725,7 +33717,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:7" ht="27">
       <c r="A137" s="52"/>
       <c r="B137" s="21" t="s">
         <v>206</v>
@@ -33746,7 +33738,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:7" ht="27">
       <c r="A138" s="52"/>
       <c r="B138" s="21" t="s">
         <v>206</v>
@@ -33767,7 +33759,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:7" ht="27">
       <c r="A139" s="52"/>
       <c r="B139" s="21" t="s">
         <v>206</v>
@@ -33788,7 +33780,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:7" ht="27">
       <c r="A140" s="52"/>
       <c r="B140" s="21" t="s">
         <v>206</v>
@@ -33809,7 +33801,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:7" ht="27">
       <c r="A141" s="52"/>
       <c r="B141" s="21" t="s">
         <v>206</v>
@@ -33830,7 +33822,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:7" ht="27">
       <c r="A142" s="52"/>
       <c r="B142" s="21" t="s">
         <v>206</v>

--- a/Sonia_IndiaLab_English_20200710.xlsx
+++ b/Sonia_IndiaLab_English_20200710.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF309662-613A-4A7E-B387-EBBE09EDF7C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アプリ配置 (必須)" sheetId="3" r:id="rId1"/>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3251" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3256" uniqueCount="562">
   <si>
     <t>ビックカメラ</t>
     <phoneticPr fontId="1"/>
@@ -2458,8 +2464,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2921,25 +2927,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -3059,7 +3065,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3091,9 +3097,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3125,6 +3149,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3300,7 +3342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3314,15 +3356,15 @@
       <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -3334,7 +3376,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
@@ -3348,7 +3390,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="52"/>
       <c r="B3" s="52" t="s">
         <v>14</v>
@@ -3360,7 +3402,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="52"/>
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
@@ -3368,7 +3410,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="52"/>
       <c r="B5" s="52" t="s">
         <v>9</v>
@@ -3380,7 +3422,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="52"/>
       <c r="B6" s="52"/>
       <c r="C6" s="52"/>
@@ -3388,7 +3430,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="52"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -3400,7 +3442,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="52"/>
       <c r="B8" s="3" t="s">
         <v>118</v>
@@ -3412,7 +3454,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="52"/>
       <c r="B9" s="3" t="s">
         <v>119</v>
@@ -3424,7 +3466,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="52"/>
       <c r="B10" s="3" t="s">
         <v>120</v>
@@ -3436,7 +3478,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="52"/>
       <c r="B11" s="3" t="s">
         <v>121</v>
@@ -3448,7 +3490,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="52"/>
       <c r="B12" s="1" t="s">
         <v>122</v>
@@ -3460,7 +3502,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
         <v>1</v>
       </c>
@@ -3474,7 +3516,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="52"/>
       <c r="B14" s="1" t="s">
         <v>47</v>
@@ -3486,7 +3528,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="52"/>
       <c r="B15" s="1" t="s">
         <v>51</v>
@@ -3498,7 +3540,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="52"/>
       <c r="B16" s="1" t="s">
         <v>53</v>
@@ -3510,7 +3552,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="52"/>
       <c r="B17" s="1" t="s">
         <v>66</v>
@@ -3522,7 +3564,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="52"/>
       <c r="B18" s="1" t="s">
         <v>16</v>
@@ -3534,7 +3576,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="52"/>
       <c r="B19" s="1" t="s">
         <v>62</v>
@@ -3546,7 +3588,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="52"/>
       <c r="B20" s="1" t="s">
         <v>18</v>
@@ -3558,7 +3600,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="52"/>
       <c r="B21" s="3" t="s">
         <v>55</v>
@@ -3570,7 +3612,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="52"/>
       <c r="B22" s="1" t="s">
         <v>57</v>
@@ -3582,7 +3624,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="52"/>
       <c r="B23" s="1" t="s">
         <v>59</v>
@@ -3594,7 +3636,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="52"/>
       <c r="B24" s="1" t="s">
         <v>70</v>
@@ -3606,7 +3648,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="52"/>
       <c r="B25" s="1" t="s">
         <v>43</v>
@@ -3618,7 +3660,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="52"/>
       <c r="B26" s="1" t="s">
         <v>84</v>
@@ -3630,7 +3672,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="52"/>
       <c r="B27" s="1" t="s">
         <v>80</v>
@@ -3642,7 +3684,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="52"/>
       <c r="B28" s="1" t="s">
         <v>82</v>
@@ -3654,7 +3696,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="52"/>
       <c r="B29" s="1" t="s">
         <v>88</v>
@@ -3666,7 +3708,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="52"/>
       <c r="B30" s="1" t="s">
         <v>72</v>
@@ -3678,7 +3720,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="52"/>
       <c r="B31" s="1" t="s">
         <v>74</v>
@@ -3690,7 +3732,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="52"/>
       <c r="B32" s="1" t="s">
         <v>76</v>
@@ -3702,7 +3744,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="52"/>
       <c r="B33" s="1" t="s">
         <v>78</v>
@@ -3714,7 +3756,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="52"/>
       <c r="B34" s="1" t="s">
         <v>69</v>
@@ -3726,7 +3768,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="52"/>
       <c r="B35" s="3" t="s">
         <v>86</v>
@@ -3738,7 +3780,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="52"/>
       <c r="B36" s="3" t="s">
         <v>44</v>
@@ -3750,7 +3792,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="52"/>
       <c r="B37" s="3" t="s">
         <v>44</v>
@@ -3762,7 +3804,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="52"/>
       <c r="B38" s="3" t="s">
         <v>44</v>
@@ -3774,7 +3816,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="52"/>
       <c r="B39" s="3" t="s">
         <v>44</v>
@@ -3786,7 +3828,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="52"/>
       <c r="B40" s="3" t="s">
         <v>44</v>
@@ -3798,7 +3840,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="52"/>
       <c r="B41" s="3" t="s">
         <v>140</v>
@@ -3810,7 +3852,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="52"/>
       <c r="B42" s="3" t="s">
         <v>108</v>
@@ -3822,7 +3864,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="52"/>
       <c r="B43" s="3" t="s">
         <v>112</v>
@@ -3834,7 +3876,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="52"/>
       <c r="B44" s="3" t="s">
         <v>114</v>
@@ -3846,7 +3888,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="52"/>
       <c r="B45" s="3" t="s">
         <v>122</v>
@@ -3858,7 +3900,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="52"/>
       <c r="B46" s="3" t="s">
         <v>123</v>
@@ -3870,7 +3912,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="52"/>
       <c r="B47" s="3" t="s">
         <v>138</v>
@@ -3882,7 +3924,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="52"/>
       <c r="B48" s="3" t="s">
         <v>138</v>
@@ -3894,7 +3936,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="52" t="s">
         <v>2</v>
       </c>
@@ -3908,7 +3950,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="52"/>
       <c r="B50" s="3" t="s">
         <v>8</v>
@@ -3920,7 +3962,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="52"/>
       <c r="B51" s="3" t="s">
         <v>18</v>
@@ -3932,7 +3974,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="52"/>
       <c r="B52" s="3" t="s">
         <v>72</v>
@@ -3944,7 +3986,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="52"/>
       <c r="B53" s="3" t="s">
         <v>74</v>
@@ -3956,7 +3998,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="52"/>
       <c r="B54" s="3" t="s">
         <v>78</v>
@@ -3968,7 +4010,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="52"/>
       <c r="B55" s="3" t="s">
         <v>82</v>
@@ -3980,7 +4022,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="52"/>
       <c r="B56" s="3" t="s">
         <v>86</v>
@@ -3992,7 +4034,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="52"/>
       <c r="B57" s="3" t="s">
         <v>111</v>
@@ -4004,7 +4046,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="52"/>
       <c r="B58" s="3" t="s">
         <v>55</v>
@@ -4016,7 +4058,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="52"/>
       <c r="B59" s="3" t="s">
         <v>129</v>
@@ -4028,7 +4070,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="52"/>
       <c r="B60" s="3" t="s">
         <v>122</v>
@@ -4040,7 +4082,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="52" t="s">
         <v>35</v>
       </c>
@@ -4054,7 +4096,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="52"/>
       <c r="B62" s="3" t="s">
         <v>107</v>
@@ -4066,7 +4108,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="52"/>
       <c r="B63" s="3" t="s">
         <v>122</v>
@@ -4078,7 +4120,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="52" t="s">
         <v>36</v>
       </c>
@@ -4092,7 +4134,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="52"/>
       <c r="B65" s="3" t="s">
         <v>26</v>
@@ -4104,7 +4146,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="52"/>
       <c r="B66" s="3" t="s">
         <v>122</v>
@@ -4116,7 +4158,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="52" t="s">
         <v>3</v>
       </c>
@@ -4130,27 +4172,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="52"/>
-      <c r="B68" s="55" t="s">
+      <c r="B68" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="55" t="s">
+      <c r="C68" s="53" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="52"/>
-      <c r="B69" s="55"/>
-      <c r="C69" s="55"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
       <c r="D69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="52"/>
       <c r="B70" s="3" t="s">
         <v>31</v>
@@ -4162,27 +4204,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="52"/>
-      <c r="B71" s="55" t="s">
+      <c r="B71" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="55" t="s">
+      <c r="C71" s="53" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="52"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="55"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
       <c r="D72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="52"/>
       <c r="B73" s="3" t="s">
         <v>26</v>
@@ -4194,7 +4236,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="52"/>
       <c r="B74" s="3" t="s">
         <v>122</v>
@@ -4206,7 +4248,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="52" t="s">
         <v>127</v>
       </c>
@@ -4220,47 +4262,47 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="52"/>
-      <c r="B76" s="55" t="s">
+      <c r="B76" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C76" s="55" t="s">
+      <c r="C76" s="53" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="52"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="55"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="53"/>
       <c r="D77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="52"/>
-      <c r="B78" s="55" t="s">
+      <c r="B78" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="55" t="s">
+      <c r="C78" s="53" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="52"/>
-      <c r="B79" s="55"/>
-      <c r="C79" s="55"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="53"/>
       <c r="D79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="52"/>
       <c r="B80" s="3" t="s">
         <v>26</v>
@@ -4272,7 +4314,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="52"/>
       <c r="B81" s="3" t="s">
         <v>122</v>
@@ -4284,7 +4326,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="52" t="s">
         <v>4</v>
       </c>
@@ -4298,27 +4340,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="52"/>
-      <c r="B83" s="53" t="s">
+      <c r="B83" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="53" t="s">
+      <c r="C83" s="54" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="52"/>
-      <c r="B84" s="54"/>
-      <c r="C84" s="54"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="55"/>
       <c r="D84" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="52"/>
       <c r="B85" s="3" t="s">
         <v>20</v>
@@ -4330,7 +4372,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="52"/>
       <c r="B86" s="3" t="s">
         <v>122</v>
@@ -4342,19 +4384,21 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C88" s="14" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="B76:B77"/>
     <mergeCell ref="C68:C69"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="C71:C72"/>
@@ -4363,14 +4407,12 @@
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="A67:A74"/>
     <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="A75:A81"/>
-    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
@@ -4383,22 +4425,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.375" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="24.375" customWidth="1"/>
-    <col min="4" max="5" width="23.875" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="5" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>297</v>
       </c>
@@ -4415,7 +4457,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>166</v>
       </c>
@@ -4432,7 +4474,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="52"/>
       <c r="B3" s="21" t="s">
         <v>205</v>
@@ -4447,7 +4489,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="52"/>
       <c r="B4" s="21" t="s">
         <v>205</v>
@@ -4462,7 +4504,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="52"/>
       <c r="B5" s="21" t="s">
         <v>205</v>
@@ -4477,7 +4519,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="52"/>
       <c r="B6" s="21" t="s">
         <v>205</v>
@@ -4492,7 +4534,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="52"/>
       <c r="B7" s="21" t="s">
         <v>205</v>
@@ -4507,7 +4549,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="52"/>
       <c r="B8" s="21" t="s">
         <v>205</v>
@@ -4522,7 +4564,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="52"/>
       <c r="B9" s="21" t="s">
         <v>205</v>
@@ -4537,7 +4579,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="52"/>
       <c r="B10" s="21" t="s">
         <v>205</v>
@@ -4552,7 +4594,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="52"/>
       <c r="B11" s="21" t="s">
         <v>205</v>
@@ -4567,7 +4609,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="52"/>
       <c r="B12" s="21" t="s">
         <v>205</v>
@@ -4582,7 +4624,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="52"/>
       <c r="B13" s="21" t="s">
         <v>205</v>
@@ -4597,7 +4639,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="52"/>
       <c r="B14" s="21" t="s">
         <v>205</v>
@@ -4612,7 +4654,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="52"/>
       <c r="B15" s="21" t="s">
         <v>205</v>
@@ -4627,7 +4669,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="52"/>
       <c r="B16" s="21" t="s">
         <v>205</v>
@@ -4642,7 +4684,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="52"/>
       <c r="B17" s="21" t="s">
         <v>205</v>
@@ -4657,7 +4699,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="52"/>
       <c r="B18" s="21" t="s">
         <v>205</v>
@@ -4672,7 +4714,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="52"/>
       <c r="B19" s="21" t="s">
         <v>205</v>
@@ -4687,7 +4729,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="76" t="s">
         <v>166</v>
       </c>
@@ -4702,7 +4744,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="77"/>
       <c r="B21" s="21" t="s">
         <v>196</v>
@@ -4715,7 +4757,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="77"/>
       <c r="B22" s="21" t="s">
         <v>197</v>
@@ -4728,7 +4770,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="77"/>
       <c r="B23" s="21" t="s">
         <v>197</v>
@@ -4741,7 +4783,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="77"/>
       <c r="B24" s="21" t="s">
         <v>201</v>
@@ -4754,7 +4796,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="77"/>
       <c r="B25" s="21" t="s">
         <v>201</v>
@@ -4767,7 +4809,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="77"/>
       <c r="B26" s="21" t="s">
         <v>202</v>
@@ -4780,7 +4822,7 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="77"/>
       <c r="B27" s="21" t="s">
         <v>202</v>
@@ -4793,7 +4835,7 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="77"/>
       <c r="B28" s="21" t="s">
         <v>204</v>
@@ -4806,7 +4848,7 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="78"/>
       <c r="B29" s="21" t="s">
         <v>204</v>
@@ -4819,35 +4861,35 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -4855,7 +4897,7 @@
       <c r="E34" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E19"/>
+  <autoFilter ref="A1:E19" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A2:A19"/>
     <mergeCell ref="A20:A29"/>
@@ -4865,7 +4907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4879,16 +4921,16 @@
       <selection pane="bottomRight" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
-    <col min="5" max="5" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -4901,7 +4943,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>165</v>
       </c>
@@ -4916,9 +4958,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="52"/>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="56" t="s">
         <v>171</v>
       </c>
       <c r="C3" s="52" t="s">
@@ -4929,18 +4971,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="52"/>
-      <c r="B4" s="59"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="52"/>
       <c r="D4" s="10"/>
       <c r="E4" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="52"/>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="56" t="s">
         <v>172</v>
       </c>
       <c r="C5" s="52" t="s">
@@ -4951,16 +4993,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="52"/>
-      <c r="B6" s="59"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="52"/>
       <c r="D6" s="10"/>
       <c r="E6" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="52"/>
       <c r="B7" s="1" t="s">
         <v>177</v>
@@ -4973,7 +5015,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="52"/>
       <c r="B8" s="3" t="s">
         <v>173</v>
@@ -4988,7 +5030,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="52"/>
       <c r="B9" s="3" t="s">
         <v>178</v>
@@ -5003,7 +5045,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="52"/>
       <c r="B10" s="3" t="s">
         <v>179</v>
@@ -5016,7 +5058,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="52"/>
       <c r="B11" s="3" t="s">
         <v>180</v>
@@ -5029,7 +5071,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="52"/>
       <c r="B12" s="1" t="s">
         <v>174</v>
@@ -5042,7 +5084,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
         <v>166</v>
       </c>
@@ -5057,7 +5099,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="52"/>
       <c r="B14" s="1" t="s">
         <v>183</v>
@@ -5070,7 +5112,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="52"/>
       <c r="B15" s="1" t="s">
         <v>184</v>
@@ -5083,7 +5125,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="52"/>
       <c r="B16" s="1" t="s">
         <v>185</v>
@@ -5096,7 +5138,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="52"/>
       <c r="B17" s="1" t="s">
         <v>186</v>
@@ -5109,7 +5151,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="52"/>
       <c r="B18" s="1" t="s">
         <v>187</v>
@@ -5122,7 +5164,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="52"/>
       <c r="B19" s="1" t="s">
         <v>188</v>
@@ -5135,7 +5177,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="52"/>
       <c r="B20" s="1" t="s">
         <v>189</v>
@@ -5148,7 +5190,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="52"/>
       <c r="B21" s="3" t="s">
         <v>190</v>
@@ -5161,7 +5203,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="52"/>
       <c r="B22" s="1" t="s">
         <v>191</v>
@@ -5174,7 +5216,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="52"/>
       <c r="B23" s="1" t="s">
         <v>192</v>
@@ -5187,7 +5229,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="52"/>
       <c r="B24" s="1" t="s">
         <v>193</v>
@@ -5200,7 +5242,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="52"/>
       <c r="B25" s="1" t="s">
         <v>194</v>
@@ -5213,7 +5255,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="52"/>
       <c r="B26" s="1" t="s">
         <v>195</v>
@@ -5226,7 +5268,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="52"/>
       <c r="B27" s="1" t="s">
         <v>196</v>
@@ -5239,7 +5281,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="52"/>
       <c r="B28" s="1" t="s">
         <v>197</v>
@@ -5252,7 +5294,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="52"/>
       <c r="B29" s="1" t="s">
         <v>198</v>
@@ -5265,7 +5307,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="52"/>
       <c r="B30" s="1" t="s">
         <v>199</v>
@@ -5278,7 +5320,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="52"/>
       <c r="B31" s="1" t="s">
         <v>200</v>
@@ -5291,7 +5333,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="52"/>
       <c r="B32" s="1" t="s">
         <v>201</v>
@@ -5304,7 +5346,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="52"/>
       <c r="B33" s="1" t="s">
         <v>202</v>
@@ -5317,7 +5359,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="52"/>
       <c r="B34" s="1" t="s">
         <v>203</v>
@@ -5330,7 +5372,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="52"/>
       <c r="B35" s="3" t="s">
         <v>204</v>
@@ -5343,7 +5385,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="52"/>
       <c r="B36" s="3" t="s">
         <v>205</v>
@@ -5356,7 +5398,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="52"/>
       <c r="B37" s="3" t="s">
         <v>205</v>
@@ -5369,7 +5411,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="52"/>
       <c r="B38" s="3" t="s">
         <v>205</v>
@@ -5382,7 +5424,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="52"/>
       <c r="B39" s="3" t="s">
         <v>205</v>
@@ -5395,7 +5437,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="52"/>
       <c r="B40" s="3" t="s">
         <v>205</v>
@@ -5408,7 +5450,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="52"/>
       <c r="B41" s="3" t="s">
         <v>206</v>
@@ -5421,7 +5463,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="52"/>
       <c r="B42" s="3" t="s">
         <v>207</v>
@@ -5436,7 +5478,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="52"/>
       <c r="B43" s="3" t="s">
         <v>225</v>
@@ -5451,7 +5493,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="52"/>
       <c r="B44" s="3" t="s">
         <v>226</v>
@@ -5466,7 +5508,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="52"/>
       <c r="B45" s="3" t="s">
         <v>174</v>
@@ -5479,7 +5521,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="52"/>
       <c r="B46" s="3" t="s">
         <v>208</v>
@@ -5492,7 +5534,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="52"/>
       <c r="B47" s="3" t="s">
         <v>209</v>
@@ -5505,7 +5547,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="52"/>
       <c r="B48" s="3" t="s">
         <v>209</v>
@@ -5518,7 +5560,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="52" t="s">
         <v>175</v>
       </c>
@@ -5533,7 +5575,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="52"/>
       <c r="B50" s="3" t="s">
         <v>211</v>
@@ -5546,7 +5588,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="52"/>
       <c r="B51" s="3" t="s">
         <v>189</v>
@@ -5559,7 +5601,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="52"/>
       <c r="B52" s="3" t="s">
         <v>199</v>
@@ -5572,7 +5614,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="52"/>
       <c r="B53" s="3" t="s">
         <v>212</v>
@@ -5585,7 +5627,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="52"/>
       <c r="B54" s="3" t="s">
         <v>202</v>
@@ -5598,7 +5640,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="52"/>
       <c r="B55" s="3" t="s">
         <v>197</v>
@@ -5611,7 +5653,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="52"/>
       <c r="B56" s="3" t="s">
         <v>204</v>
@@ -5624,7 +5666,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="52"/>
       <c r="B57" s="3" t="s">
         <v>213</v>
@@ -5639,7 +5681,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="52"/>
       <c r="B58" s="3" t="s">
         <v>190</v>
@@ -5652,7 +5694,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="52"/>
       <c r="B59" s="3" t="s">
         <v>214</v>
@@ -5667,7 +5709,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="52"/>
       <c r="B60" s="3" t="s">
         <v>174</v>
@@ -5680,7 +5722,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="52" t="s">
         <v>176</v>
       </c>
@@ -5695,7 +5737,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="52"/>
       <c r="B62" s="3" t="s">
         <v>216</v>
@@ -5708,7 +5750,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="52"/>
       <c r="B63" s="3" t="s">
         <v>174</v>
@@ -5721,7 +5763,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="52" t="s">
         <v>168</v>
       </c>
@@ -5736,7 +5778,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="52"/>
       <c r="B65" s="3" t="s">
         <v>215</v>
@@ -5749,7 +5791,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="52"/>
       <c r="B66" s="3" t="s">
         <v>174</v>
@@ -5762,7 +5804,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="52" t="s">
         <v>169</v>
       </c>
@@ -5777,12 +5819,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="52"/>
-      <c r="B68" s="56" t="s">
+      <c r="B68" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="C68" s="55" t="s">
+      <c r="C68" s="53" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="13"/>
@@ -5790,16 +5832,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="52"/>
-      <c r="B69" s="57"/>
-      <c r="C69" s="55"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="53"/>
       <c r="D69" s="13"/>
       <c r="E69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="52"/>
       <c r="B70" s="3" t="s">
         <v>220</v>
@@ -5812,12 +5854,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="52"/>
-      <c r="B71" s="55" t="s">
+      <c r="B71" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="55" t="s">
+      <c r="C71" s="53" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="13"/>
@@ -5825,16 +5867,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="52"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="55"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
       <c r="D72" s="13"/>
       <c r="E72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="52"/>
       <c r="B73" s="3" t="s">
         <v>215</v>
@@ -5847,7 +5889,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="52"/>
       <c r="B74" s="3" t="s">
         <v>174</v>
@@ -5860,7 +5902,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="52" t="s">
         <v>106</v>
       </c>
@@ -5875,12 +5917,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="52"/>
-      <c r="B76" s="56" t="s">
+      <c r="B76" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="C76" s="55" t="s">
+      <c r="C76" s="53" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="13"/>
@@ -5888,21 +5930,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="52"/>
-      <c r="B77" s="57"/>
-      <c r="C77" s="55"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="53"/>
       <c r="D77" s="13"/>
       <c r="E77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="52"/>
-      <c r="B78" s="55" t="s">
+      <c r="B78" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="C78" s="55" t="s">
+      <c r="C78" s="53" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="13"/>
@@ -5910,16 +5952,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="52"/>
-      <c r="B79" s="55"/>
-      <c r="C79" s="55"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="53"/>
       <c r="D79" s="13"/>
       <c r="E79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="52"/>
       <c r="B80" s="3" t="s">
         <v>215</v>
@@ -5932,7 +5974,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="52"/>
       <c r="B81" s="3" t="s">
         <v>174</v>
@@ -5945,7 +5987,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="52" t="s">
         <v>104</v>
       </c>
@@ -5960,12 +6002,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="52"/>
-      <c r="B83" s="53" t="s">
+      <c r="B83" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="C83" s="53" t="s">
+      <c r="C83" s="54" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="11"/>
@@ -5973,16 +6015,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="52"/>
-      <c r="B84" s="54"/>
-      <c r="C84" s="54"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="55"/>
       <c r="D84" s="12"/>
       <c r="E84" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="52"/>
       <c r="B85" s="3" t="s">
         <v>218</v>
@@ -5995,7 +6037,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="52"/>
       <c r="B86" s="3" t="s">
         <v>174</v>
@@ -6008,35 +6050,29 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C88" s="14" t="s">
         <v>170</v>
       </c>
       <c r="D88" s="14"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="20" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>278</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
@@ -6053,6 +6089,12 @@
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
@@ -6064,27 +6106,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>145</v>
@@ -6093,7 +6135,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="60" t="s">
         <v>147</v>
       </c>
@@ -6104,7 +6146,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="60"/>
       <c r="B5" s="7" t="s">
         <v>149</v>
@@ -6113,7 +6155,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="60"/>
       <c r="B6" s="7" t="s">
         <v>150</v>
@@ -6122,7 +6164,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="78.75">
+    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A7" s="60"/>
       <c r="B7" s="7" t="s">
         <v>151</v>
@@ -6131,7 +6173,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>153</v>
       </c>
@@ -6140,7 +6182,7 @@
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>155</v>
       </c>
@@ -6151,7 +6193,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>157</v>
       </c>
@@ -6162,7 +6204,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>159</v>
       </c>
@@ -6184,27 +6226,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:VMV142"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.6640625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="23" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="50.625" customWidth="1"/>
-    <col min="8" max="8" width="50.625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="50.625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="50.6640625" customWidth="1"/>
+    <col min="8" max="8" width="50.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="50.6640625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15232">
+    <row r="1" spans="1:15232" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -6229,7 +6271,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:15232" ht="27">
+    <row r="2" spans="1:15232" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>165</v>
       </c>
@@ -6252,7 +6294,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:15232" ht="54">
+    <row r="3" spans="1:15232" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A3" s="52"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
@@ -6273,7 +6315,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:15232">
+    <row r="4" spans="1:15232" x14ac:dyDescent="0.2">
       <c r="A4" s="52"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -6286,7 +6328,7 @@
       <c r="H4" s="21"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:15232">
+    <row r="5" spans="1:15232" x14ac:dyDescent="0.2">
       <c r="A5" s="52"/>
       <c r="B5" s="21" t="s">
         <v>172</v>
@@ -6307,7 +6349,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:15232">
+    <row r="6" spans="1:15232" x14ac:dyDescent="0.2">
       <c r="A6" s="52"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -6320,7 +6362,7 @@
       <c r="H6" s="21"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:15232">
+    <row r="7" spans="1:15232" x14ac:dyDescent="0.2">
       <c r="A7" s="52"/>
       <c r="B7" s="21" t="s">
         <v>177</v>
@@ -6339,7 +6381,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:15232" ht="27">
+    <row r="8" spans="1:15232" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A8" s="52"/>
       <c r="B8" s="21" t="s">
         <v>173</v>
@@ -6358,7 +6400,7 @@
       <c r="H8" s="21"/>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="1:15232">
+    <row r="9" spans="1:15232" x14ac:dyDescent="0.2">
       <c r="A9" s="52"/>
       <c r="B9" s="21" t="s">
         <v>178</v>
@@ -6377,7 +6419,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:15232">
+    <row r="10" spans="1:15232" x14ac:dyDescent="0.2">
       <c r="A10" s="52"/>
       <c r="B10" s="21" t="s">
         <v>179</v>
@@ -6394,7 +6436,7 @@
       <c r="H10" s="21"/>
       <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="1:15232">
+    <row r="11" spans="1:15232" x14ac:dyDescent="0.2">
       <c r="A11" s="52"/>
       <c r="B11" s="21" t="s">
         <v>180</v>
@@ -6411,7 +6453,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="1:15232">
+    <row r="12" spans="1:15232" x14ac:dyDescent="0.2">
       <c r="A12" s="52"/>
       <c r="B12" s="21" t="s">
         <v>174</v>
@@ -6428,7 +6470,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="27"/>
     </row>
-    <row r="13" spans="1:15232">
+    <row r="13" spans="1:15232" x14ac:dyDescent="0.2">
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -6438,7 +6480,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="1:15232">
+    <row r="14" spans="1:15232" x14ac:dyDescent="0.2">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -6448,7 +6490,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:15232" s="15" customFormat="1">
+    <row r="15" spans="1:15232" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="52" t="s">
         <v>166</v>
       </c>
@@ -21692,7 +21734,7 @@
       <c r="VMU15" s="18"/>
       <c r="VMV15" s="18"/>
     </row>
-    <row r="16" spans="1:15232">
+    <row r="16" spans="1:15232" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A16" s="52"/>
       <c r="B16" s="21" t="s">
         <v>183</v>
@@ -21713,7 +21755,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27">
+    <row r="17" spans="1:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A17" s="52"/>
       <c r="B17" s="21" t="s">
         <v>184</v>
@@ -21734,7 +21776,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A18" s="52"/>
       <c r="B18" s="21" t="s">
         <v>185</v>
@@ -21755,7 +21797,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1">
+    <row r="19" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52"/>
       <c r="B19" s="21" t="s">
         <v>186</v>
@@ -21774,7 +21816,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="28"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1">
+    <row r="20" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52"/>
       <c r="B20" s="21" t="s">
         <v>187</v>
@@ -21795,7 +21837,7 @@
       </c>
       <c r="I20" s="28"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A21" s="52"/>
       <c r="B21" s="21" t="s">
         <v>188</v>
@@ -21816,7 +21858,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A22" s="52"/>
       <c r="B22" s="21" t="s">
         <v>189</v>
@@ -21837,7 +21879,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1">
+    <row r="23" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52"/>
       <c r="B23" s="21" t="s">
         <v>190</v>
@@ -21858,7 +21900,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="24" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A24" s="52"/>
       <c r="B24" s="21" t="s">
         <v>191</v>
@@ -21879,7 +21921,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="25" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A25" s="52"/>
       <c r="B25" s="21" t="s">
         <v>192</v>
@@ -21900,7 +21942,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="26" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A26" s="52"/>
       <c r="B26" s="21" t="s">
         <v>193</v>
@@ -21921,7 +21963,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="27" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A27" s="52"/>
       <c r="B27" s="21" t="s">
         <v>194</v>
@@ -21942,7 +21984,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="18" customFormat="1">
+    <row r="28" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52"/>
       <c r="B28" s="21" t="s">
         <v>195</v>
@@ -21961,7 +22003,7 @@
       <c r="H28" s="21"/>
       <c r="I28" s="28"/>
     </row>
-    <row r="29" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="29" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A29" s="52"/>
       <c r="B29" s="21" t="s">
         <v>196</v>
@@ -21982,7 +22024,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1">
+    <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52"/>
       <c r="B30" s="21" t="s">
         <v>197</v>
@@ -22003,7 +22045,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="31" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A31" s="52"/>
       <c r="B31" s="21" t="s">
         <v>198</v>
@@ -22024,7 +22066,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="32" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A32" s="52"/>
       <c r="B32" s="21" t="s">
         <v>199</v>
@@ -22045,7 +22087,7 @@
       </c>
       <c r="I32" s="28"/>
     </row>
-    <row r="33" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="33" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A33" s="52"/>
       <c r="B33" s="21" t="s">
         <v>200</v>
@@ -22066,7 +22108,7 @@
       </c>
       <c r="I33" s="28"/>
     </row>
-    <row r="34" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="34" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A34" s="52"/>
       <c r="B34" s="21" t="s">
         <v>201</v>
@@ -22087,7 +22129,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="35" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A35" s="52"/>
       <c r="B35" s="21" t="s">
         <v>202</v>
@@ -22108,7 +22150,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="36" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A36" s="52"/>
       <c r="B36" s="21" t="s">
         <v>203</v>
@@ -22129,7 +22171,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="37" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A37" s="52"/>
       <c r="B37" s="21" t="s">
         <v>204</v>
@@ -22150,7 +22192,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="38" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A38" s="52"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
@@ -22173,7 +22215,7 @@
       </c>
       <c r="I38" s="28"/>
     </row>
-    <row r="39" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="39" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A39" s="52"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
@@ -22196,7 +22238,7 @@
       </c>
       <c r="I39" s="28"/>
     </row>
-    <row r="40" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="40" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A40" s="52"/>
       <c r="B40" s="21" t="s">
         <v>205</v>
@@ -22219,7 +22261,7 @@
       </c>
       <c r="I40" s="28"/>
     </row>
-    <row r="41" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="41" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A41" s="52"/>
       <c r="B41" s="21" t="s">
         <v>205</v>
@@ -22242,7 +22284,7 @@
       </c>
       <c r="I41" s="28"/>
     </row>
-    <row r="42" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="42" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A42" s="52"/>
       <c r="B42" s="21" t="s">
         <v>205</v>
@@ -22265,7 +22307,7 @@
       </c>
       <c r="I42" s="28"/>
     </row>
-    <row r="43" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="43" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A43" s="52"/>
       <c r="B43" s="21" t="s">
         <v>206</v>
@@ -22286,7 +22328,7 @@
       </c>
       <c r="I43" s="28"/>
     </row>
-    <row r="44" spans="1:9" s="18" customFormat="1">
+    <row r="44" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="52"/>
       <c r="B44" s="21" t="s">
         <v>207</v>
@@ -22305,7 +22347,7 @@
       <c r="H44" s="21"/>
       <c r="I44" s="28"/>
     </row>
-    <row r="45" spans="1:9" s="18" customFormat="1">
+    <row r="45" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="52"/>
       <c r="B45" s="21" t="s">
         <v>225</v>
@@ -22324,7 +22366,7 @@
       <c r="H45" s="21"/>
       <c r="I45" s="28"/>
     </row>
-    <row r="46" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="46" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A46" s="52"/>
       <c r="B46" s="21" t="s">
         <v>226</v>
@@ -22343,7 +22385,7 @@
       <c r="H46" s="21"/>
       <c r="I46" s="28"/>
     </row>
-    <row r="47" spans="1:9" s="18" customFormat="1">
+    <row r="47" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="52"/>
       <c r="B47" s="21" t="s">
         <v>174</v>
@@ -22360,7 +22402,7 @@
       <c r="H47" s="21"/>
       <c r="I47" s="28"/>
     </row>
-    <row r="48" spans="1:9" s="18" customFormat="1">
+    <row r="48" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="52"/>
       <c r="B48" s="21" t="s">
         <v>208</v>
@@ -22377,7 +22419,7 @@
       <c r="H48" s="21"/>
       <c r="I48" s="28"/>
     </row>
-    <row r="49" spans="1:9" s="18" customFormat="1">
+    <row r="49" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="52"/>
       <c r="B49" s="21" t="s">
         <v>209</v>
@@ -22394,7 +22436,7 @@
       <c r="H49" s="21"/>
       <c r="I49" s="28"/>
     </row>
-    <row r="50" spans="1:9" s="18" customFormat="1">
+    <row r="50" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="52"/>
       <c r="B50" s="21" t="s">
         <v>209</v>
@@ -22411,7 +22453,7 @@
       <c r="H50" s="21"/>
       <c r="I50" s="28"/>
     </row>
-    <row r="51" spans="1:9" s="18" customFormat="1">
+    <row r="51" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -22422,7 +22464,7 @@
       <c r="H51" s="21"/>
       <c r="I51" s="28"/>
     </row>
-    <row r="52" spans="1:9" s="18" customFormat="1">
+    <row r="52" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -22433,7 +22475,7 @@
       <c r="H52" s="21"/>
       <c r="I52" s="28"/>
     </row>
-    <row r="53" spans="1:9" s="18" customFormat="1">
+    <row r="53" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="52" t="s">
         <v>175</v>
       </c>
@@ -22452,7 +22494,7 @@
       <c r="H53" s="21"/>
       <c r="I53" s="28"/>
     </row>
-    <row r="54" spans="1:9" s="18" customFormat="1">
+    <row r="54" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="52"/>
       <c r="B54" s="21" t="s">
         <v>211</v>
@@ -22469,7 +22511,7 @@
       <c r="H54" s="21"/>
       <c r="I54" s="28"/>
     </row>
-    <row r="55" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="55" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A55" s="52"/>
       <c r="B55" s="21" t="s">
         <v>189</v>
@@ -22490,7 +22532,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="18" customFormat="1">
+    <row r="56" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="52"/>
       <c r="B56" s="21" t="s">
         <v>199</v>
@@ -22507,7 +22549,7 @@
       <c r="H56" s="21"/>
       <c r="I56" s="28"/>
     </row>
-    <row r="57" spans="1:9" s="18" customFormat="1">
+    <row r="57" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="52"/>
       <c r="B57" s="21" t="s">
         <v>212</v>
@@ -22524,7 +22566,7 @@
       <c r="H57" s="21"/>
       <c r="I57" s="28"/>
     </row>
-    <row r="58" spans="1:9" s="18" customFormat="1">
+    <row r="58" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="52"/>
       <c r="B58" s="21" t="s">
         <v>202</v>
@@ -22541,7 +22583,7 @@
       <c r="H58" s="21"/>
       <c r="I58" s="28"/>
     </row>
-    <row r="59" spans="1:9" s="18" customFormat="1">
+    <row r="59" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="52"/>
       <c r="B59" s="21" t="s">
         <v>197</v>
@@ -22558,7 +22600,7 @@
       <c r="H59" s="21"/>
       <c r="I59" s="28"/>
     </row>
-    <row r="60" spans="1:9" s="18" customFormat="1">
+    <row r="60" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="52"/>
       <c r="B60" s="21" t="s">
         <v>204</v>
@@ -22575,7 +22617,7 @@
       <c r="H60" s="21"/>
       <c r="I60" s="28"/>
     </row>
-    <row r="61" spans="1:9" s="18" customFormat="1">
+    <row r="61" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="52"/>
       <c r="B61" s="21" t="s">
         <v>213</v>
@@ -22594,7 +22636,7 @@
       <c r="H61" s="21"/>
       <c r="I61" s="28"/>
     </row>
-    <row r="62" spans="1:9" s="18" customFormat="1">
+    <row r="62" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="52"/>
       <c r="B62" s="21" t="s">
         <v>190</v>
@@ -22611,7 +22653,7 @@
       <c r="H62" s="21"/>
       <c r="I62" s="28"/>
     </row>
-    <row r="63" spans="1:9" s="18" customFormat="1">
+    <row r="63" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="52"/>
       <c r="B63" s="21" t="s">
         <v>214</v>
@@ -22630,7 +22672,7 @@
       <c r="H63" s="21"/>
       <c r="I63" s="28"/>
     </row>
-    <row r="64" spans="1:9" s="18" customFormat="1">
+    <row r="64" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="52"/>
       <c r="B64" s="21" t="s">
         <v>174</v>
@@ -22647,7 +22689,7 @@
       <c r="H64" s="21"/>
       <c r="I64" s="28"/>
     </row>
-    <row r="65" spans="1:9" s="18" customFormat="1">
+    <row r="65" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -22658,7 +22700,7 @@
       <c r="H65" s="21"/>
       <c r="I65" s="28"/>
     </row>
-    <row r="66" spans="1:9" s="18" customFormat="1">
+    <row r="66" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -22669,7 +22711,7 @@
       <c r="H66" s="21"/>
       <c r="I66" s="28"/>
     </row>
-    <row r="67" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="67" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A67" s="61" t="s">
         <v>176</v>
       </c>
@@ -22692,7 +22734,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="68" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A68" s="61"/>
       <c r="B68" s="21" t="s">
         <v>216</v>
@@ -22713,7 +22755,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="18" customFormat="1">
+    <row r="69" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="61"/>
       <c r="B69" s="21" t="s">
         <v>174</v>
@@ -22730,7 +22772,7 @@
       <c r="H69" s="21"/>
       <c r="I69" s="28"/>
     </row>
-    <row r="70" spans="1:9" s="18" customFormat="1">
+    <row r="70" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -22741,7 +22783,7 @@
       <c r="H70" s="21"/>
       <c r="I70" s="28"/>
     </row>
-    <row r="71" spans="1:9" s="18" customFormat="1">
+    <row r="71" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -22752,7 +22794,7 @@
       <c r="H71" s="21"/>
       <c r="I71" s="28"/>
     </row>
-    <row r="72" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="72" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A72" s="61" t="s">
         <v>168</v>
       </c>
@@ -22775,7 +22817,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="73" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A73" s="61"/>
       <c r="B73" s="21" t="s">
         <v>215</v>
@@ -22796,7 +22838,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="18" customFormat="1">
+    <row r="74" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="61"/>
       <c r="B74" s="21" t="s">
         <v>174</v>
@@ -22813,7 +22855,7 @@
       <c r="H74" s="21"/>
       <c r="I74" s="28"/>
     </row>
-    <row r="75" spans="1:9" s="18" customFormat="1">
+    <row r="75" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -22824,7 +22866,7 @@
       <c r="H75" s="21"/>
       <c r="I75" s="28"/>
     </row>
-    <row r="76" spans="1:9" s="18" customFormat="1">
+    <row r="76" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -22835,7 +22877,7 @@
       <c r="H76" s="21"/>
       <c r="I76" s="28"/>
     </row>
-    <row r="77" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="77" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A77" s="52" t="s">
         <v>169</v>
       </c>
@@ -22858,7 +22900,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="78" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A78" s="52"/>
       <c r="B78" s="21" t="s">
         <v>217</v>
@@ -22879,7 +22921,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="18" customFormat="1">
+    <row r="79" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="52"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
@@ -22892,7 +22934,7 @@
       <c r="H79" s="21"/>
       <c r="I79" s="28"/>
     </row>
-    <row r="80" spans="1:9" s="18" customFormat="1">
+    <row r="80" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A80" s="52"/>
       <c r="B80" s="21" t="s">
         <v>220</v>
@@ -22913,7 +22955,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="18" customFormat="1">
+    <row r="81" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A81" s="52"/>
       <c r="B81" s="21" t="s">
         <v>219</v>
@@ -22934,7 +22976,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="18" customFormat="1">
+    <row r="82" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="52"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
@@ -22947,7 +22989,7 @@
       <c r="H82" s="21"/>
       <c r="I82" s="28"/>
     </row>
-    <row r="83" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="83" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A83" s="52"/>
       <c r="B83" s="21" t="s">
         <v>215</v>
@@ -22968,7 +23010,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="18" customFormat="1">
+    <row r="84" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="52"/>
       <c r="B84" s="21" t="s">
         <v>174</v>
@@ -22985,7 +23027,7 @@
       <c r="H84" s="21"/>
       <c r="I84" s="28"/>
     </row>
-    <row r="85" spans="1:9" s="18" customFormat="1">
+    <row r="85" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -22996,7 +23038,7 @@
       <c r="H85" s="21"/>
       <c r="I85" s="28"/>
     </row>
-    <row r="86" spans="1:9" s="18" customFormat="1">
+    <row r="86" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -23007,7 +23049,7 @@
       <c r="H86" s="21"/>
       <c r="I86" s="28"/>
     </row>
-    <row r="87" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="87" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A87" s="52" t="s">
         <v>106</v>
       </c>
@@ -23030,7 +23072,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="88" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A88" s="52"/>
       <c r="B88" s="21" t="s">
         <v>217</v>
@@ -23051,7 +23093,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="18" customFormat="1">
+    <row r="89" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="52"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -23064,7 +23106,7 @@
       <c r="H89" s="21"/>
       <c r="I89" s="28"/>
     </row>
-    <row r="90" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="90" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A90" s="52"/>
       <c r="B90" s="21" t="s">
         <v>219</v>
@@ -23085,7 +23127,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="18" customFormat="1">
+    <row r="91" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="52"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
@@ -23098,7 +23140,7 @@
       <c r="H91" s="21"/>
       <c r="I91" s="28"/>
     </row>
-    <row r="92" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="92" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A92" s="52"/>
       <c r="B92" s="21" t="s">
         <v>215</v>
@@ -23119,7 +23161,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="18" customFormat="1">
+    <row r="93" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="52"/>
       <c r="B93" s="21" t="s">
         <v>174</v>
@@ -23136,7 +23178,7 @@
       <c r="H93" s="21"/>
       <c r="I93" s="28"/>
     </row>
-    <row r="94" spans="1:9" s="18" customFormat="1">
+    <row r="94" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -23147,7 +23189,7 @@
       <c r="H94" s="21"/>
       <c r="I94" s="28"/>
     </row>
-    <row r="95" spans="1:9" s="18" customFormat="1">
+    <row r="95" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -23158,7 +23200,7 @@
       <c r="H95" s="21"/>
       <c r="I95" s="28"/>
     </row>
-    <row r="96" spans="1:9" s="18" customFormat="1">
+    <row r="96" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="52" t="s">
         <v>104</v>
       </c>
@@ -23181,7 +23223,7 @@
       </c>
       <c r="I96" s="28"/>
     </row>
-    <row r="97" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="97" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A97" s="52"/>
       <c r="B97" s="21" t="s">
         <v>189</v>
@@ -23202,7 +23244,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="18" customFormat="1">
+    <row r="98" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="52"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
@@ -23215,7 +23257,7 @@
       <c r="H98" s="21"/>
       <c r="I98" s="28"/>
     </row>
-    <row r="99" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="99" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A99" s="52"/>
       <c r="B99" s="21" t="s">
         <v>218</v>
@@ -23236,7 +23278,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="18" customFormat="1">
+    <row r="100" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="52"/>
       <c r="B100" s="21" t="s">
         <v>174</v>
@@ -23253,7 +23295,7 @@
       <c r="H100" s="21"/>
       <c r="I100" s="28"/>
     </row>
-    <row r="101" spans="1:9" s="18" customFormat="1">
+    <row r="101" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -23264,7 +23306,7 @@
       <c r="H101" s="21"/>
       <c r="I101" s="28"/>
     </row>
-    <row r="102" spans="1:9" s="18" customFormat="1">
+    <row r="102" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
@@ -23275,7 +23317,7 @@
       <c r="H102" s="21"/>
       <c r="I102" s="28"/>
     </row>
-    <row r="103" spans="1:9" s="18" customFormat="1">
+    <row r="103" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
@@ -23286,7 +23328,7 @@
       <c r="H103" s="21"/>
       <c r="I103" s="28"/>
     </row>
-    <row r="104" spans="1:9" s="18" customFormat="1">
+    <row r="104" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -23297,7 +23339,7 @@
       <c r="H104" s="21"/>
       <c r="I104" s="28"/>
     </row>
-    <row r="105" spans="1:9" s="18" customFormat="1">
+    <row r="105" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -23308,7 +23350,7 @@
       <c r="H105" s="21"/>
       <c r="I105" s="28"/>
     </row>
-    <row r="106" spans="1:9" s="18" customFormat="1">
+    <row r="106" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
       <c r="D106"/>
@@ -23317,7 +23359,7 @@
       <c r="G106"/>
       <c r="I106" s="24"/>
     </row>
-    <row r="107" spans="1:9" s="18" customFormat="1">
+    <row r="107" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
@@ -23326,7 +23368,7 @@
       <c r="G107"/>
       <c r="I107" s="24"/>
     </row>
-    <row r="108" spans="1:9" s="18" customFormat="1">
+    <row r="108" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
@@ -23335,7 +23377,7 @@
       <c r="G108"/>
       <c r="I108" s="24"/>
     </row>
-    <row r="109" spans="1:9" s="18" customFormat="1">
+    <row r="109" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -23345,7 +23387,7 @@
       <c r="G109"/>
       <c r="I109" s="24"/>
     </row>
-    <row r="110" spans="1:9" s="18" customFormat="1">
+    <row r="110" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -23355,7 +23397,7 @@
       <c r="G110"/>
       <c r="I110" s="24"/>
     </row>
-    <row r="111" spans="1:9" s="18" customFormat="1">
+    <row r="111" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -23365,7 +23407,7 @@
       <c r="G111"/>
       <c r="I111" s="24"/>
     </row>
-    <row r="112" spans="1:9" s="18" customFormat="1">
+    <row r="112" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -23375,7 +23417,7 @@
       <c r="G112"/>
       <c r="I112" s="24"/>
     </row>
-    <row r="113" spans="1:9" s="18" customFormat="1">
+    <row r="113" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -23385,7 +23427,7 @@
       <c r="G113"/>
       <c r="I113" s="24"/>
     </row>
-    <row r="114" spans="1:9" s="18" customFormat="1">
+    <row r="114" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -23395,7 +23437,7 @@
       <c r="G114"/>
       <c r="I114" s="24"/>
     </row>
-    <row r="115" spans="1:9" s="18" customFormat="1">
+    <row r="115" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -23405,7 +23447,7 @@
       <c r="G115"/>
       <c r="I115" s="24"/>
     </row>
-    <row r="116" spans="1:9" s="18" customFormat="1">
+    <row r="116" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -23415,7 +23457,7 @@
       <c r="G116"/>
       <c r="I116" s="24"/>
     </row>
-    <row r="117" spans="1:9" s="18" customFormat="1">
+    <row r="117" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -23425,7 +23467,7 @@
       <c r="G117"/>
       <c r="I117" s="24"/>
     </row>
-    <row r="118" spans="1:9" s="18" customFormat="1">
+    <row r="118" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -23435,7 +23477,7 @@
       <c r="G118"/>
       <c r="I118" s="24"/>
     </row>
-    <row r="119" spans="1:9" s="18" customFormat="1">
+    <row r="119" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -23445,7 +23487,7 @@
       <c r="G119"/>
       <c r="I119" s="24"/>
     </row>
-    <row r="120" spans="1:9" s="18" customFormat="1">
+    <row r="120" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -23455,7 +23497,7 @@
       <c r="G120"/>
       <c r="I120" s="24"/>
     </row>
-    <row r="121" spans="1:9" s="18" customFormat="1">
+    <row r="121" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -23465,7 +23507,7 @@
       <c r="G121"/>
       <c r="I121" s="24"/>
     </row>
-    <row r="122" spans="1:9" s="18" customFormat="1">
+    <row r="122" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -23475,7 +23517,7 @@
       <c r="G122"/>
       <c r="I122" s="24"/>
     </row>
-    <row r="123" spans="1:9" s="18" customFormat="1">
+    <row r="123" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -23485,7 +23527,7 @@
       <c r="G123"/>
       <c r="I123" s="24"/>
     </row>
-    <row r="124" spans="1:9" s="18" customFormat="1">
+    <row r="124" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -23495,7 +23537,7 @@
       <c r="G124"/>
       <c r="I124" s="24"/>
     </row>
-    <row r="125" spans="1:9" s="18" customFormat="1">
+    <row r="125" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -23505,7 +23547,7 @@
       <c r="G125"/>
       <c r="I125" s="24"/>
     </row>
-    <row r="126" spans="1:9" s="18" customFormat="1">
+    <row r="126" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -23515,7 +23557,7 @@
       <c r="G126"/>
       <c r="I126" s="24"/>
     </row>
-    <row r="127" spans="1:9" s="18" customFormat="1">
+    <row r="127" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -23525,7 +23567,7 @@
       <c r="G127"/>
       <c r="I127" s="24"/>
     </row>
-    <row r="128" spans="1:9" s="18" customFormat="1">
+    <row r="128" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -23535,7 +23577,7 @@
       <c r="G128"/>
       <c r="I128" s="24"/>
     </row>
-    <row r="129" spans="1:9" s="18" customFormat="1">
+    <row r="129" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -23545,7 +23587,7 @@
       <c r="G129"/>
       <c r="I129" s="24"/>
     </row>
-    <row r="130" spans="1:9" s="18" customFormat="1">
+    <row r="130" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -23555,7 +23597,7 @@
       <c r="G130"/>
       <c r="I130" s="24"/>
     </row>
-    <row r="131" spans="1:9" s="18" customFormat="1">
+    <row r="131" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -23565,7 +23607,7 @@
       <c r="G131"/>
       <c r="I131" s="24"/>
     </row>
-    <row r="132" spans="1:9" s="18" customFormat="1">
+    <row r="132" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -23575,7 +23617,7 @@
       <c r="G132"/>
       <c r="I132" s="24"/>
     </row>
-    <row r="133" spans="1:9" s="18" customFormat="1">
+    <row r="133" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -23585,7 +23627,7 @@
       <c r="G133"/>
       <c r="I133" s="24"/>
     </row>
-    <row r="134" spans="1:9" s="18" customFormat="1">
+    <row r="134" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -23595,7 +23637,7 @@
       <c r="G134"/>
       <c r="I134" s="24"/>
     </row>
-    <row r="135" spans="1:9" s="18" customFormat="1">
+    <row r="135" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -23605,7 +23647,7 @@
       <c r="G135"/>
       <c r="I135" s="24"/>
     </row>
-    <row r="136" spans="1:9" s="18" customFormat="1">
+    <row r="136" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -23615,7 +23657,7 @@
       <c r="G136"/>
       <c r="I136" s="24"/>
     </row>
-    <row r="137" spans="1:9" s="18" customFormat="1">
+    <row r="137" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -23625,7 +23667,7 @@
       <c r="G137"/>
       <c r="I137" s="24"/>
     </row>
-    <row r="138" spans="1:9" s="18" customFormat="1">
+    <row r="138" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -23635,7 +23677,7 @@
       <c r="G138"/>
       <c r="I138" s="24"/>
     </row>
-    <row r="139" spans="1:9" s="18" customFormat="1">
+    <row r="139" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -23645,7 +23687,7 @@
       <c r="G139"/>
       <c r="I139" s="24"/>
     </row>
-    <row r="140" spans="1:9" s="18" customFormat="1">
+    <row r="140" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -23655,7 +23697,7 @@
       <c r="G140"/>
       <c r="I140" s="24"/>
     </row>
-    <row r="141" spans="1:9" s="18" customFormat="1">
+    <row r="141" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -23665,7 +23707,7 @@
       <c r="G141"/>
       <c r="I141" s="24"/>
     </row>
-    <row r="142" spans="1:9" s="18" customFormat="1">
+    <row r="142" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -23692,29 +23734,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.875" customWidth="1"/>
-    <col min="3" max="3" width="44.125" customWidth="1"/>
-    <col min="4" max="4" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="89.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.88671875" customWidth="1"/>
+    <col min="3" max="3" width="44.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="89.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -23747,7 +23789,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>165</v>
       </c>
@@ -23782,7 +23824,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
@@ -23815,7 +23857,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52"/>
       <c r="B4" s="21" t="s">
         <v>172</v>
@@ -23848,7 +23890,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>166</v>
       </c>
@@ -23875,7 +23917,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52"/>
       <c r="B6" s="21" t="s">
         <v>183</v>
@@ -23908,7 +23950,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52"/>
       <c r="B7" s="21" t="s">
         <v>184</v>
@@ -23941,7 +23983,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52"/>
       <c r="B8" s="21" t="s">
         <v>185</v>
@@ -23974,7 +24016,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52"/>
       <c r="B9" s="21" t="s">
         <v>186</v>
@@ -23999,7 +24041,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="52"/>
       <c r="B10" s="21" t="s">
         <v>187</v>
@@ -24032,7 +24074,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="52"/>
       <c r="B11" s="21" t="s">
         <v>188</v>
@@ -24065,7 +24107,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="52"/>
       <c r="B12" s="21" t="s">
         <v>189</v>
@@ -24098,7 +24140,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="52"/>
       <c r="B13" s="21" t="s">
         <v>190</v>
@@ -24131,7 +24173,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="52"/>
       <c r="B14" s="21" t="s">
         <v>191</v>
@@ -24164,7 +24206,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="52"/>
       <c r="B15" s="21" t="s">
         <v>192</v>
@@ -24197,7 +24239,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="52"/>
       <c r="B16" s="21" t="s">
         <v>193</v>
@@ -24230,7 +24272,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="52"/>
       <c r="B17" s="21" t="s">
         <v>194</v>
@@ -24263,7 +24305,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52"/>
       <c r="B18" s="21" t="s">
         <v>195</v>
@@ -24284,7 +24326,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52"/>
       <c r="B19" s="21" t="s">
         <v>196</v>
@@ -24317,7 +24359,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52"/>
       <c r="B20" s="21" t="s">
         <v>196</v>
@@ -24350,7 +24392,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="52"/>
       <c r="B21" s="21" t="s">
         <v>197</v>
@@ -24383,7 +24425,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="52"/>
       <c r="B22" s="21" t="s">
         <v>197</v>
@@ -24416,7 +24458,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="52"/>
       <c r="B23" s="21" t="s">
         <v>198</v>
@@ -24449,7 +24491,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="52"/>
       <c r="B24" s="21" t="s">
         <v>199</v>
@@ -24482,7 +24524,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="52"/>
       <c r="B25" s="21" t="s">
         <v>200</v>
@@ -24515,7 +24557,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="52"/>
       <c r="B26" s="21" t="s">
         <v>201</v>
@@ -24548,7 +24590,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="52"/>
       <c r="B27" s="21" t="s">
         <v>201</v>
@@ -24581,7 +24623,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="52"/>
       <c r="B28" s="21" t="s">
         <v>202</v>
@@ -24614,7 +24656,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="52"/>
       <c r="B29" s="21" t="s">
         <v>202</v>
@@ -24647,7 +24689,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="52"/>
       <c r="B30" s="21" t="s">
         <v>203</v>
@@ -24680,7 +24722,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="14.25" customHeight="1">
+    <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52"/>
       <c r="B31" s="21" t="s">
         <v>204</v>
@@ -24713,7 +24755,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="14.25" customHeight="1">
+    <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52"/>
       <c r="B32" s="21" t="s">
         <v>204</v>
@@ -24746,7 +24788,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="52"/>
       <c r="B33" s="21" t="s">
         <v>205</v>
@@ -24779,7 +24821,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="52"/>
       <c r="B34" s="21" t="s">
         <v>205</v>
@@ -24812,7 +24854,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="52"/>
       <c r="B35" s="21" t="s">
         <v>205</v>
@@ -24845,7 +24887,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="52"/>
       <c r="B36" s="21" t="s">
         <v>205</v>
@@ -24878,7 +24920,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="52"/>
       <c r="B37" s="21" t="s">
         <v>205</v>
@@ -24911,7 +24953,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="52"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
@@ -24944,7 +24986,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="52"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
@@ -24977,7 +25019,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="52"/>
       <c r="B40" s="21" t="s">
         <v>205</v>
@@ -25010,7 +25052,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="52"/>
       <c r="B41" s="21" t="s">
         <v>205</v>
@@ -25043,7 +25085,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="52"/>
       <c r="B42" s="21" t="s">
         <v>205</v>
@@ -25076,7 +25118,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="52"/>
       <c r="B43" s="21" t="s">
         <v>205</v>
@@ -25109,7 +25151,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="52"/>
       <c r="B44" s="21" t="s">
         <v>205</v>
@@ -25142,7 +25184,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="52"/>
       <c r="B45" s="21" t="s">
         <v>206</v>
@@ -25175,7 +25217,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
         <v>175</v>
       </c>
@@ -25194,7 +25236,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="33"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="52"/>
       <c r="B47" s="21" t="s">
         <v>211</v>
@@ -25211,7 +25253,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="52"/>
       <c r="B48" s="21" t="s">
         <v>189</v>
@@ -25244,7 +25286,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="52"/>
       <c r="B49" s="21" t="s">
         <v>199</v>
@@ -25261,7 +25303,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="52"/>
       <c r="B50" s="21" t="s">
         <v>212</v>
@@ -25278,7 +25320,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="52"/>
       <c r="B51" s="21" t="s">
         <v>202</v>
@@ -25295,7 +25337,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="52"/>
       <c r="B52" s="21" t="s">
         <v>197</v>
@@ -25312,7 +25354,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="52"/>
       <c r="B53" s="21" t="s">
         <v>204</v>
@@ -25329,7 +25371,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="52" t="s">
         <v>176</v>
       </c>
@@ -25364,7 +25406,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="52"/>
       <c r="B55" s="21" t="s">
         <v>216</v>
@@ -25397,7 +25439,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="52" t="s">
         <v>168</v>
       </c>
@@ -25432,7 +25474,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="52"/>
       <c r="B57" s="21" t="s">
         <v>215</v>
@@ -25465,7 +25507,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="40.5">
+    <row r="58" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A58" s="52" t="s">
         <v>169</v>
       </c>
@@ -25487,7 +25529,9 @@
       <c r="G58" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H58" s="1"/>
+      <c r="H58" s="1" t="s">
+        <v>552</v>
+      </c>
       <c r="I58" s="1" t="s">
         <v>321</v>
       </c>
@@ -25498,7 +25542,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="52"/>
       <c r="B59" s="21" t="s">
         <v>217</v>
@@ -25518,7 +25562,9 @@
       <c r="G59" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H59" s="1"/>
+      <c r="H59" s="1" t="s">
+        <v>552</v>
+      </c>
       <c r="I59" s="1" t="s">
         <v>321</v>
       </c>
@@ -25529,7 +25575,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="52"/>
       <c r="B60" s="21" t="s">
         <v>220</v>
@@ -25549,7 +25595,9 @@
       <c r="G60" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H60" s="1"/>
+      <c r="H60" s="1" t="s">
+        <v>552</v>
+      </c>
       <c r="I60" s="1" t="s">
         <v>321</v>
       </c>
@@ -25560,7 +25608,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="52"/>
       <c r="B61" s="21" t="s">
         <v>219</v>
@@ -25580,7 +25628,9 @@
       <c r="G61" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H61" s="1"/>
+      <c r="H61" s="1" t="s">
+        <v>552</v>
+      </c>
       <c r="I61" s="1" t="s">
         <v>321</v>
       </c>
@@ -25591,7 +25641,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="52"/>
       <c r="B62" s="21" t="s">
         <v>215</v>
@@ -25611,7 +25661,9 @@
       <c r="G62" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H62" s="1"/>
+      <c r="H62" s="1" t="s">
+        <v>552</v>
+      </c>
       <c r="I62" s="1" t="s">
         <v>321</v>
       </c>
@@ -25622,7 +25674,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="27">
+    <row r="63" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A63" s="52" t="s">
         <v>106</v>
       </c>
@@ -25657,7 +25709,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="52"/>
       <c r="B64" s="21" t="s">
         <v>217</v>
@@ -25690,7 +25742,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="52"/>
       <c r="B65" s="21" t="s">
         <v>219</v>
@@ -25723,7 +25775,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="52"/>
       <c r="B66" s="21" t="s">
         <v>215</v>
@@ -25756,7 +25808,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="52" t="s">
         <v>104</v>
       </c>
@@ -25791,7 +25843,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="52"/>
       <c r="B68" s="21" t="s">
         <v>189</v>
@@ -25824,7 +25876,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="52"/>
       <c r="B69" s="21" t="s">
         <v>218</v>
@@ -25858,9 +25910,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K69">
-    <filterColumn colId="8"/>
-  </autoFilter>
+  <autoFilter ref="A1:K69" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="8">
     <mergeCell ref="A63:A66"/>
     <mergeCell ref="A67:A69"/>
@@ -25877,21 +25927,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>297</v>
       </c>
@@ -25902,7 +25952,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>165</v>
       </c>
@@ -25913,7 +25963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A3" s="62" t="s">
         <v>166</v>
       </c>
@@ -25924,7 +25974,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="62"/>
       <c r="B4" s="21" t="s">
         <v>189</v>
@@ -25933,7 +25983,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>175</v>
       </c>
@@ -25944,7 +25994,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>176</v>
       </c>
@@ -25955,7 +26005,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>297</v>
       </c>
@@ -25966,7 +26016,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
         <v>166</v>
       </c>
@@ -25977,7 +26027,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
         <v>104</v>
       </c>
@@ -25988,7 +26038,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>297</v>
       </c>
@@ -25999,8 +26049,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="58" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="56" t="s">
         <v>166</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -26010,8 +26060,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="59"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="57"/>
       <c r="B20" s="21" t="s">
         <v>202</v>
       </c>
@@ -26019,7 +26069,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="29" t="s">
         <v>168</v>
       </c>
@@ -26030,7 +26080,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="29" t="s">
         <v>169</v>
       </c>
@@ -26041,7 +26091,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>106</v>
       </c>
@@ -26052,7 +26102,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="43" t="s">
         <v>297</v>
       </c>
@@ -26063,7 +26113,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="63" t="s">
         <v>166</v>
       </c>
@@ -26074,7 +26124,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="63"/>
       <c r="B28" s="45" t="s">
         <v>205</v>
@@ -26083,7 +26133,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="63"/>
       <c r="B29" s="45" t="s">
         <v>205</v>
@@ -26092,7 +26142,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="63"/>
       <c r="B30" s="45" t="s">
         <v>205</v>
@@ -26101,7 +26151,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="63"/>
       <c r="B31" s="45" t="s">
         <v>205</v>
@@ -26110,7 +26160,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="63"/>
       <c r="B32" s="21" t="s">
         <v>196</v>
@@ -26119,7 +26169,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="63"/>
       <c r="B33" s="21" t="s">
         <v>197</v>
@@ -26128,7 +26178,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="63"/>
       <c r="B34" s="21" t="s">
         <v>201</v>
@@ -26137,7 +26187,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="63"/>
       <c r="B35" s="21" t="s">
         <v>202</v>
@@ -26146,7 +26196,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="63"/>
       <c r="B36" s="21" t="s">
         <v>204</v>
@@ -26155,7 +26205,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="43" t="s">
         <v>297</v>
       </c>
@@ -26166,7 +26216,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="27">
+    <row r="40" spans="1:3" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A40" s="46" t="s">
         <v>165</v>
       </c>
@@ -26177,7 +26227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="63" t="s">
         <v>166</v>
       </c>
@@ -26188,7 +26238,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="63"/>
       <c r="B42" s="21" t="s">
         <v>196</v>
@@ -26197,7 +26247,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="46" t="s">
         <v>168</v>
       </c>
@@ -26208,7 +26258,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="46" t="s">
         <v>169</v>
       </c>
@@ -26219,7 +26269,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="46" t="s">
         <v>104</v>
       </c>
@@ -26243,38 +26293,38 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
-    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.25" customWidth="1"/>
-    <col min="12" max="12" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="26" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26" customWidth="1"/>
-    <col min="17" max="17" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.75" customWidth="1"/>
+    <col min="17" max="17" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="65" t="s">
         <v>338</v>
       </c>
@@ -26306,7 +26356,7 @@
       <c r="S1" s="75"/>
       <c r="T1" s="75"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>341</v>
       </c>
@@ -26368,7 +26418,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>388</v>
       </c>
@@ -26418,7 +26468,7 @@
       </c>
       <c r="T3" s="36"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>388</v>
       </c>
@@ -26468,7 +26518,7 @@
       </c>
       <c r="T4" s="36"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>388</v>
       </c>
@@ -26518,7 +26568,7 @@
       </c>
       <c r="T5" s="36"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>388</v>
       </c>
@@ -26568,7 +26618,7 @@
       </c>
       <c r="T6" s="36"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>388</v>
       </c>
@@ -26618,7 +26668,7 @@
       </c>
       <c r="T7" s="36"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>388</v>
       </c>
@@ -26668,7 +26718,7 @@
       </c>
       <c r="T8" s="36"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>388</v>
       </c>
@@ -26718,7 +26768,7 @@
       </c>
       <c r="T9" s="36"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>388</v>
       </c>
@@ -26768,7 +26818,7 @@
       </c>
       <c r="T10" s="36"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>388</v>
       </c>
@@ -26818,7 +26868,7 @@
       </c>
       <c r="T11" s="36"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>388</v>
       </c>
@@ -26868,7 +26918,7 @@
       </c>
       <c r="T12" s="36"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>388</v>
       </c>
@@ -26918,7 +26968,7 @@
       </c>
       <c r="T13" s="36"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>388</v>
       </c>
@@ -26968,7 +27018,7 @@
       </c>
       <c r="T14" s="36"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>388</v>
       </c>
@@ -27018,7 +27068,7 @@
       </c>
       <c r="T15" s="36"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>388</v>
       </c>
@@ -27068,7 +27118,7 @@
       </c>
       <c r="T16" s="36"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>388</v>
       </c>
@@ -27118,7 +27168,7 @@
       </c>
       <c r="T17" s="36"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>388</v>
       </c>
@@ -27168,7 +27218,7 @@
       </c>
       <c r="T18" s="36"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>388</v>
       </c>
@@ -27218,7 +27268,7 @@
       </c>
       <c r="T19" s="36"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>388</v>
       </c>
@@ -27268,7 +27318,7 @@
       </c>
       <c r="T20" s="36"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>388</v>
       </c>
@@ -27318,7 +27368,7 @@
       </c>
       <c r="T21" s="36"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>388</v>
       </c>
@@ -27368,7 +27418,7 @@
       </c>
       <c r="T22" s="36"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>388</v>
       </c>
@@ -27418,7 +27468,7 @@
       </c>
       <c r="T23" s="36"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>388</v>
       </c>
@@ -27464,7 +27514,7 @@
       </c>
       <c r="T24" s="36"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>388</v>
       </c>
@@ -27510,7 +27560,7 @@
       </c>
       <c r="T25" s="36"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>388</v>
       </c>
@@ -27556,7 +27606,7 @@
       </c>
       <c r="T26" s="36"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -27593,7 +27643,7 @@
       </c>
       <c r="T27" s="36"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -27633,7 +27683,7 @@
       </c>
       <c r="T28" s="36"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -27671,7 +27721,7 @@
       </c>
       <c r="T29" s="36"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -27711,7 +27761,7 @@
       </c>
       <c r="T30" s="36"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -27751,7 +27801,7 @@
       </c>
       <c r="T31" s="36"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -27791,7 +27841,7 @@
       </c>
       <c r="T32" s="36"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -27831,7 +27881,7 @@
       </c>
       <c r="T33" s="36"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -27871,7 +27921,7 @@
       </c>
       <c r="T34" s="36"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -27911,7 +27961,7 @@
       </c>
       <c r="T35" s="36"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -27951,7 +28001,7 @@
       </c>
       <c r="T36" s="36"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -27991,7 +28041,7 @@
       </c>
       <c r="T37" s="36"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -28031,7 +28081,7 @@
       </c>
       <c r="T38" s="36"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -28071,7 +28121,7 @@
       </c>
       <c r="T39" s="36"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -28111,7 +28161,7 @@
       </c>
       <c r="T40" s="36"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -28151,7 +28201,7 @@
       </c>
       <c r="T41" s="36"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -28191,7 +28241,7 @@
       </c>
       <c r="T42" s="36"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -28231,7 +28281,7 @@
       </c>
       <c r="T43" s="36"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -28271,7 +28321,7 @@
       </c>
       <c r="T44" s="36"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -28305,7 +28355,7 @@
       </c>
       <c r="T45" s="36"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -28339,7 +28389,7 @@
       </c>
       <c r="T46" s="36"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -28373,7 +28423,7 @@
       </c>
       <c r="T47" s="36"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -28407,7 +28457,7 @@
       </c>
       <c r="T48" s="36"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -28441,7 +28491,7 @@
       </c>
       <c r="T49" s="36"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -28475,7 +28525,7 @@
       </c>
       <c r="T50" s="36"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -28503,7 +28553,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -28531,7 +28581,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -28559,7 +28609,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -28587,7 +28637,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -28615,7 +28665,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -28643,7 +28693,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -28671,7 +28721,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -28699,7 +28749,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -28727,7 +28777,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -28755,7 +28805,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -28783,7 +28833,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -28811,7 +28861,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -28839,7 +28889,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -28867,7 +28917,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -28895,7 +28945,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -28923,7 +28973,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -28951,7 +29001,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -28979,7 +29029,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -29007,7 +29057,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -29035,7 +29085,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -29063,7 +29113,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -29091,7 +29141,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -29119,7 +29169,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -29147,7 +29197,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -29175,7 +29225,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -29203,7 +29253,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -29231,7 +29281,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -29259,7 +29309,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -29287,7 +29337,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -29315,7 +29365,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -29343,7 +29393,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -29371,7 +29421,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -29399,7 +29449,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -29427,7 +29477,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -29455,7 +29505,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -29483,7 +29533,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -29511,7 +29561,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -29539,7 +29589,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -29567,7 +29617,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -29595,7 +29645,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -29623,7 +29673,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -29651,7 +29701,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -29679,7 +29729,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -29707,7 +29757,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -29735,7 +29785,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -29763,7 +29813,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -29791,7 +29841,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -29819,7 +29869,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -29847,7 +29897,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -29875,7 +29925,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -29903,7 +29953,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -29931,7 +29981,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -29959,7 +30009,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -29987,7 +30037,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -30015,7 +30065,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -30043,7 +30093,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -30071,7 +30121,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -30099,7 +30149,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -30127,7 +30177,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -30155,7 +30205,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -30183,7 +30233,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -30211,7 +30261,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -30239,7 +30289,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114" spans="1:20">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -30261,7 +30311,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -30283,7 +30333,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -30305,7 +30355,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -30327,7 +30377,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -30349,7 +30399,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -30371,7 +30421,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120" spans="1:20">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -30393,7 +30443,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -30415,7 +30465,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -30437,7 +30487,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123" spans="1:20">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -30459,7 +30509,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -30481,7 +30531,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125" spans="1:20">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -30503,7 +30553,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -30525,7 +30575,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -30547,7 +30597,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128" spans="1:20">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -30569,7 +30619,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -30591,7 +30641,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -30613,7 +30663,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -30635,7 +30685,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -30657,7 +30707,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -30679,7 +30729,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -30701,7 +30751,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -30723,7 +30773,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136" spans="1:20">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -30745,7 +30795,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -30767,7 +30817,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -30789,7 +30839,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -30811,7 +30861,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -30833,7 +30883,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -30855,7 +30905,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -30877,7 +30927,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -30899,7 +30949,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144" spans="1:20">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -30935,24 +30985,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.125" customWidth="1"/>
-    <col min="2" max="2" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.125" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="53.125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="53.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="17" t="s">
         <v>167</v>
@@ -30970,7 +31020,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="54">
+    <row r="2" spans="1:6" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A2" s="52"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -30984,7 +31034,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="54">
+    <row r="3" spans="1:6" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A3" s="52"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -30998,7 +31048,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="27">
+    <row r="6" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
         <v>106</v>
       </c>
@@ -31018,7 +31068,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27">
+    <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A7" s="52"/>
       <c r="B7" s="50" t="s">
         <v>217</v>
@@ -31036,7 +31086,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="27">
+    <row r="8" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A8" s="52"/>
       <c r="B8" s="50" t="s">
         <v>219</v>
@@ -31054,7 +31104,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="27">
+    <row r="9" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A9" s="52"/>
       <c r="B9" s="3" t="s">
         <v>215</v>
@@ -31072,7 +31122,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="27">
+    <row r="13" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
         <v>165</v>
       </c>
@@ -31092,7 +31142,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="27">
+    <row r="14" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A14" s="52"/>
       <c r="B14" s="3" t="s">
         <v>171</v>
@@ -31110,7 +31160,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="27">
+    <row r="15" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A15" s="52"/>
       <c r="B15" s="3" t="s">
         <v>171</v>
@@ -31128,7 +31178,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="27">
+    <row r="16" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A16" s="52"/>
       <c r="B16" s="3" t="s">
         <v>181</v>
@@ -31146,7 +31196,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="27">
+    <row r="17" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A17" s="52"/>
       <c r="B17" s="3" t="s">
         <v>172</v>
@@ -31164,7 +31214,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="52"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -31172,7 +31222,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="21"/>
     </row>
-    <row r="23" spans="1:6" ht="40.5">
+    <row r="23" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>166</v>
       </c>
@@ -31192,7 +31242,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="52"/>
       <c r="B24" s="21" t="s">
         <v>206</v>
@@ -31210,7 +31260,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="40.5">
+    <row r="25" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A25" s="52"/>
       <c r="B25" s="21" t="s">
         <v>206</v>
@@ -31228,7 +31278,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="27">
+    <row r="29" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>365</v>
       </c>
@@ -31248,7 +31298,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="52"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -31256,7 +31306,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="21"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="52"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -31278,24 +31328,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G142"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.375" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="17" t="s">
         <v>167</v>
@@ -31316,7 +31366,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="52"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -31331,7 +31381,7 @@
       </c>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="52"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -31346,7 +31396,7 @@
       </c>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="52"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -31361,7 +31411,7 @@
       </c>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="52"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -31376,7 +31426,7 @@
       </c>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="52"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -31391,7 +31441,7 @@
       </c>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="52"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -31406,7 +31456,7 @@
       </c>
       <c r="G7" s="21"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>167</v>
@@ -31427,7 +31477,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="27">
+    <row r="13" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
         <v>165</v>
       </c>
@@ -31450,7 +31500,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="27">
+    <row r="14" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A14" s="52"/>
       <c r="B14" s="21" t="s">
         <v>171</v>
@@ -31471,7 +31521,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="27">
+    <row r="15" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A15" s="52"/>
       <c r="B15" s="21" t="s">
         <v>171</v>
@@ -31492,7 +31542,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="27">
+    <row r="16" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A16" s="52"/>
       <c r="B16" s="21" t="s">
         <v>171</v>
@@ -31513,7 +31563,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="27">
+    <row r="17" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A17" s="52"/>
       <c r="B17" s="21" t="s">
         <v>171</v>
@@ -31534,7 +31584,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="27">
+    <row r="18" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A18" s="52"/>
       <c r="B18" s="21" t="s">
         <v>171</v>
@@ -31555,7 +31605,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="27">
+    <row r="19" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A19" s="52"/>
       <c r="B19" s="21" t="s">
         <v>171</v>
@@ -31576,7 +31626,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="27">
+    <row r="20" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A20" s="52"/>
       <c r="B20" s="21" t="s">
         <v>171</v>
@@ -31597,7 +31647,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="27">
+    <row r="21" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A21" s="52"/>
       <c r="B21" s="21" t="s">
         <v>171</v>
@@ -31618,7 +31668,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="27">
+    <row r="22" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A22" s="52"/>
       <c r="B22" s="21" t="s">
         <v>171</v>
@@ -31639,7 +31689,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="27">
+    <row r="23" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A23" s="52"/>
       <c r="B23" s="21" t="s">
         <v>171</v>
@@ -31660,7 +31710,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="27">
+    <row r="24" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A24" s="52"/>
       <c r="B24" s="21" t="s">
         <v>171</v>
@@ -31681,7 +31731,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="27">
+    <row r="25" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A25" s="52"/>
       <c r="B25" s="21" t="s">
         <v>171</v>
@@ -31702,7 +31752,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="27">
+    <row r="26" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A26" s="52"/>
       <c r="B26" s="21" t="s">
         <v>171</v>
@@ -31723,7 +31773,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="27">
+    <row r="27" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A27" s="52"/>
       <c r="B27" s="21" t="s">
         <v>171</v>
@@ -31744,7 +31794,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="27">
+    <row r="28" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A28" s="52"/>
       <c r="B28" s="21" t="s">
         <v>171</v>
@@ -31765,7 +31815,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="27">
+    <row r="29" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A29" s="52"/>
       <c r="B29" s="21" t="s">
         <v>171</v>
@@ -31786,7 +31836,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="27">
+    <row r="30" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A30" s="52"/>
       <c r="B30" s="21" t="s">
         <v>171</v>
@@ -31807,7 +31857,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="27">
+    <row r="31" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A31" s="52"/>
       <c r="B31" s="21" t="s">
         <v>171</v>
@@ -31828,7 +31878,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="27">
+    <row r="32" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A32" s="52"/>
       <c r="B32" s="21" t="s">
         <v>171</v>
@@ -31849,7 +31899,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="27">
+    <row r="33" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A33" s="52"/>
       <c r="B33" s="21" t="s">
         <v>171</v>
@@ -31870,7 +31920,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="27">
+    <row r="34" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A34" s="52"/>
       <c r="B34" s="21" t="s">
         <v>171</v>
@@ -31891,7 +31941,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="27">
+    <row r="35" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A35" s="52"/>
       <c r="B35" s="21" t="s">
         <v>171</v>
@@ -31912,7 +31962,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="27">
+    <row r="36" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A36" s="52"/>
       <c r="B36" s="21" t="s">
         <v>171</v>
@@ -31933,7 +31983,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="27">
+    <row r="37" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A37" s="52"/>
       <c r="B37" s="21" t="s">
         <v>171</v>
@@ -31954,7 +32004,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="27">
+    <row r="38" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A38" s="52"/>
       <c r="B38" s="21" t="s">
         <v>171</v>
@@ -31975,7 +32025,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="52"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
@@ -31984,7 +32034,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="21"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="52"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -31993,7 +32043,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="21"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
         <v>167</v>
@@ -32014,7 +32064,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="27">
+    <row r="46" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
         <v>165</v>
       </c>
@@ -32037,7 +32087,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="27">
+    <row r="47" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A47" s="52"/>
       <c r="B47" s="3" t="s">
         <v>181</v>
@@ -32058,7 +32108,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="27">
+    <row r="48" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A48" s="52"/>
       <c r="B48" s="3" t="s">
         <v>181</v>
@@ -32079,7 +32129,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="27">
+    <row r="49" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A49" s="52"/>
       <c r="B49" s="3" t="s">
         <v>181</v>
@@ -32100,7 +32150,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="27">
+    <row r="50" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A50" s="52"/>
       <c r="B50" s="3" t="s">
         <v>181</v>
@@ -32121,7 +32171,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="27">
+    <row r="51" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A51" s="52"/>
       <c r="B51" s="3" t="s">
         <v>181</v>
@@ -32142,7 +32192,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="27">
+    <row r="52" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A52" s="52"/>
       <c r="B52" s="3" t="s">
         <v>181</v>
@@ -32163,7 +32213,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="27">
+    <row r="53" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A53" s="52"/>
       <c r="B53" s="3" t="s">
         <v>181</v>
@@ -32184,7 +32234,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="27">
+    <row r="54" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A54" s="52"/>
       <c r="B54" s="3" t="s">
         <v>181</v>
@@ -32205,7 +32255,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="27">
+    <row r="55" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A55" s="52"/>
       <c r="B55" s="3" t="s">
         <v>181</v>
@@ -32226,7 +32276,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="27">
+    <row r="56" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A56" s="52"/>
       <c r="B56" s="3" t="s">
         <v>181</v>
@@ -32247,7 +32297,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="27">
+    <row r="57" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A57" s="52"/>
       <c r="B57" s="3" t="s">
         <v>181</v>
@@ -32268,7 +32318,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="27">
+    <row r="58" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A58" s="52"/>
       <c r="B58" s="3" t="s">
         <v>181</v>
@@ -32289,7 +32339,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="27">
+    <row r="59" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A59" s="52"/>
       <c r="B59" s="3" t="s">
         <v>181</v>
@@ -32310,7 +32360,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="27">
+    <row r="60" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A60" s="52"/>
       <c r="B60" s="3" t="s">
         <v>181</v>
@@ -32331,7 +32381,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="27">
+    <row r="61" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A61" s="52"/>
       <c r="B61" s="3" t="s">
         <v>181</v>
@@ -32352,7 +32402,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="27">
+    <row r="62" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A62" s="52"/>
       <c r="B62" s="3" t="s">
         <v>181</v>
@@ -32373,7 +32423,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="27">
+    <row r="63" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A63" s="52"/>
       <c r="B63" s="3" t="s">
         <v>181</v>
@@ -32394,7 +32444,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="27">
+    <row r="64" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A64" s="52"/>
       <c r="B64" s="3" t="s">
         <v>181</v>
@@ -32415,7 +32465,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="27">
+    <row r="65" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A65" s="52"/>
       <c r="B65" s="3" t="s">
         <v>181</v>
@@ -32436,7 +32486,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="27">
+    <row r="66" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A66" s="52"/>
       <c r="B66" s="3" t="s">
         <v>181</v>
@@ -32457,7 +32507,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="27">
+    <row r="67" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A67" s="52"/>
       <c r="B67" s="3" t="s">
         <v>181</v>
@@ -32478,7 +32528,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="27">
+    <row r="68" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A68" s="52"/>
       <c r="B68" s="3" t="s">
         <v>181</v>
@@ -32499,7 +32549,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="27">
+    <row r="69" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A69" s="52"/>
       <c r="B69" s="3" t="s">
         <v>181</v>
@@ -32520,7 +32570,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="27">
+    <row r="70" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A70" s="52"/>
       <c r="B70" s="3" t="s">
         <v>181</v>
@@ -32541,7 +32591,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="27">
+    <row r="71" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A71" s="52"/>
       <c r="B71" s="3" t="s">
         <v>181</v>
@@ -32562,7 +32612,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="52"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -32571,7 +32621,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="21"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="52"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -32580,7 +32630,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="21"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
         <v>167</v>
@@ -32601,7 +32651,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="27">
+    <row r="78" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A78" s="52" t="s">
         <v>165</v>
       </c>
@@ -32624,7 +32674,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="27">
+    <row r="79" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A79" s="52"/>
       <c r="B79" s="3" t="s">
         <v>172</v>
@@ -32645,7 +32695,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="27">
+    <row r="80" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A80" s="52"/>
       <c r="B80" s="3" t="s">
         <v>172</v>
@@ -32666,7 +32716,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="27">
+    <row r="81" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A81" s="52"/>
       <c r="B81" s="3" t="s">
         <v>172</v>
@@ -32687,7 +32737,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="27">
+    <row r="82" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A82" s="52"/>
       <c r="B82" s="3" t="s">
         <v>172</v>
@@ -32708,7 +32758,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="27">
+    <row r="83" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A83" s="52"/>
       <c r="B83" s="3" t="s">
         <v>172</v>
@@ -32729,7 +32779,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="27">
+    <row r="84" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A84" s="52"/>
       <c r="B84" s="3" t="s">
         <v>172</v>
@@ -32750,7 +32800,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="27">
+    <row r="85" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A85" s="52"/>
       <c r="B85" s="3" t="s">
         <v>172</v>
@@ -32771,7 +32821,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="27">
+    <row r="86" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A86" s="52"/>
       <c r="B86" s="3" t="s">
         <v>172</v>
@@ -32792,7 +32842,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="27">
+    <row r="87" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A87" s="52"/>
       <c r="B87" s="3" t="s">
         <v>172</v>
@@ -32813,7 +32863,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="27">
+    <row r="88" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A88" s="52"/>
       <c r="B88" s="3" t="s">
         <v>172</v>
@@ -32834,7 +32884,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="27">
+    <row r="89" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A89" s="52"/>
       <c r="B89" s="3" t="s">
         <v>172</v>
@@ -32855,7 +32905,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="27">
+    <row r="90" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A90" s="52"/>
       <c r="B90" s="3" t="s">
         <v>172</v>
@@ -32876,7 +32926,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="27">
+    <row r="91" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A91" s="52"/>
       <c r="B91" s="3" t="s">
         <v>172</v>
@@ -32897,7 +32947,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="27">
+    <row r="92" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A92" s="52"/>
       <c r="B92" s="3" t="s">
         <v>172</v>
@@ -32918,7 +32968,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="27">
+    <row r="93" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A93" s="52"/>
       <c r="B93" s="3" t="s">
         <v>172</v>
@@ -32939,7 +32989,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="27">
+    <row r="94" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A94" s="52"/>
       <c r="B94" s="3" t="s">
         <v>172</v>
@@ -32960,7 +33010,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="27">
+    <row r="95" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A95" s="52"/>
       <c r="B95" s="3" t="s">
         <v>172</v>
@@ -32981,7 +33031,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="27">
+    <row r="96" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A96" s="52"/>
       <c r="B96" s="3" t="s">
         <v>172</v>
@@ -33002,7 +33052,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="27">
+    <row r="97" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A97" s="52"/>
       <c r="B97" s="3" t="s">
         <v>172</v>
@@ -33023,7 +33073,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="27">
+    <row r="98" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A98" s="52"/>
       <c r="B98" s="3" t="s">
         <v>172</v>
@@ -33044,7 +33094,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="27">
+    <row r="99" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A99" s="52"/>
       <c r="B99" s="3" t="s">
         <v>172</v>
@@ -33065,7 +33115,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="27">
+    <row r="100" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A100" s="52"/>
       <c r="B100" s="3" t="s">
         <v>172</v>
@@ -33086,7 +33136,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="27">
+    <row r="101" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A101" s="52"/>
       <c r="B101" s="3" t="s">
         <v>172</v>
@@ -33107,7 +33157,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="27">
+    <row r="102" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A102" s="52"/>
       <c r="B102" s="3" t="s">
         <v>172</v>
@@ -33128,7 +33178,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="27">
+    <row r="103" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A103" s="52"/>
       <c r="B103" s="3" t="s">
         <v>172</v>
@@ -33149,7 +33199,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="52"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -33158,7 +33208,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="21"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="52"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -33167,7 +33217,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="21"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
         <v>167</v>
@@ -33188,7 +33238,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="27">
+    <row r="110" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A110" s="52" t="s">
         <v>104</v>
       </c>
@@ -33211,7 +33261,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="27">
+    <row r="111" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A111" s="52"/>
       <c r="B111" s="21" t="s">
         <v>189</v>
@@ -33232,7 +33282,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="27">
+    <row r="112" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A112" s="52"/>
       <c r="B112" s="21" t="s">
         <v>187</v>
@@ -33253,7 +33303,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
         <v>167</v>
@@ -33274,7 +33324,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="27">
+    <row r="116" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A116" s="52" t="s">
         <v>166</v>
       </c>
@@ -33297,7 +33347,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="27">
+    <row r="117" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A117" s="52"/>
       <c r="B117" s="21" t="s">
         <v>206</v>
@@ -33318,7 +33368,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="27">
+    <row r="118" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A118" s="52"/>
       <c r="B118" s="21" t="s">
         <v>206</v>
@@ -33339,7 +33389,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="27">
+    <row r="119" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A119" s="52"/>
       <c r="B119" s="21" t="s">
         <v>206</v>
@@ -33360,7 +33410,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="27">
+    <row r="120" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A120" s="52"/>
       <c r="B120" s="21" t="s">
         <v>206</v>
@@ -33381,7 +33431,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="27">
+    <row r="121" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A121" s="52"/>
       <c r="B121" s="21" t="s">
         <v>206</v>
@@ -33402,7 +33452,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="27">
+    <row r="122" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A122" s="52"/>
       <c r="B122" s="21" t="s">
         <v>206</v>
@@ -33423,7 +33473,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="27">
+    <row r="123" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A123" s="52"/>
       <c r="B123" s="21" t="s">
         <v>206</v>
@@ -33444,7 +33494,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="27">
+    <row r="124" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A124" s="52"/>
       <c r="B124" s="21" t="s">
         <v>206</v>
@@ -33465,7 +33515,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="27">
+    <row r="125" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A125" s="52"/>
       <c r="B125" s="21" t="s">
         <v>206</v>
@@ -33486,7 +33536,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="27">
+    <row r="126" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A126" s="52"/>
       <c r="B126" s="21" t="s">
         <v>206</v>
@@ -33507,7 +33557,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="27">
+    <row r="127" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A127" s="52"/>
       <c r="B127" s="21" t="s">
         <v>206</v>
@@ -33528,7 +33578,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="27">
+    <row r="128" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A128" s="52"/>
       <c r="B128" s="21" t="s">
         <v>206</v>
@@ -33549,7 +33599,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="12.75" customHeight="1">
+    <row r="129" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="52"/>
       <c r="B129" s="21" t="s">
         <v>206</v>
@@ -33570,7 +33620,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="27">
+    <row r="130" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A130" s="52"/>
       <c r="B130" s="21" t="s">
         <v>206</v>
@@ -33591,7 +33641,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="27">
+    <row r="131" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A131" s="52"/>
       <c r="B131" s="21" t="s">
         <v>206</v>
@@ -33612,7 +33662,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="27">
+    <row r="132" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A132" s="52"/>
       <c r="B132" s="21" t="s">
         <v>206</v>
@@ -33633,7 +33683,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="27">
+    <row r="133" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A133" s="52"/>
       <c r="B133" s="21" t="s">
         <v>206</v>
@@ -33654,7 +33704,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="27">
+    <row r="134" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A134" s="52"/>
       <c r="B134" s="21" t="s">
         <v>206</v>
@@ -33675,7 +33725,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="27">
+    <row r="135" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A135" s="52"/>
       <c r="B135" s="21" t="s">
         <v>206</v>
@@ -33696,7 +33746,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="27">
+    <row r="136" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A136" s="52"/>
       <c r="B136" s="21" t="s">
         <v>206</v>
@@ -33717,7 +33767,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="27">
+    <row r="137" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A137" s="52"/>
       <c r="B137" s="21" t="s">
         <v>206</v>
@@ -33738,7 +33788,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="27">
+    <row r="138" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A138" s="52"/>
       <c r="B138" s="21" t="s">
         <v>206</v>
@@ -33759,7 +33809,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="27">
+    <row r="139" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A139" s="52"/>
       <c r="B139" s="21" t="s">
         <v>206</v>
@@ -33780,7 +33830,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="27">
+    <row r="140" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A140" s="52"/>
       <c r="B140" s="21" t="s">
         <v>206</v>
@@ -33801,7 +33851,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="27">
+    <row r="141" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A141" s="52"/>
       <c r="B141" s="21" t="s">
         <v>206</v>
@@ -33822,7 +33872,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="27">
+    <row r="142" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A142" s="52"/>
       <c r="B142" s="21" t="s">
         <v>206</v>

--- a/Sonia_IndiaLab_English_20200710.xlsx
+++ b/Sonia_IndiaLab_English_20200710.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF309662-613A-4A7E-B387-EBBE09EDF7C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7521B62A-F89A-4D88-9221-7D9E31C2594E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アプリ配置 (必須)" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3256" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3254" uniqueCount="562">
   <si>
     <t>ビックカメラ</t>
     <phoneticPr fontId="1"/>
@@ -2927,25 +2927,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -3356,15 +3356,15 @@
       <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -3376,7 +3376,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="52"/>
       <c r="B3" s="52" t="s">
         <v>14</v>
@@ -3402,7 +3402,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="52"/>
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
@@ -3410,7 +3410,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="52"/>
       <c r="B5" s="52" t="s">
         <v>9</v>
@@ -3422,7 +3422,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="52"/>
       <c r="B6" s="52"/>
       <c r="C6" s="52"/>
@@ -3430,7 +3430,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="52"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -3442,7 +3442,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="52"/>
       <c r="B8" s="3" t="s">
         <v>118</v>
@@ -3454,7 +3454,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="52"/>
       <c r="B9" s="3" t="s">
         <v>119</v>
@@ -3466,7 +3466,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="52"/>
       <c r="B10" s="3" t="s">
         <v>120</v>
@@ -3478,7 +3478,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="52"/>
       <c r="B11" s="3" t="s">
         <v>121</v>
@@ -3490,7 +3490,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="52"/>
       <c r="B12" s="1" t="s">
         <v>122</v>
@@ -3502,7 +3502,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="52" t="s">
         <v>1</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="52"/>
       <c r="B14" s="1" t="s">
         <v>47</v>
@@ -3528,7 +3528,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="52"/>
       <c r="B15" s="1" t="s">
         <v>51</v>
@@ -3540,7 +3540,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="52"/>
       <c r="B16" s="1" t="s">
         <v>53</v>
@@ -3552,7 +3552,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="52"/>
       <c r="B17" s="1" t="s">
         <v>66</v>
@@ -3564,7 +3564,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="52"/>
       <c r="B18" s="1" t="s">
         <v>16</v>
@@ -3576,7 +3576,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="52"/>
       <c r="B19" s="1" t="s">
         <v>62</v>
@@ -3588,7 +3588,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="52"/>
       <c r="B20" s="1" t="s">
         <v>18</v>
@@ -3600,7 +3600,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="52"/>
       <c r="B21" s="3" t="s">
         <v>55</v>
@@ -3612,7 +3612,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="52"/>
       <c r="B22" s="1" t="s">
         <v>57</v>
@@ -3624,7 +3624,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="52"/>
       <c r="B23" s="1" t="s">
         <v>59</v>
@@ -3636,7 +3636,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="52"/>
       <c r="B24" s="1" t="s">
         <v>70</v>
@@ -3648,7 +3648,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="52"/>
       <c r="B25" s="1" t="s">
         <v>43</v>
@@ -3660,7 +3660,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="52"/>
       <c r="B26" s="1" t="s">
         <v>84</v>
@@ -3672,7 +3672,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="52"/>
       <c r="B27" s="1" t="s">
         <v>80</v>
@@ -3684,7 +3684,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="52"/>
       <c r="B28" s="1" t="s">
         <v>82</v>
@@ -3696,7 +3696,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="52"/>
       <c r="B29" s="1" t="s">
         <v>88</v>
@@ -3708,7 +3708,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="52"/>
       <c r="B30" s="1" t="s">
         <v>72</v>
@@ -3720,7 +3720,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="52"/>
       <c r="B31" s="1" t="s">
         <v>74</v>
@@ -3732,7 +3732,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="52"/>
       <c r="B32" s="1" t="s">
         <v>76</v>
@@ -3744,7 +3744,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="52"/>
       <c r="B33" s="1" t="s">
         <v>78</v>
@@ -3756,7 +3756,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="52"/>
       <c r="B34" s="1" t="s">
         <v>69</v>
@@ -3768,7 +3768,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="52"/>
       <c r="B35" s="3" t="s">
         <v>86</v>
@@ -3780,7 +3780,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="52"/>
       <c r="B36" s="3" t="s">
         <v>44</v>
@@ -3792,7 +3792,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="52"/>
       <c r="B37" s="3" t="s">
         <v>44</v>
@@ -3804,7 +3804,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="52"/>
       <c r="B38" s="3" t="s">
         <v>44</v>
@@ -3816,7 +3816,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="52"/>
       <c r="B39" s="3" t="s">
         <v>44</v>
@@ -3828,7 +3828,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="52"/>
       <c r="B40" s="3" t="s">
         <v>44</v>
@@ -3840,7 +3840,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="52"/>
       <c r="B41" s="3" t="s">
         <v>140</v>
@@ -3852,7 +3852,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="52"/>
       <c r="B42" s="3" t="s">
         <v>108</v>
@@ -3864,7 +3864,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="52"/>
       <c r="B43" s="3" t="s">
         <v>112</v>
@@ -3876,7 +3876,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="52"/>
       <c r="B44" s="3" t="s">
         <v>114</v>
@@ -3888,7 +3888,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="52"/>
       <c r="B45" s="3" t="s">
         <v>122</v>
@@ -3900,7 +3900,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="52"/>
       <c r="B46" s="3" t="s">
         <v>123</v>
@@ -3912,7 +3912,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="52"/>
       <c r="B47" s="3" t="s">
         <v>138</v>
@@ -3924,7 +3924,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="52"/>
       <c r="B48" s="3" t="s">
         <v>138</v>
@@ -3936,7 +3936,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="52" t="s">
         <v>2</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="52"/>
       <c r="B50" s="3" t="s">
         <v>8</v>
@@ -3962,7 +3962,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="52"/>
       <c r="B51" s="3" t="s">
         <v>18</v>
@@ -3974,7 +3974,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="52"/>
       <c r="B52" s="3" t="s">
         <v>72</v>
@@ -3986,7 +3986,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="52"/>
       <c r="B53" s="3" t="s">
         <v>74</v>
@@ -3998,7 +3998,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="52"/>
       <c r="B54" s="3" t="s">
         <v>78</v>
@@ -4010,7 +4010,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="52"/>
       <c r="B55" s="3" t="s">
         <v>82</v>
@@ -4022,7 +4022,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="52"/>
       <c r="B56" s="3" t="s">
         <v>86</v>
@@ -4034,7 +4034,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="52"/>
       <c r="B57" s="3" t="s">
         <v>111</v>
@@ -4046,7 +4046,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="52"/>
       <c r="B58" s="3" t="s">
         <v>55</v>
@@ -4058,7 +4058,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="52"/>
       <c r="B59" s="3" t="s">
         <v>129</v>
@@ -4070,7 +4070,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="52"/>
       <c r="B60" s="3" t="s">
         <v>122</v>
@@ -4082,7 +4082,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="52" t="s">
         <v>35</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="52"/>
       <c r="B62" s="3" t="s">
         <v>107</v>
@@ -4108,7 +4108,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="52"/>
       <c r="B63" s="3" t="s">
         <v>122</v>
@@ -4120,7 +4120,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="52" t="s">
         <v>36</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="52"/>
       <c r="B65" s="3" t="s">
         <v>26</v>
@@ -4146,7 +4146,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="52"/>
       <c r="B66" s="3" t="s">
         <v>122</v>
@@ -4158,7 +4158,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="52" t="s">
         <v>3</v>
       </c>
@@ -4172,27 +4172,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="52"/>
-      <c r="B68" s="53" t="s">
+      <c r="B68" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="53" t="s">
+      <c r="C68" s="55" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="52"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="53"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="55"/>
       <c r="D69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="52"/>
       <c r="B70" s="3" t="s">
         <v>31</v>
@@ -4204,27 +4204,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="52"/>
-      <c r="B71" s="53" t="s">
+      <c r="B71" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="53" t="s">
+      <c r="C71" s="55" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="52"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="53"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="55"/>
       <c r="D72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="52"/>
       <c r="B73" s="3" t="s">
         <v>26</v>
@@ -4236,7 +4236,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="52"/>
       <c r="B74" s="3" t="s">
         <v>122</v>
@@ -4248,7 +4248,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="52" t="s">
         <v>127</v>
       </c>
@@ -4262,47 +4262,47 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="52"/>
-      <c r="B76" s="53" t="s">
+      <c r="B76" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C76" s="53" t="s">
+      <c r="C76" s="55" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="52"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="53"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="55"/>
       <c r="D77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="52"/>
-      <c r="B78" s="53" t="s">
+      <c r="B78" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="53" t="s">
+      <c r="C78" s="55" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="52"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="53"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="55"/>
       <c r="D79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="52"/>
       <c r="B80" s="3" t="s">
         <v>26</v>
@@ -4314,7 +4314,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="52"/>
       <c r="B81" s="3" t="s">
         <v>122</v>
@@ -4326,7 +4326,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="52" t="s">
         <v>4</v>
       </c>
@@ -4340,27 +4340,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="52"/>
-      <c r="B83" s="54" t="s">
+      <c r="B83" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="54" t="s">
+      <c r="C83" s="53" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="52"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
+      <c r="B84" s="54"/>
+      <c r="C84" s="54"/>
       <c r="D84" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="52"/>
       <c r="B85" s="3" t="s">
         <v>20</v>
@@ -4372,7 +4372,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="52"/>
       <c r="B86" s="3" t="s">
         <v>122</v>
@@ -4384,13 +4384,27 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C88" s="14" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="A49:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A74"/>
+    <mergeCell ref="B68:B69"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
@@ -4399,20 +4413,6 @@
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="A75:A81"/>
     <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="A49:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A74"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
@@ -4428,19 +4428,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="5" width="23.88671875" customWidth="1"/>
+    <col min="1" max="1" width="32.375" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="24.375" customWidth="1"/>
+    <col min="4" max="5" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>297</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="52" t="s">
         <v>166</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="52"/>
       <c r="B3" s="21" t="s">
         <v>205</v>
@@ -4489,7 +4489,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="52"/>
       <c r="B4" s="21" t="s">
         <v>205</v>
@@ -4504,7 +4504,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="52"/>
       <c r="B5" s="21" t="s">
         <v>205</v>
@@ -4519,7 +4519,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="52"/>
       <c r="B6" s="21" t="s">
         <v>205</v>
@@ -4534,7 +4534,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="52"/>
       <c r="B7" s="21" t="s">
         <v>205</v>
@@ -4549,7 +4549,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="52"/>
       <c r="B8" s="21" t="s">
         <v>205</v>
@@ -4564,7 +4564,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="52"/>
       <c r="B9" s="21" t="s">
         <v>205</v>
@@ -4579,7 +4579,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="52"/>
       <c r="B10" s="21" t="s">
         <v>205</v>
@@ -4594,7 +4594,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="52"/>
       <c r="B11" s="21" t="s">
         <v>205</v>
@@ -4609,7 +4609,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="52"/>
       <c r="B12" s="21" t="s">
         <v>205</v>
@@ -4624,7 +4624,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="52"/>
       <c r="B13" s="21" t="s">
         <v>205</v>
@@ -4639,7 +4639,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="52"/>
       <c r="B14" s="21" t="s">
         <v>205</v>
@@ -4654,7 +4654,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="52"/>
       <c r="B15" s="21" t="s">
         <v>205</v>
@@ -4669,7 +4669,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="52"/>
       <c r="B16" s="21" t="s">
         <v>205</v>
@@ -4684,7 +4684,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="52"/>
       <c r="B17" s="21" t="s">
         <v>205</v>
@@ -4699,7 +4699,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="52"/>
       <c r="B18" s="21" t="s">
         <v>205</v>
@@ -4714,7 +4714,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="52"/>
       <c r="B19" s="21" t="s">
         <v>205</v>
@@ -4729,7 +4729,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="76" t="s">
         <v>166</v>
       </c>
@@ -4744,7 +4744,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="77"/>
       <c r="B21" s="21" t="s">
         <v>196</v>
@@ -4757,7 +4757,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="77"/>
       <c r="B22" s="21" t="s">
         <v>197</v>
@@ -4770,7 +4770,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="77"/>
       <c r="B23" s="21" t="s">
         <v>197</v>
@@ -4783,7 +4783,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="77"/>
       <c r="B24" s="21" t="s">
         <v>201</v>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="77"/>
       <c r="B25" s="21" t="s">
         <v>201</v>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="77"/>
       <c r="B26" s="21" t="s">
         <v>202</v>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="77"/>
       <c r="B27" s="21" t="s">
         <v>202</v>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="77"/>
       <c r="B28" s="21" t="s">
         <v>204</v>
@@ -4848,7 +4848,7 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="78"/>
       <c r="B29" s="21" t="s">
         <v>204</v>
@@ -4861,35 +4861,35 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -4921,16 +4921,16 @@
       <selection pane="bottomRight" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
-    <col min="5" max="5" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -4943,7 +4943,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="52" t="s">
         <v>165</v>
       </c>
@@ -4958,9 +4958,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="52"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="58" t="s">
         <v>171</v>
       </c>
       <c r="C3" s="52" t="s">
@@ -4971,18 +4971,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="52"/>
-      <c r="B4" s="57"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="52"/>
       <c r="D4" s="10"/>
       <c r="E4" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="52"/>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="58" t="s">
         <v>172</v>
       </c>
       <c r="C5" s="52" t="s">
@@ -4993,16 +4993,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="52"/>
-      <c r="B6" s="57"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="52"/>
       <c r="D6" s="10"/>
       <c r="E6" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="52"/>
       <c r="B7" s="1" t="s">
         <v>177</v>
@@ -5015,7 +5015,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="52"/>
       <c r="B8" s="3" t="s">
         <v>173</v>
@@ -5030,7 +5030,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="52"/>
       <c r="B9" s="3" t="s">
         <v>178</v>
@@ -5045,7 +5045,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="52"/>
       <c r="B10" s="3" t="s">
         <v>179</v>
@@ -5058,7 +5058,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="52"/>
       <c r="B11" s="3" t="s">
         <v>180</v>
@@ -5071,7 +5071,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="52"/>
       <c r="B12" s="1" t="s">
         <v>174</v>
@@ -5084,7 +5084,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="52" t="s">
         <v>166</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="52"/>
       <c r="B14" s="1" t="s">
         <v>183</v>
@@ -5112,7 +5112,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="52"/>
       <c r="B15" s="1" t="s">
         <v>184</v>
@@ -5125,7 +5125,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="52"/>
       <c r="B16" s="1" t="s">
         <v>185</v>
@@ -5138,7 +5138,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="52"/>
       <c r="B17" s="1" t="s">
         <v>186</v>
@@ -5151,7 +5151,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="52"/>
       <c r="B18" s="1" t="s">
         <v>187</v>
@@ -5164,7 +5164,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="52"/>
       <c r="B19" s="1" t="s">
         <v>188</v>
@@ -5177,7 +5177,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="52"/>
       <c r="B20" s="1" t="s">
         <v>189</v>
@@ -5190,7 +5190,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="52"/>
       <c r="B21" s="3" t="s">
         <v>190</v>
@@ -5203,7 +5203,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="52"/>
       <c r="B22" s="1" t="s">
         <v>191</v>
@@ -5216,7 +5216,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="52"/>
       <c r="B23" s="1" t="s">
         <v>192</v>
@@ -5229,7 +5229,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="52"/>
       <c r="B24" s="1" t="s">
         <v>193</v>
@@ -5242,7 +5242,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="52"/>
       <c r="B25" s="1" t="s">
         <v>194</v>
@@ -5255,7 +5255,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="52"/>
       <c r="B26" s="1" t="s">
         <v>195</v>
@@ -5268,7 +5268,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="52"/>
       <c r="B27" s="1" t="s">
         <v>196</v>
@@ -5281,7 +5281,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="52"/>
       <c r="B28" s="1" t="s">
         <v>197</v>
@@ -5294,7 +5294,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="52"/>
       <c r="B29" s="1" t="s">
         <v>198</v>
@@ -5307,7 +5307,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="52"/>
       <c r="B30" s="1" t="s">
         <v>199</v>
@@ -5320,7 +5320,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="52"/>
       <c r="B31" s="1" t="s">
         <v>200</v>
@@ -5333,7 +5333,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="52"/>
       <c r="B32" s="1" t="s">
         <v>201</v>
@@ -5346,7 +5346,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="52"/>
       <c r="B33" s="1" t="s">
         <v>202</v>
@@ -5359,7 +5359,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="52"/>
       <c r="B34" s="1" t="s">
         <v>203</v>
@@ -5372,7 +5372,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="52"/>
       <c r="B35" s="3" t="s">
         <v>204</v>
@@ -5385,7 +5385,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="52"/>
       <c r="B36" s="3" t="s">
         <v>205</v>
@@ -5398,7 +5398,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="52"/>
       <c r="B37" s="3" t="s">
         <v>205</v>
@@ -5411,7 +5411,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="52"/>
       <c r="B38" s="3" t="s">
         <v>205</v>
@@ -5424,7 +5424,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="52"/>
       <c r="B39" s="3" t="s">
         <v>205</v>
@@ -5437,7 +5437,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="52"/>
       <c r="B40" s="3" t="s">
         <v>205</v>
@@ -5450,7 +5450,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="52"/>
       <c r="B41" s="3" t="s">
         <v>206</v>
@@ -5463,7 +5463,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="52"/>
       <c r="B42" s="3" t="s">
         <v>207</v>
@@ -5478,7 +5478,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="52"/>
       <c r="B43" s="3" t="s">
         <v>225</v>
@@ -5493,7 +5493,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="52"/>
       <c r="B44" s="3" t="s">
         <v>226</v>
@@ -5508,7 +5508,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="52"/>
       <c r="B45" s="3" t="s">
         <v>174</v>
@@ -5521,7 +5521,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="52"/>
       <c r="B46" s="3" t="s">
         <v>208</v>
@@ -5534,7 +5534,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="52"/>
       <c r="B47" s="3" t="s">
         <v>209</v>
@@ -5547,7 +5547,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="52"/>
       <c r="B48" s="3" t="s">
         <v>209</v>
@@ -5560,7 +5560,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="52" t="s">
         <v>175</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="52"/>
       <c r="B50" s="3" t="s">
         <v>211</v>
@@ -5588,7 +5588,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="52"/>
       <c r="B51" s="3" t="s">
         <v>189</v>
@@ -5601,7 +5601,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="52"/>
       <c r="B52" s="3" t="s">
         <v>199</v>
@@ -5614,7 +5614,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="52"/>
       <c r="B53" s="3" t="s">
         <v>212</v>
@@ -5627,7 +5627,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="52"/>
       <c r="B54" s="3" t="s">
         <v>202</v>
@@ -5640,7 +5640,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="52"/>
       <c r="B55" s="3" t="s">
         <v>197</v>
@@ -5653,7 +5653,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="52"/>
       <c r="B56" s="3" t="s">
         <v>204</v>
@@ -5666,7 +5666,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="52"/>
       <c r="B57" s="3" t="s">
         <v>213</v>
@@ -5681,7 +5681,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="52"/>
       <c r="B58" s="3" t="s">
         <v>190</v>
@@ -5694,7 +5694,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="52"/>
       <c r="B59" s="3" t="s">
         <v>214</v>
@@ -5709,7 +5709,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="52"/>
       <c r="B60" s="3" t="s">
         <v>174</v>
@@ -5722,7 +5722,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="52" t="s">
         <v>176</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="52"/>
       <c r="B62" s="3" t="s">
         <v>216</v>
@@ -5750,7 +5750,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="52"/>
       <c r="B63" s="3" t="s">
         <v>174</v>
@@ -5763,7 +5763,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="52" t="s">
         <v>168</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="52"/>
       <c r="B65" s="3" t="s">
         <v>215</v>
@@ -5791,7 +5791,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="52"/>
       <c r="B66" s="3" t="s">
         <v>174</v>
@@ -5804,7 +5804,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="52" t="s">
         <v>169</v>
       </c>
@@ -5819,12 +5819,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="52"/>
-      <c r="B68" s="58" t="s">
+      <c r="B68" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="C68" s="53" t="s">
+      <c r="C68" s="55" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="13"/>
@@ -5832,16 +5832,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="52"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="53"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="55"/>
       <c r="D69" s="13"/>
       <c r="E69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="52"/>
       <c r="B70" s="3" t="s">
         <v>220</v>
@@ -5854,12 +5854,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="52"/>
-      <c r="B71" s="53" t="s">
+      <c r="B71" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="53" t="s">
+      <c r="C71" s="55" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="13"/>
@@ -5867,16 +5867,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="52"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="53"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="55"/>
       <c r="D72" s="13"/>
       <c r="E72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="52"/>
       <c r="B73" s="3" t="s">
         <v>215</v>
@@ -5889,7 +5889,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="52"/>
       <c r="B74" s="3" t="s">
         <v>174</v>
@@ -5902,7 +5902,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="52" t="s">
         <v>106</v>
       </c>
@@ -5917,12 +5917,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="52"/>
-      <c r="B76" s="58" t="s">
+      <c r="B76" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="C76" s="53" t="s">
+      <c r="C76" s="55" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="13"/>
@@ -5930,21 +5930,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="52"/>
-      <c r="B77" s="59"/>
-      <c r="C77" s="53"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="55"/>
       <c r="D77" s="13"/>
       <c r="E77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="52"/>
-      <c r="B78" s="53" t="s">
+      <c r="B78" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="C78" s="53" t="s">
+      <c r="C78" s="55" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="13"/>
@@ -5952,16 +5952,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="52"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="53"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="55"/>
       <c r="D79" s="13"/>
       <c r="E79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="52"/>
       <c r="B80" s="3" t="s">
         <v>215</v>
@@ -5974,7 +5974,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="52"/>
       <c r="B81" s="3" t="s">
         <v>174</v>
@@ -5987,7 +5987,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="52" t="s">
         <v>104</v>
       </c>
@@ -6002,12 +6002,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="52"/>
-      <c r="B83" s="54" t="s">
+      <c r="B83" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="C83" s="54" t="s">
+      <c r="C83" s="53" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="11"/>
@@ -6015,16 +6015,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="52"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
+      <c r="B84" s="54"/>
+      <c r="C84" s="54"/>
       <c r="D84" s="12"/>
       <c r="E84" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="52"/>
       <c r="B85" s="3" t="s">
         <v>218</v>
@@ -6037,7 +6037,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="52"/>
       <c r="B86" s="3" t="s">
         <v>174</v>
@@ -6050,29 +6050,35 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C88" s="14" t="s">
         <v>170</v>
       </c>
       <c r="D88" s="14"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="20" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>278</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
@@ -6089,12 +6095,6 @@
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="C78:C79"/>
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
@@ -6113,20 +6113,20 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>145</v>
@@ -6135,7 +6135,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="60" t="s">
         <v>147</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="60"/>
       <c r="B5" s="7" t="s">
         <v>149</v>
@@ -6155,7 +6155,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="60"/>
       <c r="B6" s="7" t="s">
         <v>150</v>
@@ -6164,7 +6164,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A7" s="60"/>
       <c r="B7" s="7" t="s">
         <v>151</v>
@@ -6173,7 +6173,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>153</v>
       </c>
@@ -6182,7 +6182,7 @@
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>155</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>157</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>159</v>
       </c>
@@ -6233,20 +6233,20 @@
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.6640625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="38.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="23" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="50.6640625" customWidth="1"/>
-    <col min="8" max="8" width="50.6640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="50.6640625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="50.625" customWidth="1"/>
+    <col min="8" max="8" width="50.625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="50.625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15232" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -6271,7 +6271,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:15232" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15232" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="52" t="s">
         <v>165</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:15232" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15232" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="52"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
@@ -6315,7 +6315,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:15232" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A4" s="52"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -6328,7 +6328,7 @@
       <c r="H4" s="21"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:15232" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A5" s="52"/>
       <c r="B5" s="21" t="s">
         <v>172</v>
@@ -6349,7 +6349,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:15232" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A6" s="52"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -6362,7 +6362,7 @@
       <c r="H6" s="21"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:15232" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A7" s="52"/>
       <c r="B7" s="21" t="s">
         <v>177</v>
@@ -6381,7 +6381,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:15232" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15232" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="52"/>
       <c r="B8" s="21" t="s">
         <v>173</v>
@@ -6400,7 +6400,7 @@
       <c r="H8" s="21"/>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="1:15232" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A9" s="52"/>
       <c r="B9" s="21" t="s">
         <v>178</v>
@@ -6419,7 +6419,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:15232" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A10" s="52"/>
       <c r="B10" s="21" t="s">
         <v>179</v>
@@ -6436,7 +6436,7 @@
       <c r="H10" s="21"/>
       <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="1:15232" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A11" s="52"/>
       <c r="B11" s="21" t="s">
         <v>180</v>
@@ -6453,7 +6453,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="1:15232" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A12" s="52"/>
       <c r="B12" s="21" t="s">
         <v>174</v>
@@ -6470,7 +6470,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="27"/>
     </row>
-    <row r="13" spans="1:15232" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -6480,7 +6480,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="1:15232" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -6490,7 +6490,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:15232" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15232" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="52" t="s">
         <v>166</v>
       </c>
@@ -21734,7 +21734,7 @@
       <c r="VMU15" s="18"/>
       <c r="VMV15" s="18"/>
     </row>
-    <row r="16" spans="1:15232" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A16" s="52"/>
       <c r="B16" s="21" t="s">
         <v>183</v>
@@ -21755,7 +21755,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="52"/>
       <c r="B17" s="21" t="s">
         <v>184</v>
@@ -21776,7 +21776,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="52"/>
       <c r="B18" s="21" t="s">
         <v>185</v>
@@ -21797,7 +21797,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="52"/>
       <c r="B19" s="21" t="s">
         <v>186</v>
@@ -21816,7 +21816,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="28"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="52"/>
       <c r="B20" s="21" t="s">
         <v>187</v>
@@ -21837,7 +21837,7 @@
       </c>
       <c r="I20" s="28"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="52"/>
       <c r="B21" s="21" t="s">
         <v>188</v>
@@ -21858,7 +21858,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="52"/>
       <c r="B22" s="21" t="s">
         <v>189</v>
@@ -21879,7 +21879,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="52"/>
       <c r="B23" s="21" t="s">
         <v>190</v>
@@ -21900,7 +21900,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="52"/>
       <c r="B24" s="21" t="s">
         <v>191</v>
@@ -21921,7 +21921,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="52"/>
       <c r="B25" s="21" t="s">
         <v>192</v>
@@ -21942,7 +21942,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="52"/>
       <c r="B26" s="21" t="s">
         <v>193</v>
@@ -21963,7 +21963,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="52"/>
       <c r="B27" s="21" t="s">
         <v>194</v>
@@ -21984,7 +21984,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="52"/>
       <c r="B28" s="21" t="s">
         <v>195</v>
@@ -22003,7 +22003,7 @@
       <c r="H28" s="21"/>
       <c r="I28" s="28"/>
     </row>
-    <row r="29" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="52"/>
       <c r="B29" s="21" t="s">
         <v>196</v>
@@ -22024,7 +22024,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="52"/>
       <c r="B30" s="21" t="s">
         <v>197</v>
@@ -22045,7 +22045,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="52"/>
       <c r="B31" s="21" t="s">
         <v>198</v>
@@ -22066,7 +22066,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" s="52"/>
       <c r="B32" s="21" t="s">
         <v>199</v>
@@ -22087,7 +22087,7 @@
       </c>
       <c r="I32" s="28"/>
     </row>
-    <row r="33" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" s="52"/>
       <c r="B33" s="21" t="s">
         <v>200</v>
@@ -22108,7 +22108,7 @@
       </c>
       <c r="I33" s="28"/>
     </row>
-    <row r="34" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A34" s="52"/>
       <c r="B34" s="21" t="s">
         <v>201</v>
@@ -22129,7 +22129,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A35" s="52"/>
       <c r="B35" s="21" t="s">
         <v>202</v>
@@ -22150,7 +22150,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="52"/>
       <c r="B36" s="21" t="s">
         <v>203</v>
@@ -22171,7 +22171,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A37" s="52"/>
       <c r="B37" s="21" t="s">
         <v>204</v>
@@ -22192,7 +22192,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="52"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
@@ -22215,7 +22215,7 @@
       </c>
       <c r="I38" s="28"/>
     </row>
-    <row r="39" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="52"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
@@ -22238,7 +22238,7 @@
       </c>
       <c r="I39" s="28"/>
     </row>
-    <row r="40" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="52"/>
       <c r="B40" s="21" t="s">
         <v>205</v>
@@ -22261,7 +22261,7 @@
       </c>
       <c r="I40" s="28"/>
     </row>
-    <row r="41" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="52"/>
       <c r="B41" s="21" t="s">
         <v>205</v>
@@ -22284,7 +22284,7 @@
       </c>
       <c r="I41" s="28"/>
     </row>
-    <row r="42" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="52"/>
       <c r="B42" s="21" t="s">
         <v>205</v>
@@ -22307,7 +22307,7 @@
       </c>
       <c r="I42" s="28"/>
     </row>
-    <row r="43" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="52"/>
       <c r="B43" s="21" t="s">
         <v>206</v>
@@ -22328,7 +22328,7 @@
       </c>
       <c r="I43" s="28"/>
     </row>
-    <row r="44" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="52"/>
       <c r="B44" s="21" t="s">
         <v>207</v>
@@ -22347,7 +22347,7 @@
       <c r="H44" s="21"/>
       <c r="I44" s="28"/>
     </row>
-    <row r="45" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="52"/>
       <c r="B45" s="21" t="s">
         <v>225</v>
@@ -22366,7 +22366,7 @@
       <c r="H45" s="21"/>
       <c r="I45" s="28"/>
     </row>
-    <row r="46" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="52"/>
       <c r="B46" s="21" t="s">
         <v>226</v>
@@ -22385,7 +22385,7 @@
       <c r="H46" s="21"/>
       <c r="I46" s="28"/>
     </row>
-    <row r="47" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="52"/>
       <c r="B47" s="21" t="s">
         <v>174</v>
@@ -22402,7 +22402,7 @@
       <c r="H47" s="21"/>
       <c r="I47" s="28"/>
     </row>
-    <row r="48" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="52"/>
       <c r="B48" s="21" t="s">
         <v>208</v>
@@ -22419,7 +22419,7 @@
       <c r="H48" s="21"/>
       <c r="I48" s="28"/>
     </row>
-    <row r="49" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="52"/>
       <c r="B49" s="21" t="s">
         <v>209</v>
@@ -22436,7 +22436,7 @@
       <c r="H49" s="21"/>
       <c r="I49" s="28"/>
     </row>
-    <row r="50" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="52"/>
       <c r="B50" s="21" t="s">
         <v>209</v>
@@ -22453,7 +22453,7 @@
       <c r="H50" s="21"/>
       <c r="I50" s="28"/>
     </row>
-    <row r="51" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -22464,7 +22464,7 @@
       <c r="H51" s="21"/>
       <c r="I51" s="28"/>
     </row>
-    <row r="52" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -22475,7 +22475,7 @@
       <c r="H52" s="21"/>
       <c r="I52" s="28"/>
     </row>
-    <row r="53" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="52" t="s">
         <v>175</v>
       </c>
@@ -22494,7 +22494,7 @@
       <c r="H53" s="21"/>
       <c r="I53" s="28"/>
     </row>
-    <row r="54" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="52"/>
       <c r="B54" s="21" t="s">
         <v>211</v>
@@ -22511,7 +22511,7 @@
       <c r="H54" s="21"/>
       <c r="I54" s="28"/>
     </row>
-    <row r="55" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="52"/>
       <c r="B55" s="21" t="s">
         <v>189</v>
@@ -22532,7 +22532,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="52"/>
       <c r="B56" s="21" t="s">
         <v>199</v>
@@ -22549,7 +22549,7 @@
       <c r="H56" s="21"/>
       <c r="I56" s="28"/>
     </row>
-    <row r="57" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="52"/>
       <c r="B57" s="21" t="s">
         <v>212</v>
@@ -22566,7 +22566,7 @@
       <c r="H57" s="21"/>
       <c r="I57" s="28"/>
     </row>
-    <row r="58" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="52"/>
       <c r="B58" s="21" t="s">
         <v>202</v>
@@ -22583,7 +22583,7 @@
       <c r="H58" s="21"/>
       <c r="I58" s="28"/>
     </row>
-    <row r="59" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="52"/>
       <c r="B59" s="21" t="s">
         <v>197</v>
@@ -22600,7 +22600,7 @@
       <c r="H59" s="21"/>
       <c r="I59" s="28"/>
     </row>
-    <row r="60" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="52"/>
       <c r="B60" s="21" t="s">
         <v>204</v>
@@ -22617,7 +22617,7 @@
       <c r="H60" s="21"/>
       <c r="I60" s="28"/>
     </row>
-    <row r="61" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="52"/>
       <c r="B61" s="21" t="s">
         <v>213</v>
@@ -22636,7 +22636,7 @@
       <c r="H61" s="21"/>
       <c r="I61" s="28"/>
     </row>
-    <row r="62" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="52"/>
       <c r="B62" s="21" t="s">
         <v>190</v>
@@ -22653,7 +22653,7 @@
       <c r="H62" s="21"/>
       <c r="I62" s="28"/>
     </row>
-    <row r="63" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="52"/>
       <c r="B63" s="21" t="s">
         <v>214</v>
@@ -22672,7 +22672,7 @@
       <c r="H63" s="21"/>
       <c r="I63" s="28"/>
     </row>
-    <row r="64" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="52"/>
       <c r="B64" s="21" t="s">
         <v>174</v>
@@ -22689,7 +22689,7 @@
       <c r="H64" s="21"/>
       <c r="I64" s="28"/>
     </row>
-    <row r="65" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -22700,7 +22700,7 @@
       <c r="H65" s="21"/>
       <c r="I65" s="28"/>
     </row>
-    <row r="66" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -22711,7 +22711,7 @@
       <c r="H66" s="21"/>
       <c r="I66" s="28"/>
     </row>
-    <row r="67" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="61" t="s">
         <v>176</v>
       </c>
@@ -22734,7 +22734,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="61"/>
       <c r="B68" s="21" t="s">
         <v>216</v>
@@ -22755,7 +22755,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="61"/>
       <c r="B69" s="21" t="s">
         <v>174</v>
@@ -22772,7 +22772,7 @@
       <c r="H69" s="21"/>
       <c r="I69" s="28"/>
     </row>
-    <row r="70" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -22783,7 +22783,7 @@
       <c r="H70" s="21"/>
       <c r="I70" s="28"/>
     </row>
-    <row r="71" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -22794,7 +22794,7 @@
       <c r="H71" s="21"/>
       <c r="I71" s="28"/>
     </row>
-    <row r="72" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A72" s="61" t="s">
         <v>168</v>
       </c>
@@ -22817,7 +22817,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="61"/>
       <c r="B73" s="21" t="s">
         <v>215</v>
@@ -22838,7 +22838,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="61"/>
       <c r="B74" s="21" t="s">
         <v>174</v>
@@ -22855,7 +22855,7 @@
       <c r="H74" s="21"/>
       <c r="I74" s="28"/>
     </row>
-    <row r="75" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -22866,7 +22866,7 @@
       <c r="H75" s="21"/>
       <c r="I75" s="28"/>
     </row>
-    <row r="76" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -22877,7 +22877,7 @@
       <c r="H76" s="21"/>
       <c r="I76" s="28"/>
     </row>
-    <row r="77" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A77" s="52" t="s">
         <v>169</v>
       </c>
@@ -22900,7 +22900,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="52"/>
       <c r="B78" s="21" t="s">
         <v>217</v>
@@ -22921,7 +22921,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="52"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
@@ -22934,7 +22934,7 @@
       <c r="H79" s="21"/>
       <c r="I79" s="28"/>
     </row>
-    <row r="80" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="52"/>
       <c r="B80" s="21" t="s">
         <v>220</v>
@@ -22955,7 +22955,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="52"/>
       <c r="B81" s="21" t="s">
         <v>219</v>
@@ -22976,7 +22976,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="52"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
@@ -22989,7 +22989,7 @@
       <c r="H82" s="21"/>
       <c r="I82" s="28"/>
     </row>
-    <row r="83" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="52"/>
       <c r="B83" s="21" t="s">
         <v>215</v>
@@ -23010,7 +23010,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="52"/>
       <c r="B84" s="21" t="s">
         <v>174</v>
@@ -23027,7 +23027,7 @@
       <c r="H84" s="21"/>
       <c r="I84" s="28"/>
     </row>
-    <row r="85" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -23038,7 +23038,7 @@
       <c r="H85" s="21"/>
       <c r="I85" s="28"/>
     </row>
-    <row r="86" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -23049,7 +23049,7 @@
       <c r="H86" s="21"/>
       <c r="I86" s="28"/>
     </row>
-    <row r="87" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A87" s="52" t="s">
         <v>106</v>
       </c>
@@ -23072,7 +23072,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A88" s="52"/>
       <c r="B88" s="21" t="s">
         <v>217</v>
@@ -23093,7 +23093,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="52"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -23106,7 +23106,7 @@
       <c r="H89" s="21"/>
       <c r="I89" s="28"/>
     </row>
-    <row r="90" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="52"/>
       <c r="B90" s="21" t="s">
         <v>219</v>
@@ -23127,7 +23127,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="52"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
@@ -23140,7 +23140,7 @@
       <c r="H91" s="21"/>
       <c r="I91" s="28"/>
     </row>
-    <row r="92" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A92" s="52"/>
       <c r="B92" s="21" t="s">
         <v>215</v>
@@ -23161,7 +23161,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="52"/>
       <c r="B93" s="21" t="s">
         <v>174</v>
@@ -23178,7 +23178,7 @@
       <c r="H93" s="21"/>
       <c r="I93" s="28"/>
     </row>
-    <row r="94" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -23189,7 +23189,7 @@
       <c r="H94" s="21"/>
       <c r="I94" s="28"/>
     </row>
-    <row r="95" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -23200,7 +23200,7 @@
       <c r="H95" s="21"/>
       <c r="I95" s="28"/>
     </row>
-    <row r="96" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="52" t="s">
         <v>104</v>
       </c>
@@ -23223,7 +23223,7 @@
       </c>
       <c r="I96" s="28"/>
     </row>
-    <row r="97" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A97" s="52"/>
       <c r="B97" s="21" t="s">
         <v>189</v>
@@ -23244,7 +23244,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="52"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
@@ -23257,7 +23257,7 @@
       <c r="H98" s="21"/>
       <c r="I98" s="28"/>
     </row>
-    <row r="99" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A99" s="52"/>
       <c r="B99" s="21" t="s">
         <v>218</v>
@@ -23278,7 +23278,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="52"/>
       <c r="B100" s="21" t="s">
         <v>174</v>
@@ -23295,7 +23295,7 @@
       <c r="H100" s="21"/>
       <c r="I100" s="28"/>
     </row>
-    <row r="101" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -23306,7 +23306,7 @@
       <c r="H101" s="21"/>
       <c r="I101" s="28"/>
     </row>
-    <row r="102" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
@@ -23317,7 +23317,7 @@
       <c r="H102" s="21"/>
       <c r="I102" s="28"/>
     </row>
-    <row r="103" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
@@ -23328,7 +23328,7 @@
       <c r="H103" s="21"/>
       <c r="I103" s="28"/>
     </row>
-    <row r="104" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -23339,7 +23339,7 @@
       <c r="H104" s="21"/>
       <c r="I104" s="28"/>
     </row>
-    <row r="105" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -23350,7 +23350,7 @@
       <c r="H105" s="21"/>
       <c r="I105" s="28"/>
     </row>
-    <row r="106" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
       <c r="D106"/>
@@ -23359,7 +23359,7 @@
       <c r="G106"/>
       <c r="I106" s="24"/>
     </row>
-    <row r="107" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
@@ -23368,7 +23368,7 @@
       <c r="G107"/>
       <c r="I107" s="24"/>
     </row>
-    <row r="108" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
@@ -23377,7 +23377,7 @@
       <c r="G108"/>
       <c r="I108" s="24"/>
     </row>
-    <row r="109" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -23387,7 +23387,7 @@
       <c r="G109"/>
       <c r="I109" s="24"/>
     </row>
-    <row r="110" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -23397,7 +23397,7 @@
       <c r="G110"/>
       <c r="I110" s="24"/>
     </row>
-    <row r="111" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -23407,7 +23407,7 @@
       <c r="G111"/>
       <c r="I111" s="24"/>
     </row>
-    <row r="112" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -23417,7 +23417,7 @@
       <c r="G112"/>
       <c r="I112" s="24"/>
     </row>
-    <row r="113" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -23427,7 +23427,7 @@
       <c r="G113"/>
       <c r="I113" s="24"/>
     </row>
-    <row r="114" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -23437,7 +23437,7 @@
       <c r="G114"/>
       <c r="I114" s="24"/>
     </row>
-    <row r="115" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -23447,7 +23447,7 @@
       <c r="G115"/>
       <c r="I115" s="24"/>
     </row>
-    <row r="116" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -23457,7 +23457,7 @@
       <c r="G116"/>
       <c r="I116" s="24"/>
     </row>
-    <row r="117" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -23467,7 +23467,7 @@
       <c r="G117"/>
       <c r="I117" s="24"/>
     </row>
-    <row r="118" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -23477,7 +23477,7 @@
       <c r="G118"/>
       <c r="I118" s="24"/>
     </row>
-    <row r="119" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -23487,7 +23487,7 @@
       <c r="G119"/>
       <c r="I119" s="24"/>
     </row>
-    <row r="120" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -23497,7 +23497,7 @@
       <c r="G120"/>
       <c r="I120" s="24"/>
     </row>
-    <row r="121" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -23507,7 +23507,7 @@
       <c r="G121"/>
       <c r="I121" s="24"/>
     </row>
-    <row r="122" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -23517,7 +23517,7 @@
       <c r="G122"/>
       <c r="I122" s="24"/>
     </row>
-    <row r="123" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -23527,7 +23527,7 @@
       <c r="G123"/>
       <c r="I123" s="24"/>
     </row>
-    <row r="124" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -23537,7 +23537,7 @@
       <c r="G124"/>
       <c r="I124" s="24"/>
     </row>
-    <row r="125" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -23547,7 +23547,7 @@
       <c r="G125"/>
       <c r="I125" s="24"/>
     </row>
-    <row r="126" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -23557,7 +23557,7 @@
       <c r="G126"/>
       <c r="I126" s="24"/>
     </row>
-    <row r="127" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -23567,7 +23567,7 @@
       <c r="G127"/>
       <c r="I127" s="24"/>
     </row>
-    <row r="128" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -23577,7 +23577,7 @@
       <c r="G128"/>
       <c r="I128" s="24"/>
     </row>
-    <row r="129" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -23587,7 +23587,7 @@
       <c r="G129"/>
       <c r="I129" s="24"/>
     </row>
-    <row r="130" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -23597,7 +23597,7 @@
       <c r="G130"/>
       <c r="I130" s="24"/>
     </row>
-    <row r="131" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -23607,7 +23607,7 @@
       <c r="G131"/>
       <c r="I131" s="24"/>
     </row>
-    <row r="132" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -23617,7 +23617,7 @@
       <c r="G132"/>
       <c r="I132" s="24"/>
     </row>
-    <row r="133" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -23627,7 +23627,7 @@
       <c r="G133"/>
       <c r="I133" s="24"/>
     </row>
-    <row r="134" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -23637,7 +23637,7 @@
       <c r="G134"/>
       <c r="I134" s="24"/>
     </row>
-    <row r="135" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -23647,7 +23647,7 @@
       <c r="G135"/>
       <c r="I135" s="24"/>
     </row>
-    <row r="136" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -23657,7 +23657,7 @@
       <c r="G136"/>
       <c r="I136" s="24"/>
     </row>
-    <row r="137" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -23667,7 +23667,7 @@
       <c r="G137"/>
       <c r="I137" s="24"/>
     </row>
-    <row r="138" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -23677,7 +23677,7 @@
       <c r="G138"/>
       <c r="I138" s="24"/>
     </row>
-    <row r="139" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -23687,7 +23687,7 @@
       <c r="G139"/>
       <c r="I139" s="24"/>
     </row>
-    <row r="140" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -23697,7 +23697,7 @@
       <c r="G140"/>
       <c r="I140" s="24"/>
     </row>
-    <row r="141" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -23707,7 +23707,7 @@
       <c r="G141"/>
       <c r="I141" s="24"/>
     </row>
-    <row r="142" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -23737,26 +23737,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="D33" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.88671875" customWidth="1"/>
-    <col min="3" max="3" width="44.109375" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="89.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.875" customWidth="1"/>
+    <col min="3" max="3" width="44.125" customWidth="1"/>
+    <col min="4" max="4" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="89.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -23789,7 +23789,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="52" t="s">
         <v>165</v>
       </c>
@@ -23824,7 +23824,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="52"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
@@ -23857,7 +23857,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="52"/>
       <c r="B4" s="21" t="s">
         <v>172</v>
@@ -23890,7 +23890,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="52" t="s">
         <v>166</v>
       </c>
@@ -23904,9 +23904,7 @@
       <c r="E5" s="35"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>558</v>
-      </c>
+      <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
         <v>326</v>
       </c>
@@ -23917,7 +23915,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="52"/>
       <c r="B6" s="21" t="s">
         <v>183</v>
@@ -23938,7 +23936,7 @@
         <v>100</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>497</v>
+        <v>558</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>326</v>
@@ -23950,7 +23948,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="52"/>
       <c r="B7" s="21" t="s">
         <v>184</v>
@@ -23971,7 +23969,7 @@
         <v>295</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>326</v>
@@ -23983,7 +23981,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="52"/>
       <c r="B8" s="21" t="s">
         <v>185</v>
@@ -24004,7 +24002,7 @@
         <v>295</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>326</v>
@@ -24016,7 +24014,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="52"/>
       <c r="B9" s="21" t="s">
         <v>186</v>
@@ -24028,9 +24026,7 @@
       <c r="E9" s="35"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>561</v>
-      </c>
+      <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
         <v>326</v>
       </c>
@@ -24041,7 +24037,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="52"/>
       <c r="B10" s="21" t="s">
         <v>187</v>
@@ -24062,7 +24058,7 @@
         <v>100</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>326</v>
@@ -24074,7 +24070,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="52"/>
       <c r="B11" s="21" t="s">
         <v>188</v>
@@ -24095,7 +24091,7 @@
         <v>100</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>495</v>
+        <v>558</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>326</v>
@@ -24107,7 +24103,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="52"/>
       <c r="B12" s="21" t="s">
         <v>189</v>
@@ -24128,7 +24124,7 @@
         <v>100</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>495</v>
+        <v>558</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>326</v>
@@ -24140,7 +24136,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="52"/>
       <c r="B13" s="21" t="s">
         <v>190</v>
@@ -24161,7 +24157,7 @@
         <v>100</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>495</v>
+        <v>558</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>326</v>
@@ -24173,7 +24169,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="52"/>
       <c r="B14" s="21" t="s">
         <v>191</v>
@@ -24206,7 +24202,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="52"/>
       <c r="B15" s="21" t="s">
         <v>192</v>
@@ -24239,7 +24235,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="52"/>
       <c r="B16" s="21" t="s">
         <v>193</v>
@@ -24272,7 +24268,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="52"/>
       <c r="B17" s="21" t="s">
         <v>194</v>
@@ -24305,7 +24301,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="52"/>
       <c r="B18" s="21" t="s">
         <v>195</v>
@@ -24326,7 +24322,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="52"/>
       <c r="B19" s="21" t="s">
         <v>196</v>
@@ -24359,7 +24355,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="52"/>
       <c r="B20" s="21" t="s">
         <v>196</v>
@@ -24392,7 +24388,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="52"/>
       <c r="B21" s="21" t="s">
         <v>197</v>
@@ -24425,7 +24421,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="52"/>
       <c r="B22" s="21" t="s">
         <v>197</v>
@@ -24458,7 +24454,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="52"/>
       <c r="B23" s="21" t="s">
         <v>198</v>
@@ -24491,7 +24487,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="52"/>
       <c r="B24" s="21" t="s">
         <v>199</v>
@@ -24524,7 +24520,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="52"/>
       <c r="B25" s="21" t="s">
         <v>200</v>
@@ -24557,7 +24553,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="52"/>
       <c r="B26" s="21" t="s">
         <v>201</v>
@@ -24590,7 +24586,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="52"/>
       <c r="B27" s="21" t="s">
         <v>201</v>
@@ -24623,7 +24619,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="52"/>
       <c r="B28" s="21" t="s">
         <v>202</v>
@@ -24656,7 +24652,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="52"/>
       <c r="B29" s="21" t="s">
         <v>202</v>
@@ -24689,7 +24685,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="52"/>
       <c r="B30" s="21" t="s">
         <v>203</v>
@@ -24722,7 +24718,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="52"/>
       <c r="B31" s="21" t="s">
         <v>204</v>
@@ -24755,7 +24751,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="52"/>
       <c r="B32" s="21" t="s">
         <v>204</v>
@@ -24788,7 +24784,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="52"/>
       <c r="B33" s="21" t="s">
         <v>205</v>
@@ -24821,7 +24817,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="52"/>
       <c r="B34" s="21" t="s">
         <v>205</v>
@@ -24854,7 +24850,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="52"/>
       <c r="B35" s="21" t="s">
         <v>205</v>
@@ -24887,7 +24883,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="52"/>
       <c r="B36" s="21" t="s">
         <v>205</v>
@@ -24920,7 +24916,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="52"/>
       <c r="B37" s="21" t="s">
         <v>205</v>
@@ -24953,7 +24949,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="52"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
@@ -24986,7 +24982,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="52"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
@@ -25019,7 +25015,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="52"/>
       <c r="B40" s="21" t="s">
         <v>205</v>
@@ -25052,7 +25048,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="52"/>
       <c r="B41" s="21" t="s">
         <v>205</v>
@@ -25085,7 +25081,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="52"/>
       <c r="B42" s="21" t="s">
         <v>205</v>
@@ -25118,7 +25114,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="52"/>
       <c r="B43" s="21" t="s">
         <v>205</v>
@@ -25151,7 +25147,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="52"/>
       <c r="B44" s="21" t="s">
         <v>205</v>
@@ -25184,7 +25180,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="52"/>
       <c r="B45" s="21" t="s">
         <v>206</v>
@@ -25217,7 +25213,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="52" t="s">
         <v>175</v>
       </c>
@@ -25236,7 +25232,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="33"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="52"/>
       <c r="B47" s="21" t="s">
         <v>211</v>
@@ -25253,7 +25249,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="52"/>
       <c r="B48" s="21" t="s">
         <v>189</v>
@@ -25286,7 +25282,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="52"/>
       <c r="B49" s="21" t="s">
         <v>199</v>
@@ -25303,7 +25299,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="52"/>
       <c r="B50" s="21" t="s">
         <v>212</v>
@@ -25320,7 +25316,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="52"/>
       <c r="B51" s="21" t="s">
         <v>202</v>
@@ -25337,7 +25333,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" s="52"/>
       <c r="B52" s="21" t="s">
         <v>197</v>
@@ -25354,7 +25350,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="52"/>
       <c r="B53" s="21" t="s">
         <v>204</v>
@@ -25371,7 +25367,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" s="52" t="s">
         <v>176</v>
       </c>
@@ -25406,7 +25402,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="52"/>
       <c r="B55" s="21" t="s">
         <v>216</v>
@@ -25439,7 +25435,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" s="52" t="s">
         <v>168</v>
       </c>
@@ -25474,7 +25470,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="52"/>
       <c r="B57" s="21" t="s">
         <v>215</v>
@@ -25507,7 +25503,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A58" s="52" t="s">
         <v>169</v>
       </c>
@@ -25542,7 +25538,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="52"/>
       <c r="B59" s="21" t="s">
         <v>217</v>
@@ -25575,7 +25571,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="52"/>
       <c r="B60" s="21" t="s">
         <v>220</v>
@@ -25608,7 +25604,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="52"/>
       <c r="B61" s="21" t="s">
         <v>219</v>
@@ -25641,7 +25637,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="52"/>
       <c r="B62" s="21" t="s">
         <v>215</v>
@@ -25674,7 +25670,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="52" t="s">
         <v>106</v>
       </c>
@@ -25709,7 +25705,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" s="52"/>
       <c r="B64" s="21" t="s">
         <v>217</v>
@@ -25742,7 +25738,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="52"/>
       <c r="B65" s="21" t="s">
         <v>219</v>
@@ -25775,7 +25771,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="52"/>
       <c r="B66" s="21" t="s">
         <v>215</v>
@@ -25808,7 +25804,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" s="52" t="s">
         <v>104</v>
       </c>
@@ -25843,7 +25839,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" s="52"/>
       <c r="B68" s="21" t="s">
         <v>189</v>
@@ -25876,7 +25872,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" s="52"/>
       <c r="B69" s="21" t="s">
         <v>218</v>
@@ -25934,14 +25930,14 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>297</v>
       </c>
@@ -25952,7 +25948,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="29" t="s">
         <v>165</v>
       </c>
@@ -25963,7 +25959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="62" t="s">
         <v>166</v>
       </c>
@@ -25974,7 +25970,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="62"/>
       <c r="B4" s="21" t="s">
         <v>189</v>
@@ -25983,7 +25979,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>175</v>
       </c>
@@ -25994,7 +25990,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>176</v>
       </c>
@@ -26005,7 +26001,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>297</v>
       </c>
@@ -26016,7 +26012,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="31" t="s">
         <v>166</v>
       </c>
@@ -26027,7 +26023,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="31" t="s">
         <v>104</v>
       </c>
@@ -26038,7 +26034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>297</v>
       </c>
@@ -26049,8 +26045,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="56" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="58" t="s">
         <v>166</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -26060,8 +26056,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="57"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="59"/>
       <c r="B20" s="21" t="s">
         <v>202</v>
       </c>
@@ -26069,7 +26065,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="29" t="s">
         <v>168</v>
       </c>
@@ -26080,7 +26076,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="29" t="s">
         <v>169</v>
       </c>
@@ -26091,7 +26087,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="29" t="s">
         <v>106</v>
       </c>
@@ -26102,7 +26098,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="43" t="s">
         <v>297</v>
       </c>
@@ -26113,7 +26109,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="63" t="s">
         <v>166</v>
       </c>
@@ -26124,7 +26120,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="63"/>
       <c r="B28" s="45" t="s">
         <v>205</v>
@@ -26133,7 +26129,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="63"/>
       <c r="B29" s="45" t="s">
         <v>205</v>
@@ -26142,7 +26138,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="63"/>
       <c r="B30" s="45" t="s">
         <v>205</v>
@@ -26151,7 +26147,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="63"/>
       <c r="B31" s="45" t="s">
         <v>205</v>
@@ -26160,7 +26156,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="63"/>
       <c r="B32" s="21" t="s">
         <v>196</v>
@@ -26169,7 +26165,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="63"/>
       <c r="B33" s="21" t="s">
         <v>197</v>
@@ -26178,7 +26174,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="63"/>
       <c r="B34" s="21" t="s">
         <v>201</v>
@@ -26187,7 +26183,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="63"/>
       <c r="B35" s="21" t="s">
         <v>202</v>
@@ -26196,7 +26192,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="63"/>
       <c r="B36" s="21" t="s">
         <v>204</v>
@@ -26205,7 +26201,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="43" t="s">
         <v>297</v>
       </c>
@@ -26216,7 +26212,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="46" t="s">
         <v>165</v>
       </c>
@@ -26227,7 +26223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="63" t="s">
         <v>166</v>
       </c>
@@ -26238,7 +26234,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="63"/>
       <c r="B42" s="21" t="s">
         <v>196</v>
@@ -26247,7 +26243,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="46" t="s">
         <v>168</v>
       </c>
@@ -26258,7 +26254,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="46" t="s">
         <v>169</v>
       </c>
@@ -26269,7 +26265,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="46" t="s">
         <v>104</v>
       </c>
@@ -26300,31 +26296,31 @@
       <selection activeCell="E1" sqref="E1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.21875" customWidth="1"/>
-    <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" customWidth="1"/>
+    <col min="12" max="12" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="26" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26" customWidth="1"/>
-    <col min="17" max="17" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.77734375" customWidth="1"/>
+    <col min="17" max="17" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" s="65" t="s">
         <v>338</v>
       </c>
@@ -26356,7 +26352,7 @@
       <c r="S1" s="75"/>
       <c r="T1" s="75"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="37" t="s">
         <v>341</v>
       </c>
@@ -26418,7 +26414,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>388</v>
       </c>
@@ -26468,7 +26464,7 @@
       </c>
       <c r="T3" s="36"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>388</v>
       </c>
@@ -26518,7 +26514,7 @@
       </c>
       <c r="T4" s="36"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>388</v>
       </c>
@@ -26568,7 +26564,7 @@
       </c>
       <c r="T5" s="36"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>388</v>
       </c>
@@ -26618,7 +26614,7 @@
       </c>
       <c r="T6" s="36"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>388</v>
       </c>
@@ -26668,7 +26664,7 @@
       </c>
       <c r="T7" s="36"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>388</v>
       </c>
@@ -26718,7 +26714,7 @@
       </c>
       <c r="T8" s="36"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>388</v>
       </c>
@@ -26768,7 +26764,7 @@
       </c>
       <c r="T9" s="36"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>388</v>
       </c>
@@ -26818,7 +26814,7 @@
       </c>
       <c r="T10" s="36"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>388</v>
       </c>
@@ -26868,7 +26864,7 @@
       </c>
       <c r="T11" s="36"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>388</v>
       </c>
@@ -26918,7 +26914,7 @@
       </c>
       <c r="T12" s="36"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>388</v>
       </c>
@@ -26968,7 +26964,7 @@
       </c>
       <c r="T13" s="36"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>388</v>
       </c>
@@ -27018,7 +27014,7 @@
       </c>
       <c r="T14" s="36"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>388</v>
       </c>
@@ -27068,7 +27064,7 @@
       </c>
       <c r="T15" s="36"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>388</v>
       </c>
@@ -27118,7 +27114,7 @@
       </c>
       <c r="T16" s="36"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>388</v>
       </c>
@@ -27168,7 +27164,7 @@
       </c>
       <c r="T17" s="36"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>388</v>
       </c>
@@ -27218,7 +27214,7 @@
       </c>
       <c r="T18" s="36"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>388</v>
       </c>
@@ -27268,7 +27264,7 @@
       </c>
       <c r="T19" s="36"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>388</v>
       </c>
@@ -27318,7 +27314,7 @@
       </c>
       <c r="T20" s="36"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>388</v>
       </c>
@@ -27368,7 +27364,7 @@
       </c>
       <c r="T21" s="36"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>388</v>
       </c>
@@ -27418,7 +27414,7 @@
       </c>
       <c r="T22" s="36"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>388</v>
       </c>
@@ -27468,7 +27464,7 @@
       </c>
       <c r="T23" s="36"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>388</v>
       </c>
@@ -27514,7 +27510,7 @@
       </c>
       <c r="T24" s="36"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>388</v>
       </c>
@@ -27560,7 +27556,7 @@
       </c>
       <c r="T25" s="36"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>388</v>
       </c>
@@ -27606,7 +27602,7 @@
       </c>
       <c r="T26" s="36"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -27643,7 +27639,7 @@
       </c>
       <c r="T27" s="36"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -27683,7 +27679,7 @@
       </c>
       <c r="T28" s="36"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -27721,7 +27717,7 @@
       </c>
       <c r="T29" s="36"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -27761,7 +27757,7 @@
       </c>
       <c r="T30" s="36"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -27801,7 +27797,7 @@
       </c>
       <c r="T31" s="36"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -27841,7 +27837,7 @@
       </c>
       <c r="T32" s="36"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -27881,7 +27877,7 @@
       </c>
       <c r="T33" s="36"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -27921,7 +27917,7 @@
       </c>
       <c r="T34" s="36"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -27961,7 +27957,7 @@
       </c>
       <c r="T35" s="36"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -28001,7 +27997,7 @@
       </c>
       <c r="T36" s="36"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -28041,7 +28037,7 @@
       </c>
       <c r="T37" s="36"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -28081,7 +28077,7 @@
       </c>
       <c r="T38" s="36"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -28121,7 +28117,7 @@
       </c>
       <c r="T39" s="36"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -28161,7 +28157,7 @@
       </c>
       <c r="T40" s="36"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -28201,7 +28197,7 @@
       </c>
       <c r="T41" s="36"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -28241,7 +28237,7 @@
       </c>
       <c r="T42" s="36"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -28281,7 +28277,7 @@
       </c>
       <c r="T43" s="36"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -28321,7 +28317,7 @@
       </c>
       <c r="T44" s="36"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -28355,7 +28351,7 @@
       </c>
       <c r="T45" s="36"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -28389,7 +28385,7 @@
       </c>
       <c r="T46" s="36"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -28423,7 +28419,7 @@
       </c>
       <c r="T47" s="36"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -28457,7 +28453,7 @@
       </c>
       <c r="T48" s="36"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -28491,7 +28487,7 @@
       </c>
       <c r="T49" s="36"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -28525,7 +28521,7 @@
       </c>
       <c r="T50" s="36"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -28553,7 +28549,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -28581,7 +28577,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -28609,7 +28605,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -28637,7 +28633,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -28665,7 +28661,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -28693,7 +28689,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -28721,7 +28717,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -28749,7 +28745,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -28777,7 +28773,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -28805,7 +28801,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -28833,7 +28829,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -28861,7 +28857,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -28889,7 +28885,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -28917,7 +28913,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -28945,7 +28941,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -28973,7 +28969,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -29001,7 +28997,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -29029,7 +29025,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -29057,7 +29053,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -29085,7 +29081,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -29113,7 +29109,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -29141,7 +29137,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -29169,7 +29165,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -29197,7 +29193,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -29225,7 +29221,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -29253,7 +29249,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -29281,7 +29277,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -29309,7 +29305,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -29337,7 +29333,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -29365,7 +29361,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -29393,7 +29389,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -29421,7 +29417,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -29449,7 +29445,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -29477,7 +29473,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -29505,7 +29501,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -29533,7 +29529,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -29561,7 +29557,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -29589,7 +29585,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -29617,7 +29613,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -29645,7 +29641,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -29673,7 +29669,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -29701,7 +29697,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -29729,7 +29725,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -29757,7 +29753,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -29785,7 +29781,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -29813,7 +29809,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -29841,7 +29837,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -29869,7 +29865,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -29897,7 +29893,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -29925,7 +29921,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -29953,7 +29949,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -29981,7 +29977,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -30009,7 +30005,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -30037,7 +30033,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -30065,7 +30061,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -30093,7 +30089,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -30121,7 +30117,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -30149,7 +30145,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -30177,7 +30173,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -30205,7 +30201,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -30233,7 +30229,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -30261,7 +30257,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -30289,7 +30285,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -30311,7 +30307,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -30333,7 +30329,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -30355,7 +30351,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -30377,7 +30373,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -30399,7 +30395,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -30421,7 +30417,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -30443,7 +30439,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -30465,7 +30461,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -30487,7 +30483,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -30509,7 +30505,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -30531,7 +30527,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -30553,7 +30549,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -30575,7 +30571,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -30597,7 +30593,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -30619,7 +30615,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -30641,7 +30637,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -30663,7 +30659,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -30685,7 +30681,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -30707,7 +30703,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -30729,7 +30725,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -30751,7 +30747,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -30773,7 +30769,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -30795,7 +30791,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -30817,7 +30813,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -30839,7 +30835,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -30861,7 +30857,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -30883,7 +30879,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -30905,7 +30901,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -30927,7 +30923,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -30949,7 +30945,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -30992,17 +30988,17 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="53.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="2" max="2" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.125" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="53.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="17"/>
       <c r="B1" s="17" t="s">
         <v>167</v>
@@ -31020,7 +31016,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A2" s="52"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -31034,7 +31030,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="52"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -31048,7 +31044,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
         <v>106</v>
       </c>
@@ -31068,7 +31064,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="52"/>
       <c r="B7" s="50" t="s">
         <v>217</v>
@@ -31086,7 +31082,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="52"/>
       <c r="B8" s="50" t="s">
         <v>219</v>
@@ -31104,7 +31100,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="52"/>
       <c r="B9" s="3" t="s">
         <v>215</v>
@@ -31122,7 +31118,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="52" t="s">
         <v>165</v>
       </c>
@@ -31142,7 +31138,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="52"/>
       <c r="B14" s="3" t="s">
         <v>171</v>
@@ -31160,7 +31156,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="52"/>
       <c r="B15" s="3" t="s">
         <v>171</v>
@@ -31178,7 +31174,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="52"/>
       <c r="B16" s="3" t="s">
         <v>181</v>
@@ -31196,7 +31192,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="52"/>
       <c r="B17" s="3" t="s">
         <v>172</v>
@@ -31214,7 +31210,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="52"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -31222,7 +31218,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="21"/>
     </row>
-    <row r="23" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="52" t="s">
         <v>166</v>
       </c>
@@ -31242,7 +31238,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="52"/>
       <c r="B24" s="21" t="s">
         <v>206</v>
@@ -31260,7 +31256,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="52"/>
       <c r="B25" s="21" t="s">
         <v>206</v>
@@ -31278,7 +31274,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="52" t="s">
         <v>365</v>
       </c>
@@ -31298,7 +31294,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="52"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -31306,7 +31302,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="21"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="52"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -31335,17 +31331,17 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="17"/>
       <c r="B1" s="17" t="s">
         <v>167</v>
@@ -31366,7 +31362,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="52"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -31381,7 +31377,7 @@
       </c>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="52"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -31396,7 +31392,7 @@
       </c>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="52"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -31411,7 +31407,7 @@
       </c>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="52"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -31426,7 +31422,7 @@
       </c>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="52"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -31441,7 +31437,7 @@
       </c>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="52"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -31456,7 +31452,7 @@
       </c>
       <c r="G7" s="21"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>167</v>
@@ -31477,7 +31473,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="52" t="s">
         <v>165</v>
       </c>
@@ -31500,7 +31496,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="52"/>
       <c r="B14" s="21" t="s">
         <v>171</v>
@@ -31521,7 +31517,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="52"/>
       <c r="B15" s="21" t="s">
         <v>171</v>
@@ -31542,7 +31538,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="52"/>
       <c r="B16" s="21" t="s">
         <v>171</v>
@@ -31563,7 +31559,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="52"/>
       <c r="B17" s="21" t="s">
         <v>171</v>
@@ -31584,7 +31580,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="52"/>
       <c r="B18" s="21" t="s">
         <v>171</v>
@@ -31605,7 +31601,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="52"/>
       <c r="B19" s="21" t="s">
         <v>171</v>
@@ -31626,7 +31622,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="52"/>
       <c r="B20" s="21" t="s">
         <v>171</v>
@@ -31647,7 +31643,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="52"/>
       <c r="B21" s="21" t="s">
         <v>171</v>
@@ -31668,7 +31664,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="52"/>
       <c r="B22" s="21" t="s">
         <v>171</v>
@@ -31689,7 +31685,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="52"/>
       <c r="B23" s="21" t="s">
         <v>171</v>
@@ -31710,7 +31706,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="52"/>
       <c r="B24" s="21" t="s">
         <v>171</v>
@@ -31731,7 +31727,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="52"/>
       <c r="B25" s="21" t="s">
         <v>171</v>
@@ -31752,7 +31748,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="52"/>
       <c r="B26" s="21" t="s">
         <v>171</v>
@@ -31773,7 +31769,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="52"/>
       <c r="B27" s="21" t="s">
         <v>171</v>
@@ -31794,7 +31790,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="52"/>
       <c r="B28" s="21" t="s">
         <v>171</v>
@@ -31815,7 +31811,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="52"/>
       <c r="B29" s="21" t="s">
         <v>171</v>
@@ -31836,7 +31832,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="52"/>
       <c r="B30" s="21" t="s">
         <v>171</v>
@@ -31857,7 +31853,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="52"/>
       <c r="B31" s="21" t="s">
         <v>171</v>
@@ -31878,7 +31874,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="52"/>
       <c r="B32" s="21" t="s">
         <v>171</v>
@@ -31899,7 +31895,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="52"/>
       <c r="B33" s="21" t="s">
         <v>171</v>
@@ -31920,7 +31916,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="52"/>
       <c r="B34" s="21" t="s">
         <v>171</v>
@@ -31941,7 +31937,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="52"/>
       <c r="B35" s="21" t="s">
         <v>171</v>
@@ -31962,7 +31958,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="52"/>
       <c r="B36" s="21" t="s">
         <v>171</v>
@@ -31983,7 +31979,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="52"/>
       <c r="B37" s="21" t="s">
         <v>171</v>
@@ -32004,7 +32000,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="52"/>
       <c r="B38" s="21" t="s">
         <v>171</v>
@@ -32025,7 +32021,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="52"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
@@ -32034,7 +32030,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="21"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="52"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -32043,7 +32039,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="21"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
         <v>167</v>
@@ -32064,7 +32060,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="52" t="s">
         <v>165</v>
       </c>
@@ -32087,7 +32083,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="52"/>
       <c r="B47" s="3" t="s">
         <v>181</v>
@@ -32108,7 +32104,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="52"/>
       <c r="B48" s="3" t="s">
         <v>181</v>
@@ -32129,7 +32125,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="52"/>
       <c r="B49" s="3" t="s">
         <v>181</v>
@@ -32150,7 +32146,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="52"/>
       <c r="B50" s="3" t="s">
         <v>181</v>
@@ -32171,7 +32167,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="52"/>
       <c r="B51" s="3" t="s">
         <v>181</v>
@@ -32192,7 +32188,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="52"/>
       <c r="B52" s="3" t="s">
         <v>181</v>
@@ -32213,7 +32209,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="52"/>
       <c r="B53" s="3" t="s">
         <v>181</v>
@@ -32234,7 +32230,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="52"/>
       <c r="B54" s="3" t="s">
         <v>181</v>
@@ -32255,7 +32251,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="52"/>
       <c r="B55" s="3" t="s">
         <v>181</v>
@@ -32276,7 +32272,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="52"/>
       <c r="B56" s="3" t="s">
         <v>181</v>
@@ -32297,7 +32293,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="52"/>
       <c r="B57" s="3" t="s">
         <v>181</v>
@@ -32318,7 +32314,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="52"/>
       <c r="B58" s="3" t="s">
         <v>181</v>
@@ -32339,7 +32335,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="52"/>
       <c r="B59" s="3" t="s">
         <v>181</v>
@@ -32360,7 +32356,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="52"/>
       <c r="B60" s="3" t="s">
         <v>181</v>
@@ -32381,7 +32377,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="52"/>
       <c r="B61" s="3" t="s">
         <v>181</v>
@@ -32402,7 +32398,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="52"/>
       <c r="B62" s="3" t="s">
         <v>181</v>
@@ -32423,7 +32419,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="52"/>
       <c r="B63" s="3" t="s">
         <v>181</v>
@@ -32444,7 +32440,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="52"/>
       <c r="B64" s="3" t="s">
         <v>181</v>
@@ -32465,7 +32461,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="52"/>
       <c r="B65" s="3" t="s">
         <v>181</v>
@@ -32486,7 +32482,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="52"/>
       <c r="B66" s="3" t="s">
         <v>181</v>
@@ -32507,7 +32503,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="52"/>
       <c r="B67" s="3" t="s">
         <v>181</v>
@@ -32528,7 +32524,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="52"/>
       <c r="B68" s="3" t="s">
         <v>181</v>
@@ -32549,7 +32545,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="52"/>
       <c r="B69" s="3" t="s">
         <v>181</v>
@@ -32570,7 +32566,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="52"/>
       <c r="B70" s="3" t="s">
         <v>181</v>
@@ -32591,7 +32587,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="52"/>
       <c r="B71" s="3" t="s">
         <v>181</v>
@@ -32612,7 +32608,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="52"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -32621,7 +32617,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="21"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="52"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -32630,7 +32626,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="21"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
         <v>167</v>
@@ -32651,7 +32647,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="52" t="s">
         <v>165</v>
       </c>
@@ -32674,7 +32670,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="52"/>
       <c r="B79" s="3" t="s">
         <v>172</v>
@@ -32695,7 +32691,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="52"/>
       <c r="B80" s="3" t="s">
         <v>172</v>
@@ -32716,7 +32712,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="52"/>
       <c r="B81" s="3" t="s">
         <v>172</v>
@@ -32737,7 +32733,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A82" s="52"/>
       <c r="B82" s="3" t="s">
         <v>172</v>
@@ -32758,7 +32754,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="52"/>
       <c r="B83" s="3" t="s">
         <v>172</v>
@@ -32779,7 +32775,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A84" s="52"/>
       <c r="B84" s="3" t="s">
         <v>172</v>
@@ -32800,7 +32796,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A85" s="52"/>
       <c r="B85" s="3" t="s">
         <v>172</v>
@@ -32821,7 +32817,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A86" s="52"/>
       <c r="B86" s="3" t="s">
         <v>172</v>
@@ -32842,7 +32838,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A87" s="52"/>
       <c r="B87" s="3" t="s">
         <v>172</v>
@@ -32863,7 +32859,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A88" s="52"/>
       <c r="B88" s="3" t="s">
         <v>172</v>
@@ -32884,7 +32880,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A89" s="52"/>
       <c r="B89" s="3" t="s">
         <v>172</v>
@@ -32905,7 +32901,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="52"/>
       <c r="B90" s="3" t="s">
         <v>172</v>
@@ -32926,7 +32922,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A91" s="52"/>
       <c r="B91" s="3" t="s">
         <v>172</v>
@@ -32947,7 +32943,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A92" s="52"/>
       <c r="B92" s="3" t="s">
         <v>172</v>
@@ -32968,7 +32964,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A93" s="52"/>
       <c r="B93" s="3" t="s">
         <v>172</v>
@@ -32989,7 +32985,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A94" s="52"/>
       <c r="B94" s="3" t="s">
         <v>172</v>
@@ -33010,7 +33006,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A95" s="52"/>
       <c r="B95" s="3" t="s">
         <v>172</v>
@@ -33031,7 +33027,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A96" s="52"/>
       <c r="B96" s="3" t="s">
         <v>172</v>
@@ -33052,7 +33048,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A97" s="52"/>
       <c r="B97" s="3" t="s">
         <v>172</v>
@@ -33073,7 +33069,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A98" s="52"/>
       <c r="B98" s="3" t="s">
         <v>172</v>
@@ -33094,7 +33090,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A99" s="52"/>
       <c r="B99" s="3" t="s">
         <v>172</v>
@@ -33115,7 +33111,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A100" s="52"/>
       <c r="B100" s="3" t="s">
         <v>172</v>
@@ -33136,7 +33132,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A101" s="52"/>
       <c r="B101" s="3" t="s">
         <v>172</v>
@@ -33157,7 +33153,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A102" s="52"/>
       <c r="B102" s="3" t="s">
         <v>172</v>
@@ -33178,7 +33174,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A103" s="52"/>
       <c r="B103" s="3" t="s">
         <v>172</v>
@@ -33199,7 +33195,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" s="52"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -33208,7 +33204,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="21"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" s="52"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -33217,7 +33213,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="21"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
         <v>167</v>
@@ -33238,7 +33234,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A110" s="52" t="s">
         <v>104</v>
       </c>
@@ -33261,7 +33257,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A111" s="52"/>
       <c r="B111" s="21" t="s">
         <v>189</v>
@@ -33282,7 +33278,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A112" s="52"/>
       <c r="B112" s="21" t="s">
         <v>187</v>
@@ -33303,7 +33299,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
         <v>167</v>
@@ -33324,7 +33320,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A116" s="52" t="s">
         <v>166</v>
       </c>
@@ -33347,7 +33343,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A117" s="52"/>
       <c r="B117" s="21" t="s">
         <v>206</v>
@@ -33368,7 +33364,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A118" s="52"/>
       <c r="B118" s="21" t="s">
         <v>206</v>
@@ -33389,7 +33385,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A119" s="52"/>
       <c r="B119" s="21" t="s">
         <v>206</v>
@@ -33410,7 +33406,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A120" s="52"/>
       <c r="B120" s="21" t="s">
         <v>206</v>
@@ -33431,7 +33427,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A121" s="52"/>
       <c r="B121" s="21" t="s">
         <v>206</v>
@@ -33452,7 +33448,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A122" s="52"/>
       <c r="B122" s="21" t="s">
         <v>206</v>
@@ -33473,7 +33469,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A123" s="52"/>
       <c r="B123" s="21" t="s">
         <v>206</v>
@@ -33494,7 +33490,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A124" s="52"/>
       <c r="B124" s="21" t="s">
         <v>206</v>
@@ -33515,7 +33511,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A125" s="52"/>
       <c r="B125" s="21" t="s">
         <v>206</v>
@@ -33536,7 +33532,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A126" s="52"/>
       <c r="B126" s="21" t="s">
         <v>206</v>
@@ -33557,7 +33553,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A127" s="52"/>
       <c r="B127" s="21" t="s">
         <v>206</v>
@@ -33578,7 +33574,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A128" s="52"/>
       <c r="B128" s="21" t="s">
         <v>206</v>
@@ -33599,7 +33595,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="52"/>
       <c r="B129" s="21" t="s">
         <v>206</v>
@@ -33620,7 +33616,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A130" s="52"/>
       <c r="B130" s="21" t="s">
         <v>206</v>
@@ -33641,7 +33637,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A131" s="52"/>
       <c r="B131" s="21" t="s">
         <v>206</v>
@@ -33662,7 +33658,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A132" s="52"/>
       <c r="B132" s="21" t="s">
         <v>206</v>
@@ -33683,7 +33679,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A133" s="52"/>
       <c r="B133" s="21" t="s">
         <v>206</v>
@@ -33704,7 +33700,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A134" s="52"/>
       <c r="B134" s="21" t="s">
         <v>206</v>
@@ -33725,7 +33721,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A135" s="52"/>
       <c r="B135" s="21" t="s">
         <v>206</v>
@@ -33746,7 +33742,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A136" s="52"/>
       <c r="B136" s="21" t="s">
         <v>206</v>
@@ -33767,7 +33763,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A137" s="52"/>
       <c r="B137" s="21" t="s">
         <v>206</v>
@@ -33788,7 +33784,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A138" s="52"/>
       <c r="B138" s="21" t="s">
         <v>206</v>
@@ -33809,7 +33805,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A139" s="52"/>
       <c r="B139" s="21" t="s">
         <v>206</v>
@@ -33830,7 +33826,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A140" s="52"/>
       <c r="B140" s="21" t="s">
         <v>206</v>
@@ -33851,7 +33847,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A141" s="52"/>
       <c r="B141" s="21" t="s">
         <v>206</v>
@@ -33872,7 +33868,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A142" s="52"/>
       <c r="B142" s="21" t="s">
         <v>206</v>
